--- a/hardware/eurorack-pmod-pcb-flat/eurorack-pmod-pcb.xlsx
+++ b/hardware/eurorack-pmod-pcb-flat/eurorack-pmod-pcb.xlsx
@@ -11,9 +11,9 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty" localSheetId="0">'eurorack-pmod-pcb'!$G$1</definedName>
-    <definedName name="PURCHASE_DESCRIPTION" localSheetId="0">'eurorack-pmod-pcb'!$G$30</definedName>
+    <definedName name="PURCHASE_DESCRIPTION" localSheetId="0">'eurorack-pmod-pcb'!$G$33</definedName>
     <definedName name="TotalCost" localSheetId="0">'eurorack-pmod-pcb'!$G$3</definedName>
-    <definedName name="USD_GBP" localSheetId="0">'eurorack-pmod-pcb'!$C$30</definedName>
+    <definedName name="USD_GBP" localSheetId="0">'eurorack-pmod-pcb'!$C$33</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -918,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -930,12 +930,154 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-  2000   $0.17    $342.00
-  4000   $0.17    $680.40</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P7" authorId="0">
+     1   $0.56      $0.56
+    10   $0.40      $3.99
+    50   $0.30     $15.08
+   100   $0.26     $26.27
+   500   $0.19     $97.29</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.57      $0.57
+    10   $0.40      $3.99
+    50   $0.30     $15.10
+   100   $0.26     $26.30
+  1000   $0.15    $154.00
+ 10000   $0.15  $1,540.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.16      $0.16
+  2000   $0.16    $314.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.31      £3.13
+    50   £0.27     £13.30
+   100   £0.23     £23.40
+   250   £0.20     £51.00
+  1000   £0.13    £133.00
+  2000   £0.11    £226.00
+  4000   £0.10    £400.00
+  8000   £0.09    £696.00
+ 12000   £0.08    £960.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+  1000   £0.11    £107.97</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.63      $0.63
+    10   $0.44      $4.43
+    25   $0.42     $10.55
+   100   $0.30     $30.17
+   250   $0.30     $74.68
+   500   $0.22    $112.45
+  1000   $0.19    $191.70</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -961,7 +1103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V7" authorId="0">
+    <comment ref="V8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -984,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH7" authorId="0">
+    <comment ref="AH8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1005,7 +1147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN7" authorId="0">
+    <comment ref="AN8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1017,7 +1159,6 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.70      $0.70
      5   $0.70      $3.50
     10   $0.49      $4.93
     25   $0.43     $10.82
@@ -1028,7 +1169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="J10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="0">
+    <comment ref="P10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1073,7 +1214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="0">
+    <comment ref="V10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1096,7 +1237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB9" authorId="0">
+    <comment ref="AB10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1108,16 +1249,16 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.21      $0.21
-    10   $0.17      $1.74
-    30   $0.16      $4.80
+     1   $0.22      $0.22
+    10   $0.18      $1.83
+    30   $0.17      $5.00
    100   $0.15     $14.63
    500   $0.14     $68.60
   1000   $0.13    $131.70</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH9" authorId="0">
+    <comment ref="AH10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1138,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN9" authorId="0">
+    <comment ref="AN10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1161,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT9" authorId="0">
+    <comment ref="AT10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1181,7 +1322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ9" authorId="0">
+    <comment ref="AZ10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1193,15 +1334,15 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.20      £2.00
-    50   £0.16      £7.90
-   250   £0.11     £27.16
-  1000   £0.09     £90.61
-  2000   £0.08    £163.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P10" authorId="0">
+    10   £0.20      £1.98
+    50   £0.16      £7.83
+   250   £0.11     £26.94
+  1000   £0.09     £89.88
+  2000   £0.08    £161.70</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1226,7 +1367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0">
+    <comment ref="P14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1238,17 +1379,83 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.54      $0.54
-    10   $0.34      $3.35
-   100   $0.19     $19.26
-  1000   $0.15    $150.73
-  2000   $0.14    $276.34
-  6000   $0.13    $753.66
- 10000   $0.12  $1,185.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J21" authorId="0">
+     1   $0.53      $0.53
+    10   $0.33      $3.25
+   100   $0.19     $18.72
+  1000   $0.15    $146.47
+  2000   $0.13    $268.52
+  6000   $0.12    $732.36
+ 10000   $0.11  $1,139.20
+ 50000   $0.11  $5,289.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.15      $0.15
+    50   $0.15      $7.45
+   100   $0.14     $13.80
+   500   $0.13     $65.50
+  1000   $0.13    $126.00
+  2000   $0.12    $238.00
+  4000   $0.10    $404.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.13      £1.27
+   100   £0.12     £11.70
+   500   £0.11     £56.00
+  1000   £0.11    £111.00
+  2000   £0.11    £212.00
+  4000   £0.08    £304.00
+ 20000   £0.07  £1,490.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.16      $0.16
+    10   $0.15      $1.52
+    50   $0.15      $7.45
+   100   $0.14     $13.80
+  1000   $0.13    $131.00
+ 10000   $0.13  $1,310.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1261,16 +1468,107 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.08      $0.08
-    10   $0.06      $0.59
-    25   $0.05      $1.21
-   100   $0.03      $3.03
-   250   $0.02      $5.92
-   500   $0.02      $9.40
-  1000   $0.01     $13.30</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P21" authorId="0">
+    10   $0.08      $0.83
+    25   $0.08      $2.08
+    50   $0.08      $4.15
+   100   $0.08      $8.30
+  4000   $0.13    $524.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.14      £1.38
+   100   £0.12     £12.10
+   500   £0.10     £52.50
+  1000   £0.09     £88.00
+  4000   £0.07    £280.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.13      $0.13
+    10   $0.09      $0.86
+    25   $0.09      $2.12
+   100   $0.05      $5.44
+   250   $0.05     $13.45
+   500   $0.04     $17.55
+  1000   $0.03     $34.70</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.13      $0.13
+    10   $0.12      $1.16
+    25   $0.08      $2.00
+    50   $0.06      $3.11
+   100   $0.04      $4.44
+   250   $0.03      $8.67
+   500   $0.03     $13.78
+  1000   $0.02     $19.55
+  5000   $0.02     $75.55
+ 10000   $0.01    $135.50
+ 25000   $0.01    $311.00
+ 50000   $0.01    $584.50
+125000   $0.01  $1,427.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+    10   £0.17      £1.69
+   100   £0.07      £6.60
+   500   £0.04     £20.00
+  1000   £0.03     £28.00
+  2500   £0.03     £62.50
+  5000   £0.02    £115.00
+ 25000   £0.02    £562.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1283,44 +1581,160 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.09      $0.87
-    25   $0.06      $1.50
-    50   $0.05      $2.33
-   100   $0.03      $3.33
-   250   $0.03      $6.50
-   500   $0.02     $10.33
-  1000   $0.01     $14.67
-  5000   $0.01     $56.65
- 10000   $0.01    $101.70
- 25000   $0.01    $233.25
- 50000   $0.01    $438.50
-125000   $0.01  $1,071.25</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
+    10   $0.06      $0.61
+    50   $0.06      $3.05
+   100   $0.04      $3.50
+  1000   $0.02     $20.00
+ 10000   $0.01    $130.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
 ================
-    10   £0.04      £0.43
-   100   £0.02      £2.36
-   500   £0.02      £9.55
-  1000   £0.02     £19.00
-  2500   £0.02     £47.25
-  5000   £0.02     £94.00
- 25000   £0.02    £467.50</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH21" authorId="0">
+     1   $0.03      $0.03
+    10   $0.03      $0.29
+    25   $0.03      $0.68
+    50   $0.03      $1.25
+   100   $0.02      $2.30
+   250   $0.02      $5.25
+   500   $0.02     $10.00
+  1000   $0.02     $19.00
+ 10000   $0.03    $300.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.22      $0.22
+    10   $0.19      $1.93
+    25   $0.13      $3.20
+   100   $0.08      $8.11
+   250   $0.08     $20.07
+   500   $0.07     $35.10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.13      $0.13
+    10   $0.12      $1.16
+    25   $0.08      $2.00
+    50   $0.06      $3.11
+   100   $0.04      $4.45
+   250   $0.03      $8.68
+   500   $0.03     $13.79
+  1000   $0.02     $19.58</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.26      $0.26
+    10   $0.12      $1.16
+    50   $0.12      $5.80
+   100   $0.09      $8.70
+  1000   $0.08     $82.00
+ 10000   $0.08    $820.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+  5000   $0.08    $410.00
+ 10000   $0.08    $820.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.09      $0.09</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.14      $0.14
+    10   $0.12      $1.22
+    25   $0.09      $2.22
+    50   $0.06      $3.22
+   100   $0.05      $4.78
+   250   $0.04      $9.17
+   500   $0.03     $14.44
+  1000   $0.02     $20.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1333,15 +1747,28 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.05      $0.47
-    50   $0.05      $2.35
-   100   $0.03      $2.60
-  1000   $0.01     $15.00
- 10000   $0.01    $140.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN21" authorId="0">
+    10   $0.07      $0.65
+    50   $0.07      $3.25
+   100   $0.03      $2.70
+  1000   $0.02     $20.00
+ 10000   $0.01    $150.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1353,20 +1780,35 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.04      $0.04
-    10   $0.04      $0.35
-    25   $0.03      $0.80
-    50   $0.03      $1.50
-   100   $0.03      $2.80
-   250   $0.03      $6.50
-   500   $0.02     $12.00
-  1000   $0.02     $22.00
-100000   $0.02  $1,900.00
-110000   $0.02  $2,090.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX21" authorId="0">
+ 10000   $0.01    $150.00
+ 20000   $0.01    $300.00
+ 30000   $0.01    $420.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.93      $0.93
+    10   $0.83      $8.32
+    25   $0.79     $19.74
+   100   $0.65     $64.85
+   250   $0.61    $151.55
+   500   $0.54    $267.86
+  1000   $0.43    $425.60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1379,7 +1821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ21" authorId="0">
+    <comment ref="AZ27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1391,293 +1833,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-   100   £0.02      £1.82
-  1000   £0.01      £9.59
-  5000   £0.01     £34.75</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.06      $0.06
-    10   $0.06      $0.56
-    25   $0.06      $1.39
-   100   $0.05      $5.46
-   250   $0.05     $13.45
-   500   $0.05     $26.45
-  1000   $0.05     $52.10
-  3000   $0.05    $153.60</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.09      $0.87
-    25   $0.06      $1.50
-    50   $0.05      $2.33
-   100   $0.03      $3.33
-   250   $0.03      $6.50
-   500   $0.02     $10.33
-  1000   $0.01     $14.67
-  5000   $0.01     $56.65
- 10000   $0.01    $101.70
- 25000   $0.01    $233.25
- 50000   $0.01    $438.50
-125000   $0.01  $1,071.25</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
-    10   £0.08      £0.82
-   100   £0.07      £6.77
-   500   £0.06     £30.35
-  1000   £0.06     £56.00
-  2500   £0.05    £130.75
-  5000   £0.05    £247.50
- 25000   £0.05  £1,190.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.05      $0.53
-    50   $0.05      $2.65
-   100   $0.03      $3.20
-  1000   $0.02     $21.00
- 10000   $0.01    $100.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.01      $0.01
-    10   $0.10      $1.00
-    25   $0.05      $1.32
-    50   $0.04      $2.15
-   100   $0.03      $3.20
-   250   $0.03      $7.00
-   500   $0.02     $11.50
- 10000   $0.01    $100.00
- 20000   $0.01    $200.00
- 30000   $0.01    $270.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
-     5   £0.29      £1.46
-    10   £0.24      £2.36
-   100   £0.14     £14.50
-   500   £0.12     £60.50
-  1000   £0.08     £82.20
-  5000   £0.07    £363.50
- 10000   £0.07    £712.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.40      $0.40
-    10   $0.32      $3.21
-    50   $0.32     $16.05
-   100   $0.20     $19.80
-  1000   $0.12    $123.00
- 10000   $0.10    $980.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.40      $0.40
-     5   $0.40      $2.00
-    10   $0.32      $3.21
-    25   $0.28      $7.00
-    50   $0.24     $11.95
-   100   $0.20     $19.80
-   250   $0.18     $45.25
-   500   $0.16     $82.00
-  1000   $0.12    $123.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AX24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AZ24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
-     5   £0.13      £0.65
-    25   £0.11      £2.65
-   100   £0.09      £9.14
-   500   £0.08     £40.00
-  4000   £0.07    £298.40</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.52      $0.52
-    10   $0.42      $4.23
-    25   $0.39      $9.69
-   100   $0.29     $28.83
-   250   $0.26     $65.32
-   500   $0.22    $108.12
-  1000   $0.16    $162.18</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH25" authorId="0">
+     1   £0.70      £0.70
+     5   £0.51      £2.54
+    25   £0.44     £10.99
+   100   £0.38     £38.36</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1698,7 +1861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P26" authorId="0">
+    <comment ref="P29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1721,7 +1884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P27" authorId="0">
+    <comment ref="P30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1739,11 +1902,11 @@
    100   $0.86     $85.57
    250   $0.80    $199.98
    500   $0.71    $353.46
-  1000   $0.61    $614.25</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T27" authorId="0">
+  1000   $0.56    $561.60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1756,7 +1919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V27" authorId="0">
+    <comment ref="V30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1776,7 +1939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH27" authorId="0">
+    <comment ref="AH30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1797,7 +1960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL27" authorId="0">
+    <comment ref="AL30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1810,7 +1973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN27" authorId="0">
+    <comment ref="AN30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1822,16 +1985,17 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.64      $1.64
+     1   $1.63      $1.63
     10   $1.51     $15.10
-   100   $1.37    $137.00
-   500   $1.31    $655.00
-  1000   $1.24  $1,240.00
-  2500   $1.17  $2,925.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F29" authorId="0">
+    25   $1.41     $35.25
+    50   $1.35     $67.50
+   100   $1.27    $127.00
+   250   $1.21    $302.50
+   500   $1.18    $590.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1844,7 +2008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0">
+    <comment ref="I32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1857,7 +2021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0">
+    <comment ref="O32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1870,7 +2034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U29" authorId="0">
+    <comment ref="U32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1883,7 +2047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA29" authorId="0">
+    <comment ref="AA32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1896,7 +2060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG29" authorId="0">
+    <comment ref="AG32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1909,7 +2073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM29" authorId="0">
+    <comment ref="AM32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1922,7 +2086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS29" authorId="0">
+    <comment ref="AS32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1935,7 +2099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY29" authorId="0">
+    <comment ref="AY32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1948,7 +2112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F30" authorId="0">
+    <comment ref="F33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1961,7 +2125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA30" authorId="0">
+    <comment ref="AA33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1983,7 +2147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="150">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -2009,7 +2173,19 @@
     <t>Ext$</t>
   </si>
   <si>
-    <t>C1-C3,C5,C9,C11,C13,C15</t>
+    <t>C1,C2,C7</t>
+  </si>
+  <si>
+    <t>47u</t>
+  </si>
+  <si>
+    <t>CP_Elec_5x5.3</t>
+  </si>
+  <si>
+    <t>UCM1V470MCL1GS</t>
+  </si>
+  <si>
+    <t>C3,C5,C8,C12,C14,C16,C18</t>
   </si>
   <si>
     <t>10u</t>
@@ -2021,7 +2197,7 @@
     <t>T491A106K020AT</t>
   </si>
   <si>
-    <t>C4,C6,C10,C12,C14,C16</t>
+    <t>C4,C6,C9,C13,C15,C17,C19</t>
   </si>
   <si>
     <t>100n</t>
@@ -2030,7 +2206,7 @@
     <t>C_0603_1608Metric</t>
   </si>
   <si>
-    <t>C7,C8</t>
+    <t>C10,C11</t>
   </si>
   <si>
     <t>2u2</t>
@@ -2039,7 +2215,19 @@
     <t>T491A225K020AT</t>
   </si>
   <si>
-    <t>D1-D3</t>
+    <t>C20-C27,C29,C31,C33,C35</t>
+  </si>
+  <si>
+    <t>220p</t>
+  </si>
+  <si>
+    <t>C28,C30,C32,C34</t>
+  </si>
+  <si>
+    <t>56p</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
   </si>
   <si>
     <t>1N4007FL</t>
@@ -2048,7 +2236,7 @@
     <t>D_SOD-123F</t>
   </si>
   <si>
-    <t>D4-D11</t>
+    <t>D3-D10</t>
   </si>
   <si>
     <t>LED_AN</t>
@@ -2063,21 +2251,21 @@
     <t>J1</t>
   </si>
   <si>
+    <t>EURORACK_PWR</t>
+  </si>
+  <si>
+    <t>PinHeader_2x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
     <t>PMOD</t>
   </si>
   <si>
     <t>PinHeader_2x06_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>EURORACK_PWR</t>
-  </si>
-  <si>
-    <t>PinHeader_2x08_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>J3-J10</t>
   </si>
   <si>
@@ -2087,19 +2275,22 @@
     <t>Jack_3.5mm_QingPu_WQP-PJ302M_Horizontal</t>
   </si>
   <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>JUMPER_3V3</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+    <t>L1-L4</t>
+  </si>
+  <si>
+    <t>Ferrite</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>742792664</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>0R</t>
+    <t>330R</t>
   </si>
   <si>
     <t>R_0603_1608Metric</t>
@@ -2123,7 +2314,7 @@
     <t>100R</t>
   </si>
   <si>
-    <t>RN1,RN11</t>
+    <t>RN1,RN12</t>
   </si>
   <si>
     <t>4K7</t>
@@ -2132,37 +2323,43 @@
     <t>R_Cat16-4</t>
   </si>
   <si>
-    <t>RN2,RN4,RN7,RN9,RN12</t>
-  </si>
-  <si>
-    <t>CAY16-1003F4LF</t>
-  </si>
-  <si>
-    <t>RN3,RN5,RN6,RN8</t>
+    <t>CAT16-472F4LF</t>
+  </si>
+  <si>
+    <t>RN2,RN4,RN8,RN10,RN14</t>
+  </si>
+  <si>
+    <t>CAT16-1003F4LF</t>
+  </si>
+  <si>
+    <t>RN3,RN5-RN7,RN9,RN13</t>
   </si>
   <si>
     <t>15K</t>
   </si>
   <si>
-    <t>CAY16-1502F4LF</t>
-  </si>
-  <si>
-    <t>RN10</t>
+    <t>CAT16-1502F4LF</t>
+  </si>
+  <si>
+    <t>RN11</t>
   </si>
   <si>
     <t>56K</t>
   </si>
   <si>
+    <t>CAT16-563J4LF</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
-    <t>LM1117-3.3</t>
-  </si>
-  <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>AZ1117IH-3.3TRG1</t>
+    <t>LM4040DBZ-3</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>LM4040CEM3X-3.0/NOPB</t>
   </si>
   <si>
     <t>U2</t>
@@ -2219,6 +2416,9 @@
     <t>Digi-Key</t>
   </si>
   <si>
+    <t>493-14540-1-ND</t>
+  </si>
+  <si>
     <t>399-18019-1-ND</t>
   </si>
   <si>
@@ -2231,13 +2431,19 @@
     <t>1497-1314-1-ND</t>
   </si>
   <si>
-    <t>CAY16-1003F4LFCT-ND</t>
-  </si>
-  <si>
-    <t>118-CAY16-1502F4LFCT-ND</t>
-  </si>
-  <si>
-    <t>296-TL072HIPWRCT-ND</t>
+    <t>732-1586-1-ND</t>
+  </si>
+  <si>
+    <t>CAT16-1003F4LFCT-ND</t>
+  </si>
+  <si>
+    <t>CAT16-1502F4LFCT-ND</t>
+  </si>
+  <si>
+    <t>CAT16-563J4LFCT-ND</t>
+  </si>
+  <si>
+    <t>296-LM4040CEM3X-3.0/NOPBCT-ND</t>
   </si>
   <si>
     <t>974-AK4619VNCT-ND</t>
@@ -2255,21 +2461,18 @@
     <t>1457419</t>
   </si>
   <si>
-    <t>2321739</t>
-  </si>
-  <si>
-    <t>2787786</t>
-  </si>
-  <si>
-    <t>3483087</t>
+    <t>1800353</t>
+  </si>
+  <si>
+    <t>2333516</t>
+  </si>
+  <si>
+    <t>3117801</t>
   </si>
   <si>
     <t>NonStk</t>
   </si>
   <si>
-    <t>3117801</t>
-  </si>
-  <si>
     <t>LCSC</t>
   </si>
   <si>
@@ -2279,19 +2482,25 @@
     <t>Mouser</t>
   </si>
   <si>
+    <t>647-UCM1V470MCL1GS</t>
+  </si>
+  <si>
     <t>80-T491A106K020AT</t>
   </si>
   <si>
     <t>80-T491A225K020</t>
   </si>
   <si>
-    <t>652-CAY16-1003F4LF</t>
-  </si>
-  <si>
-    <t>652-CAY16-1502F4LF</t>
-  </si>
-  <si>
-    <t>621-AZ1117IH-3.3TRG1</t>
+    <t>710-742792664</t>
+  </si>
+  <si>
+    <t>652-CAT16-1003F4LF</t>
+  </si>
+  <si>
+    <t>652-CAT16-1502F4LF</t>
+  </si>
+  <si>
+    <t>652-CAT16-563J4LF</t>
   </si>
   <si>
     <t>595-TL072HIPWR</t>
@@ -2303,19 +2512,25 @@
     <t>Newark</t>
   </si>
   <si>
+    <t>44X4668</t>
+  </si>
+  <si>
     <t>18AC7874</t>
   </si>
   <si>
     <t>57K1664</t>
   </si>
   <si>
-    <t>06X4913</t>
-  </si>
-  <si>
-    <t>34AK1167</t>
-  </si>
-  <si>
-    <t>76AH4978</t>
+    <t>78R5662</t>
+  </si>
+  <si>
+    <t>06X4892</t>
+  </si>
+  <si>
+    <t>78AH9750</t>
+  </si>
+  <si>
+    <t>32K0224</t>
   </si>
   <si>
     <t>33AH5103</t>
@@ -2324,12 +2539,21 @@
     <t>RS Components</t>
   </si>
   <si>
+    <t>8432206</t>
+  </si>
+  <si>
     <t>8015482</t>
   </si>
   <si>
+    <t>7880027</t>
+  </si>
+  <si>
     <t>TME</t>
   </si>
   <si>
+    <t>LM4040CEM3X3.0NOPB</t>
+  </si>
+  <si>
     <t>Total Purchase:</t>
   </si>
   <si>
@@ -2354,7 +2578,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>Wed 27 Jul 2022 21:35:02</t>
+    <t>Sun 14 Aug 2022 16:21:13</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -2369,7 +2593,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2022-07-27 21:35:40</t>
+    <t>2022-08-14 16:21:28</t>
   </si>
   <si>
     <t>KiCost® v1.1.10</t>
@@ -2634,13 +2858,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -2654,6 +2871,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2954,7 +3178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC73"/>
+  <dimension ref="A1:BC82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
@@ -2968,7 +3192,7 @@
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="9.140625" outlineLevel="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
@@ -2983,7 +3207,7 @@
     <col min="16" max="16" width="10.7109375" customWidth="1" outlineLevel="2"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1" outlineLevel="3" collapsed="1"/>
     <col min="18" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="19" max="19" width="30.7109375" customWidth="1" outlineLevel="2"/>
     <col min="20" max="20" width="9.7109375" customWidth="1" outlineLevel="1"/>
     <col min="21" max="21" width="9.140625" outlineLevel="2"/>
     <col min="22" max="22" width="10.7109375" customWidth="1" outlineLevel="2"/>
@@ -3001,7 +3225,7 @@
     <col min="34" max="34" width="10.7109375" customWidth="1" outlineLevel="2"/>
     <col min="35" max="35" width="0" hidden="1" customWidth="1" outlineLevel="3" collapsed="1"/>
     <col min="36" max="36" width="16.7109375" customWidth="1"/>
-    <col min="37" max="37" width="21.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="37" max="37" width="19.7109375" customWidth="1" outlineLevel="2"/>
     <col min="38" max="38" width="9.7109375" customWidth="1" outlineLevel="1"/>
     <col min="39" max="39" width="9.140625" outlineLevel="2"/>
     <col min="40" max="40" width="10.7109375" customWidth="1" outlineLevel="2"/>
@@ -3019,18 +3243,18 @@
     <col min="52" max="52" width="10.7109375" customWidth="1" outlineLevel="2"/>
     <col min="53" max="53" width="0" hidden="1" customWidth="1" outlineLevel="3" collapsed="1"/>
     <col min="54" max="54" width="16.7109375" customWidth="1"/>
-    <col min="55" max="55" width="17.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="55" max="55" width="19.7109375" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="G1" s="3">
         <v>100</v>
@@ -3038,102 +3262,102 @@
     </row>
     <row r="2" spans="1:55">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="G2" s="4">
         <f>TotalCost/BoardQty</f>
-        <v>10.5884</v>
+        <v>11.4601</v>
       </c>
     </row>
     <row r="3" spans="1:55">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G3" s="5">
-        <f>SUM(G7:G27)</f>
-        <v>1058.8362</v>
+        <f>SUM(G7:G30)</f>
+        <v>1146.0078</v>
       </c>
       <c r="L3" s="5">
-        <f>SUM(L7:L27)</f>
-        <v>30.92</v>
+        <f>SUM(L7:L30)</f>
+        <v>225.65</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f>(COUNTA(L7:L27)&amp;" of "&amp;ROWS(L7:L27)&amp;" parts found")</f>
-        <v>4 of 21 parts found</v>
+        <f>(COUNTA(L7:L30)&amp;" of "&amp;ROWS(L7:L30)&amp;" parts found")</f>
+        <v>5 of 24 parts found</v>
       </c>
       <c r="R3" s="5">
-        <f>SUM(R7:R27)</f>
-        <v>1088.588</v>
+        <f>SUM(R7:R30)</f>
+        <v>1238.376</v>
       </c>
       <c r="S3" s="6" t="str">
-        <f>(COUNTA(R7:R27)&amp;" of "&amp;ROWS(R7:R27)&amp;" parts found")</f>
-        <v>9 of 21 parts found</v>
+        <f>(COUNTA(R7:R30)&amp;" of "&amp;ROWS(R7:R30)&amp;" parts found")</f>
+        <v>12 of 24 parts found</v>
       </c>
       <c r="X3" s="5">
-        <f>SUM(X7:X27)</f>
-        <v>803.2626</v>
+        <f>SUM(X7:X30)</f>
+        <v>797.0374</v>
       </c>
       <c r="Y3" s="6" t="str">
-        <f>(COUNTA(X7:X27)&amp;" of "&amp;ROWS(X7:X27)&amp;" parts found")</f>
-        <v>6 of 21 parts found</v>
+        <f>(COUNTA(X7:X30)&amp;" of "&amp;ROWS(X7:X30)&amp;" parts found")</f>
+        <v>5 of 24 parts found</v>
       </c>
       <c r="AD3" s="5">
-        <f>SUM(AD7:AD27)</f>
+        <f>SUM(AD7:AD30)</f>
         <v>29.26</v>
       </c>
       <c r="AE3" s="6" t="str">
-        <f>(COUNTA(AD7:AD27)&amp;" of "&amp;ROWS(AD7:AD27)&amp;" parts found")</f>
-        <v>1 of 21 parts found</v>
+        <f>(COUNTA(AD7:AD30)&amp;" of "&amp;ROWS(AD7:AD30)&amp;" parts found")</f>
+        <v>1 of 24 parts found</v>
       </c>
       <c r="AJ3" s="5">
-        <f>SUM(AJ7:AJ27)</f>
-        <v>711.6</v>
+        <f>SUM(AJ7:AJ30)</f>
+        <v>840.0</v>
       </c>
       <c r="AK3" s="6" t="str">
-        <f>(COUNTA(AJ7:AJ27)&amp;" of "&amp;ROWS(AJ7:AJ27)&amp;" parts found")</f>
-        <v>7 of 21 parts found</v>
+        <f>(COUNTA(AJ7:AJ30)&amp;" of "&amp;ROWS(AJ7:AJ30)&amp;" parts found")</f>
+        <v>9 of 24 parts found</v>
       </c>
       <c r="AP3" s="5">
-        <f>SUM(AP7:AP27)</f>
-        <v>855.6</v>
+        <f>SUM(AP7:AP30)</f>
+        <v>806.4</v>
       </c>
       <c r="AQ3" s="6" t="str">
-        <f>(COUNTA(AP7:AP27)&amp;" of "&amp;ROWS(AP7:AP27)&amp;" parts found")</f>
-        <v>6 of 21 parts found</v>
+        <f>(COUNTA(AP7:AP30)&amp;" of "&amp;ROWS(AP7:AP30)&amp;" parts found")</f>
+        <v>8 of 24 parts found</v>
       </c>
       <c r="AV3" s="5">
-        <f>SUM(AV7:AV27)</f>
-        <v>62.0187</v>
+        <f>SUM(AV7:AV30)</f>
+        <v>195.4654</v>
       </c>
       <c r="AW3" s="6" t="str">
-        <f>(COUNTA(AV7:AV27)&amp;" of "&amp;ROWS(AV7:AV27)&amp;" parts found")</f>
-        <v>1 of 21 parts found</v>
+        <f>(COUNTA(AV7:AV30)&amp;" of "&amp;ROWS(AV7:AV30)&amp;" parts found")</f>
+        <v>3 of 24 parts found</v>
       </c>
       <c r="BB3" s="5">
-        <f>SUM(BB7:BB27)</f>
-        <v>60.1364</v>
+        <f>SUM(BB7:BB30)</f>
+        <v>84.5964</v>
       </c>
       <c r="BC3" s="6" t="str">
-        <f>(COUNTA(BB7:BB27)&amp;" of "&amp;ROWS(BB7:BB27)&amp;" parts found")</f>
-        <v>3 of 21 parts found</v>
+        <f>(COUNTA(BB7:BB30)&amp;" of "&amp;ROWS(BB7:BB30)&amp;" parts found")</f>
+        <v>3 of 24 parts found</v>
       </c>
     </row>
     <row r="4" spans="1:55">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -3147,7 +3371,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -3155,7 +3379,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
@@ -3163,7 +3387,7 @@
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="10" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
@@ -3171,7 +3395,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="11" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
@@ -3179,7 +3403,7 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
       <c r="AF5" s="12" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
@@ -3187,7 +3411,7 @@
       <c r="AJ5" s="12"/>
       <c r="AK5" s="12"/>
       <c r="AL5" s="13" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
@@ -3195,7 +3419,7 @@
       <c r="AP5" s="13"/>
       <c r="AQ5" s="13"/>
       <c r="AR5" s="14" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="AS5" s="14"/>
       <c r="AT5" s="14"/>
@@ -3203,7 +3427,7 @@
       <c r="AV5" s="14"/>
       <c r="AW5" s="14"/>
       <c r="AX5" s="15" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="AY5" s="15"/>
       <c r="AZ5" s="15"/>
@@ -3234,148 +3458,148 @@
         <v>7</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="R6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="V6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="X6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="Z6" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AB6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AC6" s="16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AD6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AH6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AI6" s="16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AJ6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AK6" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AL6" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AM6" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AN6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AO6" s="16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AP6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AQ6" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AS6" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AT6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="AU6" s="16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="AV6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AW6" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AY6" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AZ6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="BA6" s="16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="BB6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="BC6" s="16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -3392,106 +3616,106 @@
         <v>11</v>
       </c>
       <c r="E7" s="17">
-        <f>CEILING(BoardQty*8.0,1)</f>
-        <v>800</v>
+        <f>CEILING(BoardQty*3.0,1)</f>
+        <v>300</v>
       </c>
       <c r="F7" s="18">
         <f>IF(MIN(J7,P7,V7,AB7,AH7,AN7,AT7,AZ7)&lt;&gt;0,MIN(J7,P7,V7,AB7,AH7,AN7,AT7,AZ7),"")</f>
-        <v>0.2299</v>
+        <v>0.157</v>
       </c>
       <c r="G7" s="19">
         <f>IF(AND(ISNUMBER(E7),ISNUMBER(F7)),E7*F7,"")</f>
-        <v>183.92</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1056</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18">
-        <f>IFERROR(IF(OR(I7&gt;=K7,E7&gt;=K7),LOOKUP(IF(I7="",E7,I7),{0,1,2000,4000},{0.0,0.171,0.171,0.1701}),"MOQ="&amp;K7),"")</f>
-        <v/>
-      </c>
-      <c r="K7" s="17">
-        <v>2000</v>
-      </c>
-      <c r="L7" s="19">
-        <f>IFERROR(IF(I7="",E7,I7)*J7,"")</f>
-        <v/>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>11</v>
+        <v>47.1</v>
       </c>
       <c r="N7" s="17">
-        <v>10000</v>
+        <v>211</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="18">
-        <f>IFERROR(IF(OR(O7&gt;=Q7,E7&gt;=Q7),LOOKUP(IF(O7="",E7,O7),{0,1,10,50,100,500,1000,2000,4000,10000,14000,50000},{0.0,0.67,0.471,0.3564,0.3104,0.2299,0.19542,0.18392,0.17243,0.16093,0.15806,0.14944}),"MOQ="&amp;Q7),"")</f>
-        <v>0.2299</v>
+        <f>IFERROR(IF(OR(O7&gt;=Q7,E7&gt;=Q7),LOOKUP(IF(O7="",E7,O7),{0,1,10,50,100,500},{0.0,0.56,0.399,0.3016,0.2627,0.19458}),"MOQ="&amp;Q7),"")</f>
+        <v>0.2627</v>
       </c>
       <c r="Q7" s="17">
         <v>1</v>
       </c>
       <c r="R7" s="19">
         <f>IFERROR(IF(O7="",E7,O7)*P7,"")</f>
-        <v>183.92</v>
+        <v>78.81</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="T7" s="17">
-        <v>12000</v>
-      </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="18">
-        <f>IFERROR(IF(OR(U7&gt;=W7,E7&gt;=W7),USD_GBP*LOOKUP(IF(U7="",E7,U7),{0,1,5,50,100,250,500,1000,2000,10000},{0.0,0.393,0.393,0.26,0.26,0.254,0.249,0.244,0.189,0.185}),"MOQ="&amp;W7),"")</f>
-        <v>0.30044070455679955</v>
-      </c>
-      <c r="W7" s="17">
-        <v>5</v>
-      </c>
-      <c r="X7" s="19">
-        <f>IFERROR(IF(U7="",E7,U7)*V7,"")</f>
-        <v>240.3526</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF7" s="17">
-        <v>105695</v>
+        <v>89</v>
+      </c>
+      <c r="AF7" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="AG7" s="17"/>
       <c r="AH7" s="18">
-        <f>IFERROR(IF(OR(AG7&gt;=AI7,E7&gt;=AI7),LOOKUP(IF(AG7="",E7,AG7),{0,1,10,50,100,1000,10000},{0.0,0.7,0.493,0.373,0.325,0.318,0.191}),"MOQ="&amp;AI7),"")</f>
-        <v>0.325</v>
+        <f>IFERROR(IF(OR(AG7&gt;=AI7,E7&gt;=AI7),LOOKUP(IF(AG7="",E7,AG7),{0,1,10,50,100,1000,10000},{0.0,0.57,0.399,0.302,0.263,0.154,0.154}),"MOQ="&amp;AI7),"")</f>
+        <v>0.263</v>
       </c>
       <c r="AI7" s="17">
         <v>1</v>
       </c>
       <c r="AJ7" s="19">
         <f>IFERROR(IF(AG7="",E7,AG7)*AH7,"")</f>
-        <v>260.0</v>
+        <v>78.9</v>
       </c>
       <c r="AK7" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL7" s="17">
-        <v>12000</v>
+        <v>111</v>
+      </c>
+      <c r="AL7" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="AM7" s="17"/>
       <c r="AN7" s="18">
-        <f>IFERROR(IF(OR(AM7&gt;=AO7,E7&gt;=AO7),LOOKUP(IF(AM7="",E7,AM7),{0,1,5,10,25,50,100,2000,4000},{0.0,0.7,0.7,0.493,0.433,0.373,0.325,0.192,0.191}),"MOQ="&amp;AO7),"")</f>
-        <v>0.325</v>
+        <f>IFERROR(IF(OR(AM7&gt;=AO7,E7&gt;=AO7),LOOKUP(IF(AM7="",E7,AM7),{0,1,2000},{0.0,0.157,0.157}),"MOQ="&amp;AO7),"")</f>
+        <v>0.157</v>
       </c>
       <c r="AO7" s="17">
         <v>1</v>
       </c>
       <c r="AP7" s="19">
         <f>IFERROR(IF(AM7="",E7,AM7)*AN7,"")</f>
-        <v>260.0</v>
+        <v>47.1</v>
       </c>
       <c r="AQ7" s="17" t="s">
-        <v>106</v>
+        <v>121</v>
+      </c>
+      <c r="AR7" s="17">
+        <v>160</v>
+      </c>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="18">
+        <f>IFERROR(IF(OR(AS7&gt;=AU7,E7&gt;=AU7),USD_GBP*LOOKUP(IF(AS7="",E7,AS7),{0,1,10,50,100,250,1000,2000,4000,8000,12000},{0.0,0.313,0.313,0.266,0.234,0.204,0.133,0.113,0.1,0.087,0.08}),"MOQ="&amp;AU7),"")</f>
+        <v>0.24767042436404413</v>
+      </c>
+      <c r="AU7" s="17">
+        <v>10</v>
+      </c>
+      <c r="AV7" s="19">
+        <f>IFERROR(IF(AS7="",E7,AS7)*AT7,"")</f>
+        <v>74.3011</v>
+      </c>
+      <c r="AW7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX7" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="18">
+        <f>IFERROR(IF(OR(AY7&gt;=BA7,E7&gt;=BA7),USD_GBP*LOOKUP(IF(AY7="",E7,AY7),{0,1,1000},{0.0,0.10797,0.10797}),"MOQ="&amp;BA7),"")</f>
+        <v/>
+      </c>
+      <c r="BA7" s="17">
+        <v>1000</v>
+      </c>
+      <c r="BB7" s="19">
+        <f>IFERROR(IF(AY7="",E7,AY7)*AZ7,"")</f>
+        <v/>
+      </c>
+      <c r="BC7" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -3504,290 +3728,341 @@
       <c r="C8" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="17">
-        <f>CEILING(BoardQty*6,1)</f>
-        <v>600</v>
+        <f>CEILING(BoardQty*7.0,1)</f>
+        <v>700</v>
       </c>
       <c r="F8" s="18">
         <f>IF(MIN(J8,P8,V8,AB8,AH8,AN8,AT8,AZ8)&lt;&gt;0,MIN(J8,P8,V8,AB8,AH8,AN8,AT8,AZ8),"")</f>
-        <v/>
+        <v>0.2249</v>
       </c>
       <c r="G8" s="19">
         <f>IF(AND(ISNUMBER(E8),ISNUMBER(F8)),E8*F8,"")</f>
-        <v/>
+        <v>157.43</v>
+      </c>
+      <c r="H8" s="17">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18">
+        <f>IFERROR(IF(OR(I8&gt;=K8,E8&gt;=K8),LOOKUP(IF(I8="",E8,I8),{0,1,10,25,100,250,500,1000},{0.0,0.6331,0.4428,0.422,0.3017,0.2987,0.2249,0.1917}),"MOQ="&amp;K8),"")</f>
+        <v>0.2249</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1</v>
+      </c>
+      <c r="L8" s="19">
+        <f>IFERROR(IF(I8="",E8,I8)*J8,"")</f>
+        <v>157.43</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="17">
+        <v>59095</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18">
+        <f>IFERROR(IF(OR(O8&gt;=Q8,E8&gt;=Q8),LOOKUP(IF(O8="",E8,O8),{0,1,10,50,100,500,1000,2000,4000,10000,14000,50000},{0.0,0.67,0.471,0.3564,0.3104,0.2299,0.19542,0.18392,0.17243,0.16093,0.15806,0.14944}),"MOQ="&amp;Q8),"")</f>
+        <v>0.2299</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>1</v>
+      </c>
+      <c r="R8" s="19">
+        <f>IFERROR(IF(O8="",E8,O8)*P8,"")</f>
+        <v>160.93</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" s="17">
+        <v>12000</v>
+      </c>
+      <c r="U8" s="17"/>
+      <c r="V8" s="18">
+        <f>IFERROR(IF(OR(U8&gt;=W8,E8&gt;=W8),USD_GBP*LOOKUP(IF(U8="",E8,U8),{0,1,5,50,100,250,500,1000,2000,10000},{0.0,0.393,0.393,0.26,0.26,0.254,0.249,0.244,0.189,0.185}),"MOQ="&amp;W8),"")</f>
+        <v>0.3023036062090539</v>
+      </c>
+      <c r="W8" s="17">
+        <v>5</v>
+      </c>
+      <c r="X8" s="19">
+        <f>IFERROR(IF(U8="",E8,U8)*V8,"")</f>
+        <v>211.6125</v>
+      </c>
+      <c r="Y8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>104062</v>
+      </c>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="18">
+        <f>IFERROR(IF(OR(AG8&gt;=AI8,E8&gt;=AI8),LOOKUP(IF(AG8="",E8,AG8),{0,1,10,50,100,1000,10000},{0.0,0.7,0.493,0.373,0.325,0.318,0.191}),"MOQ="&amp;AI8),"")</f>
+        <v>0.325</v>
+      </c>
+      <c r="AI8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="19">
+        <f>IFERROR(IF(AG8="",E8,AG8)*AH8,"")</f>
+        <v>227.5</v>
+      </c>
+      <c r="AK8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL8" s="17">
+        <v>12000</v>
+      </c>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="18">
+        <f>IFERROR(IF(OR(AM8&gt;=AO8,E8&gt;=AO8),LOOKUP(IF(AM8="",E8,AM8),{0,1,5,10,25,50,100,2000,4000},{0.0,0.7,0.7,0.493,0.433,0.373,0.325,0.192,0.191}),"MOQ="&amp;AO8),"")</f>
+        <v>0.325</v>
+      </c>
+      <c r="AO8" s="17">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="19">
+        <f>IFERROR(IF(AM8="",E8,AM8)*AN8,"")</f>
+        <v>227.5</v>
+      </c>
+      <c r="AQ8" s="17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:55">
       <c r="A9" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="17">
-        <f>CEILING(BoardQty*2.0,1)</f>
-        <v>200</v>
+        <f>CEILING(BoardQty*7,1)</f>
+        <v>700</v>
       </c>
       <c r="F9" s="18">
         <f>IF(MIN(J9,P9,V9,AB9,AH9,AN9,AT9,AZ9)&lt;&gt;0,MIN(J9,P9,V9,AB9,AH9,AN9,AT9,AZ9),"")</f>
-        <v>0.023</v>
+        <v/>
       </c>
       <c r="G9" s="19">
         <f>IF(AND(ISNUMBER(E9),ISNUMBER(F9)),E9*F9,"")</f>
-        <v>4.6</v>
-      </c>
-      <c r="H9" s="17">
-        <v>2000</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18">
-        <f>IFERROR(IF(OR(I9&gt;=K9,E9&gt;=K9),LOOKUP(IF(I9="",E9,I9),{0,1,2000,10000,24000,50000},{0.0,0.0873,0.0873,0.0802,0.0749,0.0695}),"MOQ="&amp;K9),"")</f>
         <v/>
-      </c>
-      <c r="K9" s="17">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="19">
-        <f>IFERROR(IF(I9="",E9,I9)*J9,"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="17">
-        <v>55839</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18">
-        <f>IFERROR(IF(OR(O9&gt;=Q9,E9&gt;=Q9),LOOKUP(IF(O9="",E9,O9),{0,1,10,50,100,500,1000,2000,4000,10000,14000,50000},{0.0,0.45,0.318,0.24,0.2091,0.15488,0.13165,0.12391,0.11616,0.10842,0.10648,0.10067}),"MOQ="&amp;Q9),"")</f>
-        <v>0.2091</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>1</v>
-      </c>
-      <c r="R9" s="19">
-        <f>IFERROR(IF(O9="",E9,O9)*P9,"")</f>
-        <v>41.82</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="T9" s="17">
-        <v>4000</v>
-      </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="18">
-        <f>IFERROR(IF(OR(U9&gt;=W9,E9&gt;=W9),USD_GBP*LOOKUP(IF(U9="",E9,U9),{0,1,5,50,100,250,500,1000,2000,10000},{0.0,0.292,0.292,0.175,0.175,0.154,0.132,0.112,0.111,0.109}),"MOQ="&amp;W9),"")</f>
-        <v>0.21115310561220849</v>
-      </c>
-      <c r="W9" s="17">
-        <v>5</v>
-      </c>
-      <c r="X9" s="19">
-        <f>IFERROR(IF(U9="",E9,U9)*V9,"")</f>
-        <v>42.2306</v>
-      </c>
-      <c r="Y9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z9" s="17">
-        <v>1901</v>
-      </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="18">
-        <f>IFERROR(IF(OR(AA9&gt;=AC9,E9&gt;=AC9),LOOKUP(IF(AA9="",E9,AA9),{0,1,10,30,100,500,1000},{0.0,0.2056,0.1737,0.16,0.1463,0.1372,0.1317}),"MOQ="&amp;AC9),"")</f>
-        <v>0.1463</v>
-      </c>
-      <c r="AC9" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="19">
-        <f>IFERROR(IF(AA9="",E9,AA9)*AB9,"")</f>
-        <v>29.26</v>
-      </c>
-      <c r="AE9" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF9" s="17">
-        <v>68818</v>
-      </c>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="18">
-        <f>IFERROR(IF(OR(AG9&gt;=AI9,E9&gt;=AI9),LOOKUP(IF(AG9="",E9,AG9),{0,1,10,50,100,1000,10000},{0.0,0.52,0.316,0.265,0.239,0.239,0.117}),"MOQ="&amp;AI9),"")</f>
-        <v>0.239</v>
-      </c>
-      <c r="AI9" s="17">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="19">
-        <f>IFERROR(IF(AG9="",E9,AG9)*AH9,"")</f>
-        <v>47.8</v>
-      </c>
-      <c r="AK9" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL9" s="17">
-        <v>4000</v>
-      </c>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="18">
-        <f>IFERROR(IF(OR(AM9&gt;=AO9,E9&gt;=AO9),LOOKUP(IF(AM9="",E9,AM9),{0,1,5,10,25,50,100,2000,4000},{0.0,0.138,0.52,0.023,0.023,0.023,0.023,0.128,0.117}),"MOQ="&amp;AO9),"")</f>
-        <v>0.023</v>
-      </c>
-      <c r="AO9" s="17">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="19">
-        <f>IFERROR(IF(AM9="",E9,AM9)*AN9,"")</f>
-        <v>4.6</v>
-      </c>
-      <c r="AQ9" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR9" s="17">
-        <v>36550</v>
-      </c>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="18">
-        <f>IFERROR(IF(OR(AS9&gt;=AU9,E9&gt;=AU9),USD_GBP*LOOKUP(IF(AS9="",E9,AS9),{0,1,25,400,1000,2000,6000},{0.0,0.257,0.257,0.129,0.096,0.091,0.087}),"MOQ="&amp;AU9),"")</f>
-        <v>0.3100934179562148</v>
-      </c>
-      <c r="AU9" s="17">
-        <v>25</v>
-      </c>
-      <c r="AV9" s="19">
-        <f>IFERROR(IF(AS9="",E9,AS9)*AT9,"")</f>
-        <v>62.0187</v>
-      </c>
-      <c r="AW9" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX9" s="17">
-        <v>6015</v>
-      </c>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="18">
-        <f>IFERROR(IF(OR(AY9&gt;=BA9,E9&gt;=BA9),USD_GBP*LOOKUP(IF(AY9="",E9,AY9),{0,1,10,50,250,1000,2000},{0.0,0.2,0.2,0.158,0.10864,0.09061,0.0815}),"MOQ="&amp;BA9),"")</f>
-        <v>0.1906410896384511</v>
-      </c>
-      <c r="BA9" s="17">
-        <v>10</v>
-      </c>
-      <c r="BB9" s="19">
-        <f>IFERROR(IF(AY9="",E9,AY9)*AZ9,"")</f>
-        <v>38.1282</v>
-      </c>
-      <c r="BC9" s="17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:55">
       <c r="A10" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="17">
-        <f>CEILING(BoardQty*3.0,1)</f>
-        <v>300</v>
+        <f>CEILING(BoardQty*2.0,1)</f>
+        <v>200</v>
       </c>
       <c r="F10" s="18">
         <f>IF(MIN(J10,P10,V10,AB10,AH10,AN10,AT10,AZ10)&lt;&gt;0,MIN(J10,P10,V10,AB10,AH10,AN10,AT10,AZ10),"")</f>
-        <v>0.0731</v>
+        <v>0.023</v>
       </c>
       <c r="G10" s="19">
         <f>IF(AND(ISNUMBER(E10),ISNUMBER(F10)),E10*F10,"")</f>
-        <v>21.93</v>
+        <v>4.6</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18">
+        <f>IFERROR(IF(OR(I10&gt;=K10,E10&gt;=K10),LOOKUP(IF(I10="",E10,I10),{0,1,2000,10000,24000,50000},{0.0,0.0873,0.0873,0.0802,0.0749,0.0695}),"MOQ="&amp;K10),"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="17">
+        <v>2000</v>
+      </c>
+      <c r="L10" s="19">
+        <f>IFERROR(IF(I10="",E10,I10)*J10,"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="N10" s="17">
-        <v>467533</v>
+        <v>55839</v>
       </c>
       <c r="O10" s="17"/>
       <c r="P10" s="18">
-        <f>IFERROR(IF(OR(O10&gt;=Q10,E10&gt;=Q10),LOOKUP(IF(O10="",E10,O10),{0,1,10,100,500,1000,3000,6000,15000,30000,75000},{0.0,0.15,0.134,0.0731,0.04502,0.03069,0.02609,0.02353,0.02046,0.01841,0.01637}),"MOQ="&amp;Q10),"")</f>
-        <v>0.0731</v>
+        <f>IFERROR(IF(OR(O10&gt;=Q10,E10&gt;=Q10),LOOKUP(IF(O10="",E10,O10),{0,1,10,50,100,500,1000,2000,4000,10000,14000,50000},{0.0,0.45,0.318,0.24,0.2091,0.15488,0.13165,0.12391,0.11616,0.10842,0.10648,0.10067}),"MOQ="&amp;Q10),"")</f>
+        <v>0.2091</v>
       </c>
       <c r="Q10" s="17">
         <v>1</v>
       </c>
       <c r="R10" s="19">
         <f>IFERROR(IF(O10="",E10,O10)*P10,"")</f>
-        <v>21.93</v>
+        <v>41.82</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="T10" s="17">
+        <v>4689</v>
+      </c>
+      <c r="U10" s="17"/>
+      <c r="V10" s="18">
+        <f>IFERROR(IF(OR(U10&gt;=W10,E10&gt;=W10),USD_GBP*LOOKUP(IF(U10="",E10,U10),{0,1,5,50,100,250,500,1000,2000,10000},{0.0,0.292,0.292,0.175,0.175,0.154,0.132,0.112,0.111,0.109}),"MOQ="&amp;W10),"")</f>
+        <v>0.21246237384170452</v>
+      </c>
+      <c r="W10" s="17">
+        <v>5</v>
+      </c>
+      <c r="X10" s="19">
+        <f>IFERROR(IF(U10="",E10,U10)*V10,"")</f>
+        <v>42.4925</v>
+      </c>
+      <c r="Y10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>1895</v>
+      </c>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="18">
+        <f>IFERROR(IF(OR(AA10&gt;=AC10,E10&gt;=AC10),LOOKUP(IF(AA10="",E10,AA10),{0,1,10,30,100,500,1000},{0.0,0.2215,0.1832,0.1668,0.1463,0.1372,0.1317}),"MOQ="&amp;AC10),"")</f>
+        <v>0.1463</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="19">
+        <f>IFERROR(IF(AA10="",E10,AA10)*AB10,"")</f>
+        <v>29.26</v>
+      </c>
+      <c r="AE10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>68615</v>
+      </c>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="18">
+        <f>IFERROR(IF(OR(AG10&gt;=AI10,E10&gt;=AI10),LOOKUP(IF(AG10="",E10,AG10),{0,1,10,50,100,1000,10000},{0.0,0.52,0.316,0.265,0.239,0.239,0.117}),"MOQ="&amp;AI10),"")</f>
+        <v>0.239</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="19">
+        <f>IFERROR(IF(AG10="",E10,AG10)*AH10,"")</f>
+        <v>47.8</v>
+      </c>
+      <c r="AK10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL10" s="17">
+        <v>4689</v>
+      </c>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="18">
+        <f>IFERROR(IF(OR(AM10&gt;=AO10,E10&gt;=AO10),LOOKUP(IF(AM10="",E10,AM10),{0,1,5,10,25,50,100,2000,4000},{0.0,0.138,0.52,0.023,0.023,0.023,0.023,0.128,0.117}),"MOQ="&amp;AO10),"")</f>
+        <v>0.023</v>
+      </c>
+      <c r="AO10" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="19">
+        <f>IFERROR(IF(AM10="",E10,AM10)*AN10,"")</f>
+        <v>4.6</v>
+      </c>
+      <c r="AQ10" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR10" s="17">
+        <v>35550</v>
+      </c>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="18">
+        <f>IFERROR(IF(OR(AS10&gt;=AU10,E10&gt;=AU10),USD_GBP*LOOKUP(IF(AS10="",E10,AS10),{0,1,25,400,1000,2000,6000},{0.0,0.257,0.257,0.129,0.096,0.091,0.087}),"MOQ="&amp;AU10),"")</f>
+        <v>0.31201617187038894</v>
+      </c>
+      <c r="AU10" s="17">
+        <v>25</v>
+      </c>
+      <c r="AV10" s="19">
+        <f>IFERROR(IF(AS10="",E10,AS10)*AT10,"")</f>
+        <v>62.4032</v>
+      </c>
+      <c r="AW10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX10" s="17">
+        <v>5965</v>
+      </c>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="18">
+        <f>IFERROR(IF(OR(AY10&gt;=BA10,E10&gt;=BA10),USD_GBP*LOOKUP(IF(AY10="",E10,AY10),{0,1,10,50,250,1000,2000},{0.0,0.198,0.198,0.1566,0.10776,0.08988,0.08085}),"MOQ="&amp;BA10),"")</f>
+        <v>0.19012347282063388</v>
+      </c>
+      <c r="BA10" s="17">
+        <v>10</v>
+      </c>
+      <c r="BB10" s="19">
+        <f>IFERROR(IF(AY10="",E10,AY10)*AZ10,"")</f>
+        <v>38.0247</v>
+      </c>
+      <c r="BC10" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:55">
       <c r="A11" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E11" s="17">
-        <f>CEILING(BoardQty*8.0,1)</f>
-        <v>800</v>
+        <f>CEILING(BoardQty*12,1)</f>
+        <v>1200</v>
       </c>
       <c r="F11" s="18">
         <f>IF(MIN(J11,P11,V11,AB11,AH11,AN11,AT11,AZ11)&lt;&gt;0,MIN(J11,P11,V11,AB11,AH11,AN11,AT11,AZ11),"")</f>
-        <v>0.1926</v>
+        <v/>
       </c>
       <c r="G11" s="19">
         <f>IF(AND(ISNUMBER(E11),ISNUMBER(F11)),E11*F11,"")</f>
-        <v>154.08</v>
-      </c>
-      <c r="N11" s="17">
-        <v>24020</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18">
-        <f>IFERROR(IF(OR(O11&gt;=Q11,E11&gt;=Q11),LOOKUP(IF(O11="",E11,O11),{0,1,10,100,1000,2000,6000,10000},{0.0,0.54,0.335,0.1926,0.15073,0.13817,0.12561,0.1185}),"MOQ="&amp;Q11),"")</f>
-        <v>0.1926</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>1</v>
-      </c>
-      <c r="R11" s="19">
-        <f>IFERROR(IF(O11="",E11,O11)*P11,"")</f>
-        <v>154.08</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>81</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:55">
       <c r="A12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" s="17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E12" s="17">
-        <f>CEILING(BoardQty*1,1)</f>
-        <v>100</v>
+        <f>CEILING(BoardQty*4,1)</f>
+        <v>400</v>
       </c>
       <c r="F12" s="18">
         <f>IF(MIN(J12,P12,V12,AB12,AH12,AN12,AT12,AZ12)&lt;&gt;0,MIN(J12,P12,V12,AB12,AH12,AN12,AT12,AZ12),"")</f>
@@ -3800,59 +4075,101 @@
     </row>
     <row r="13" spans="1:55">
       <c r="A13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>30</v>
+      <c r="D13" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="17">
-        <f>CEILING(BoardQty*1,1)</f>
-        <v>100</v>
+        <f>CEILING(BoardQty*2.0,1)</f>
+        <v>200</v>
       </c>
       <c r="F13" s="18">
         <f>IF(MIN(J13,P13,V13,AB13,AH13,AN13,AT13,AZ13)&lt;&gt;0,MIN(J13,P13,V13,AB13,AH13,AN13,AT13,AZ13),"")</f>
-        <v/>
+        <v>0.0731</v>
       </c>
       <c r="G13" s="19">
         <f>IF(AND(ISNUMBER(E13),ISNUMBER(F13)),E13*F13,"")</f>
-        <v/>
+        <v>14.62</v>
+      </c>
+      <c r="N13" s="17">
+        <v>272861</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18">
+        <f>IFERROR(IF(OR(O13&gt;=Q13,E13&gt;=Q13),LOOKUP(IF(O13="",E13,O13),{0,1,10,100,500,1000,3000,6000,15000,30000,75000},{0.0,0.15,0.134,0.0731,0.04502,0.03069,0.02609,0.02353,0.02046,0.01841,0.01637}),"MOQ="&amp;Q13),"")</f>
+        <v>0.0731</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>1</v>
+      </c>
+      <c r="R13" s="19">
+        <f>IFERROR(IF(O13="",E13,O13)*P13,"")</f>
+        <v>14.62</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="30" customHeight="1">
+    <row r="14" spans="1:55">
       <c r="A14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" s="17">
-        <f>CEILING(BoardQty*8,1)</f>
+        <f>CEILING(BoardQty*8.0,1)</f>
         <v>800</v>
       </c>
       <c r="F14" s="18">
         <f>IF(MIN(J14,P14,V14,AB14,AH14,AN14,AT14,AZ14)&lt;&gt;0,MIN(J14,P14,V14,AB14,AH14,AN14,AT14,AZ14),"")</f>
-        <v/>
+        <v>0.1872</v>
       </c>
       <c r="G14" s="19">
         <f>IF(AND(ISNUMBER(E14),ISNUMBER(F14)),E14*F14,"")</f>
-        <v/>
+        <v>149.76</v>
+      </c>
+      <c r="N14" s="17">
+        <v>16842</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18">
+        <f>IFERROR(IF(OR(O14&gt;=Q14,E14&gt;=Q14),LOOKUP(IF(O14="",E14,O14),{0,1,10,100,1000,2000,6000,10000,50000},{0.0,0.53,0.325,0.1872,0.14647,0.13426,0.12206,0.11392,0.10578}),"MOQ="&amp;Q14),"")</f>
+        <v>0.1872</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>1</v>
+      </c>
+      <c r="R14" s="19">
+        <f>IFERROR(IF(O14="",E14,O14)*P14,"")</f>
+        <v>149.76</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:55">
       <c r="A15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="17">
         <f>CEILING(BoardQty*1,1)</f>
@@ -3869,13 +4186,13 @@
     </row>
     <row r="16" spans="1:55">
       <c r="A16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="17">
         <f>CEILING(BoardQty*1,1)</f>
@@ -3890,19 +4207,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:55" ht="30" customHeight="1">
       <c r="A17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="E17" s="17">
-        <f>CEILING(BoardQty*4,1)</f>
-        <v>400</v>
+        <f>CEILING(BoardQty*8,1)</f>
+        <v>800</v>
       </c>
       <c r="F17" s="18">
         <f>IF(MIN(J17,P17,V17,AB17,AH17,AN17,AT17,AZ17)&lt;&gt;0,MIN(J17,P17,V17,AB17,AH17,AN17,AT17,AZ17),"")</f>
@@ -3921,34 +4238,127 @@
         <v>43</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="17">
-        <f>CEILING(BoardQty*8,1)</f>
-        <v>800</v>
+        <f>CEILING(BoardQty*4.0,1)</f>
+        <v>400</v>
       </c>
       <c r="F18" s="18">
         <f>IF(MIN(J18,P18,V18,AB18,AH18,AN18,AT18,AZ18)&lt;&gt;0,MIN(J18,P18,V18,AB18,AH18,AN18,AT18,AZ18),"")</f>
-        <v/>
+        <v>0.083</v>
       </c>
       <c r="G18" s="19">
         <f>IF(AND(ISNUMBER(E18),ISNUMBER(F18)),E18*F18,"")</f>
-        <v/>
+        <v>33.2</v>
+      </c>
+      <c r="N18" s="17">
+        <v>84644</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18">
+        <f>IFERROR(IF(OR(O18&gt;=Q18,E18&gt;=Q18),LOOKUP(IF(O18="",E18,O18),{0,1,50,100,500,1000,2000,4000},{0.0,0.15,0.149,0.138,0.131,0.126,0.119,0.101}),"MOQ="&amp;Q18),"")</f>
+        <v>0.138</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>1</v>
+      </c>
+      <c r="R18" s="19">
+        <f>IFERROR(IF(O18="",E18,O18)*P18,"")</f>
+        <v>55.2</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="T18" s="17">
+        <v>4000</v>
+      </c>
+      <c r="U18" s="17"/>
+      <c r="V18" s="18">
+        <f>IFERROR(IF(OR(U18&gt;=W18,E18&gt;=W18),USD_GBP*LOOKUP(IF(U18="",E18,U18),{0,1,10,100,500,1000,2000,4000,20000},{0.0,0.127,0.127,0.117,0.112,0.111,0.106,0.076,0.0745}),"MOQ="&amp;W18),"")</f>
+        <v>0.14204627279702534</v>
+      </c>
+      <c r="W18" s="17">
+        <v>10</v>
+      </c>
+      <c r="X18" s="19">
+        <f>IFERROR(IF(U18="",E18,U18)*V18,"")</f>
+        <v>56.8185</v>
+      </c>
+      <c r="Y18" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF18" s="17">
+        <v>97287</v>
+      </c>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="18">
+        <f>IFERROR(IF(OR(AG18&gt;=AI18,E18&gt;=AI18),LOOKUP(IF(AG18="",E18,AG18),{0,1,10,50,100,1000,10000},{0.0,0.16,0.152,0.149,0.138,0.131,0.131}),"MOQ="&amp;AI18),"")</f>
+        <v>0.138</v>
+      </c>
+      <c r="AI18" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="19">
+        <f>IFERROR(IF(AG18="",E18,AG18)*AH18,"")</f>
+        <v>55.2</v>
+      </c>
+      <c r="AK18" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL18" s="17">
+        <v>4000</v>
+      </c>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="18">
+        <f>IFERROR(IF(OR(AM18&gt;=AO18,E18&gt;=AO18),LOOKUP(IF(AM18="",E18,AM18),{0,1,10,25,50,100,4000},{0.0,0.083,0.083,0.083,0.083,0.083,0.131}),"MOQ="&amp;AO18),"")</f>
+        <v>0.083</v>
+      </c>
+      <c r="AO18" s="17">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="19">
+        <f>IFERROR(IF(AM18="",E18,AM18)*AN18,"")</f>
+        <v>33.2</v>
+      </c>
+      <c r="AQ18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR18" s="17">
+        <v>1260</v>
+      </c>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="18">
+        <f>IFERROR(IF(OR(AS18&gt;=AU18,E18&gt;=AU18),USD_GBP*LOOKUP(IF(AS18="",E18,AS18),{0,1,10,100,500,1000,4000},{0.0,0.138,0.138,0.121,0.105,0.088,0.07}),"MOQ="&amp;AU18),"")</f>
+        <v>0.14690255562769286</v>
+      </c>
+      <c r="AU18" s="17">
+        <v>10</v>
+      </c>
+      <c r="AV18" s="19">
+        <f>IFERROR(IF(AS18="",E18,AS18)*AT18,"")</f>
+        <v>58.761</v>
+      </c>
+      <c r="AW18" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:55">
       <c r="A19" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E19" s="17">
-        <f>CEILING(BoardQty*8,1)</f>
-        <v>800</v>
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>100</v>
       </c>
       <c r="F19" s="18">
         <f>IF(MIN(J19,P19,V19,AB19,AH19,AN19,AT19,AZ19)&lt;&gt;0,MIN(J19,P19,V19,AB19,AH19,AN19,AT19,AZ19),"")</f>
@@ -3961,17 +4371,17 @@
     </row>
     <row r="20" spans="1:55">
       <c r="A20" s="17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="17">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>200</v>
+        <f>CEILING(BoardQty*4,1)</f>
+        <v>400</v>
       </c>
       <c r="F20" s="18">
         <f>IF(MIN(J20,P20,V20,AB20,AH20,AN20,AT20,AZ20)&lt;&gt;0,MIN(J20,P20,V20,AB20,AH20,AN20,AT20,AZ20),"")</f>
@@ -3984,267 +4394,66 @@
     </row>
     <row r="21" spans="1:55">
       <c r="A21" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="E21" s="17">
-        <f>CEILING(BoardQty*5.0,1)</f>
-        <v>500</v>
+        <f>CEILING(BoardQty*8,1)</f>
+        <v>800</v>
       </c>
       <c r="F21" s="18">
         <f>IF(MIN(J21,P21,V21,AB21,AH21,AN21,AT21,AZ21)&lt;&gt;0,MIN(J21,P21,V21,AB21,AH21,AN21,AT21,AZ21),"")</f>
-        <v>0.0188</v>
+        <v/>
       </c>
       <c r="G21" s="19">
         <f>IF(AND(ISNUMBER(E21),ISNUMBER(F21)),E21*F21,"")</f>
-        <v>9.4</v>
-      </c>
-      <c r="H21" s="17">
-        <v>170000</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18">
-        <f>IFERROR(IF(OR(I21&gt;=K21,E21&gt;=K21),LOOKUP(IF(I21="",E21,I21),{0,1,10,25,100,250,500,1000},{0.0,0.0784,0.0592,0.0483,0.0303,0.0237,0.0188,0.0133}),"MOQ="&amp;K21),"")</f>
-        <v>0.0188</v>
-      </c>
-      <c r="K21" s="17">
-        <v>1</v>
-      </c>
-      <c r="L21" s="19">
-        <f>IFERROR(IF(I21="",E21,I21)*J21,"")</f>
-        <v>9.4</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="17">
-        <v>29950</v>
-      </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="18">
-        <f>IFERROR(IF(OR(O21&gt;=Q21,E21&gt;=Q21),LOOKUP(IF(O21="",E21,O21),{0,1,10,25,50,100,250,500,1000,5000,10000,25000,50000,125000},{0.0,0.1,0.087,0.06,0.0466,0.0333,0.026,0.02066,0.01467,0.01133,0.01017,0.00933,0.00877,0.00857}),"MOQ="&amp;Q21),"")</f>
-        <v>0.02066</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>1</v>
-      </c>
-      <c r="R21" s="19">
-        <f>IFERROR(IF(O21="",E21,O21)*P21,"")</f>
-        <v>10.33</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="T21" s="17">
-        <v>6106</v>
-      </c>
-      <c r="U21" s="17"/>
-      <c r="V21" s="18">
-        <f>IFERROR(IF(OR(U21&gt;=W21,E21&gt;=W21),USD_GBP*LOOKUP(IF(U21="",E21,U21),{0,1,10,100,500,1000,2500,5000,25000},{0.0,0.0425,0.0425,0.0236,0.0191,0.019,0.0189,0.0188,0.0187}),"MOQ="&amp;W21),"")</f>
-        <v>0.0230458532411039</v>
-      </c>
-      <c r="W21" s="17">
-        <v>10</v>
-      </c>
-      <c r="X21" s="19">
-        <f>IFERROR(IF(U21="",E21,U21)*V21,"")</f>
-        <v>11.5229</v>
-      </c>
-      <c r="Y21" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF21" s="17">
-        <v>53013</v>
-      </c>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="18">
-        <f>IFERROR(IF(OR(AG21&gt;=AI21,E21&gt;=AI21),LOOKUP(IF(AG21="",E21,AG21),{0,1,10,50,100,1000,10000},{0.0,0.1,0.047,0.047,0.026,0.015,0.014}),"MOQ="&amp;AI21),"")</f>
-        <v>0.026</v>
-      </c>
-      <c r="AI21" s="17">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="19">
-        <f>IFERROR(IF(AG21="",E21,AG21)*AH21,"")</f>
-        <v>13.0</v>
-      </c>
-      <c r="AK21" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL21" s="17">
-        <v>6106</v>
-      </c>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="18">
-        <f>IFERROR(IF(OR(AM21&gt;=AO21,E21&gt;=AO21),LOOKUP(IF(AM21="",E21,AM21),{0,1,10,25,50,100,250,500,1000,100000,110000},{0.0,0.037,0.035,0.032,0.03,0.028,0.026,0.024,0.022,0.019,0.019}),"MOQ="&amp;AO21),"")</f>
-        <v>0.024</v>
-      </c>
-      <c r="AO21" s="17">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="19">
-        <f>IFERROR(IF(AM21="",E21,AM21)*AN21,"")</f>
-        <v>12.0</v>
-      </c>
-      <c r="AQ21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX21" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY21" s="17"/>
-      <c r="AZ21" s="18">
-        <f>IFERROR(IF(OR(AY21&gt;=BA21,E21&gt;=BA21),USD_GBP*LOOKUP(IF(AY21="",E21,AY21),{0,1,100,1000,5000},{0.0,0.0182,0.0182,0.00959,0.00695}),"MOQ="&amp;BA21),"")</f>
-        <v>0.021959922983669687</v>
-      </c>
-      <c r="BA21" s="17">
-        <v>100</v>
-      </c>
-      <c r="BB21" s="19">
-        <f>IFERROR(IF(AY21="",E21,AY21)*AZ21,"")</f>
-        <v>10.98</v>
-      </c>
-      <c r="BC21" s="17" t="s">
-        <v>50</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:55">
       <c r="A22" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>53</v>
-      </c>
       <c r="E22" s="17">
-        <f>CEILING(BoardQty*4.0,1)</f>
-        <v>400</v>
+        <f>CEILING(BoardQty*8,1)</f>
+        <v>800</v>
       </c>
       <c r="F22" s="18">
         <f>IF(MIN(J22,P22,V22,AB22,AH22,AN22,AT22,AZ22)&lt;&gt;0,MIN(J22,P22,V22,AB22,AH22,AN22,AT22,AZ22),"")</f>
-        <v>0.026</v>
+        <v/>
       </c>
       <c r="G22" s="19">
         <f>IF(AND(ISNUMBER(E22),ISNUMBER(F22)),E22*F22,"")</f>
-        <v>10.4</v>
-      </c>
-      <c r="H22" s="17">
-        <v>3344</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18">
-        <f>IFERROR(IF(OR(I22&gt;=K22,E22&gt;=K22),LOOKUP(IF(I22="",E22,I22),{0,1,10,25,100,250,500,1000,3000},{0.0,0.0572,0.0564,0.0555,0.0546,0.0538,0.0529,0.0521,0.0512}),"MOQ="&amp;K22),"")</f>
-        <v>0.0538</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1</v>
-      </c>
-      <c r="L22" s="19">
-        <f>IFERROR(IF(I22="",E22,I22)*J22,"")</f>
-        <v>21.52</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="17">
-        <v>44930</v>
-      </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="18">
-        <f>IFERROR(IF(OR(O22&gt;=Q22,E22&gt;=Q22),LOOKUP(IF(O22="",E22,O22),{0,1,10,25,50,100,250,500,1000,5000,10000,25000,50000,125000},{0.0,0.1,0.087,0.06,0.0466,0.0333,0.026,0.02066,0.01467,0.01133,0.01017,0.00933,0.00877,0.00857}),"MOQ="&amp;Q22),"")</f>
-        <v>0.026</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>1</v>
-      </c>
-      <c r="R22" s="19">
-        <f>IFERROR(IF(O22="",E22,O22)*P22,"")</f>
-        <v>10.4</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="T22" s="17">
-        <v>3095</v>
-      </c>
-      <c r="U22" s="17"/>
-      <c r="V22" s="18">
-        <f>IFERROR(IF(OR(U22&gt;=W22,E22&gt;=W22),USD_GBP*LOOKUP(IF(U22="",E22,U22),{0,1,10,100,500,1000,2500,5000,25000},{0.0,0.0817,0.0817,0.0677,0.0607,0.056,0.0523,0.0495,0.0476}),"MOQ="&amp;W22),"")</f>
-        <v>0.08168608714255152</v>
-      </c>
-      <c r="W22" s="17">
-        <v>10</v>
-      </c>
-      <c r="X22" s="19">
-        <f>IFERROR(IF(U22="",E22,U22)*V22,"")</f>
-        <v>32.6744</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF22" s="17">
-        <v>4900</v>
-      </c>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="18">
-        <f>IFERROR(IF(OR(AG22&gt;=AI22,E22&gt;=AI22),LOOKUP(IF(AG22="",E22,AG22),{0,1,10,50,100,1000,10000},{0.0,0.1,0.053,0.053,0.032,0.021,0.01}),"MOQ="&amp;AI22),"")</f>
-        <v>0.032</v>
-      </c>
-      <c r="AI22" s="17">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="19">
-        <f>IFERROR(IF(AG22="",E22,AG22)*AH22,"")</f>
-        <v>12.8</v>
-      </c>
-      <c r="AK22" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL22" s="17">
-        <v>3095</v>
-      </c>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="18">
-        <f>IFERROR(IF(OR(AM22&gt;=AO22,E22&gt;=AO22),LOOKUP(IF(AM22="",E22,AM22),{0,1,10,25,50,100,250,500,10000,20000,30000},{0.0,0.011,0.1,0.053,0.043,0.032,0.028,0.023,0.01,0.01,0.009}),"MOQ="&amp;AO22),"")</f>
-        <v>0.028</v>
-      </c>
-      <c r="AO22" s="17">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="19">
-        <f>IFERROR(IF(AM22="",E22,AM22)*AN22,"")</f>
-        <v>11.2</v>
-      </c>
-      <c r="AQ22" s="17" t="s">
-        <v>109</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:55">
       <c r="A23" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="E23" s="17">
-        <f>CEILING(BoardQty*1,1)</f>
-        <v>100</v>
+        <f>CEILING(BoardQty*2.0,1)</f>
+        <v>200</v>
       </c>
       <c r="F23" s="18">
         <f>IF(MIN(J23,P23,V23,AB23,AH23,AN23,AT23,AZ23)&lt;&gt;0,MIN(J23,P23,V23,AB23,AH23,AN23,AT23,AZ23),"")</f>
@@ -4257,165 +4466,219 @@
     </row>
     <row r="24" spans="1:55">
       <c r="A24" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>58</v>
-      </c>
       <c r="D24" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="17">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>100</v>
+        <f>CEILING(BoardQty*5.0,1)</f>
+        <v>500</v>
       </c>
       <c r="F24" s="18">
         <f>IF(MIN(J24,P24,V24,AB24,AH24,AN24,AT24,AZ24)&lt;&gt;0,MIN(J24,P24,V24,AB24,AH24,AN24,AT24,AZ24),"")</f>
-        <v>0.11028225058831918</v>
+        <v>0.02</v>
       </c>
       <c r="G24" s="19">
         <f>IF(AND(ISNUMBER(E24),ISNUMBER(F24)),E24*F24,"")</f>
-        <v>11.0282</v>
-      </c>
-      <c r="T24" s="20" t="s">
-        <v>93</v>
+        <v>10.0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1670</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18">
+        <f>IFERROR(IF(OR(I24&gt;=K24,E24&gt;=K24),LOOKUP(IF(I24="",E24,I24),{0,1,10,25,100,250,500,1000},{0.0,0.1266,0.0859,0.085,0.0544,0.0538,0.0351,0.0347}),"MOQ="&amp;K24),"")</f>
+        <v>0.0351</v>
+      </c>
+      <c r="K24" s="17">
+        <v>1</v>
+      </c>
+      <c r="L24" s="19">
+        <f>IFERROR(IF(I24="",E24,I24)*J24,"")</f>
+        <v>17.55</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="17">
+        <v>83198</v>
+      </c>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18">
+        <f>IFERROR(IF(OR(O24&gt;=Q24,E24&gt;=Q24),LOOKUP(IF(O24="",E24,O24),{0,1,10,25,50,100,250,500,1000,5000,10000,25000,50000,125000},{0.0,0.13,0.116,0.08,0.0622,0.0444,0.03468,0.02756,0.01955,0.01511,0.01355,0.01244,0.01169,0.01142}),"MOQ="&amp;Q24),"")</f>
+        <v>0.02756</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>1</v>
+      </c>
+      <c r="R24" s="19">
+        <f>IFERROR(IF(O24="",E24,O24)*P24,"")</f>
+        <v>13.78</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T24" s="17">
+        <v>9590</v>
       </c>
       <c r="U24" s="17"/>
       <c r="V24" s="18">
-        <f>IFERROR(IF(OR(U24&gt;=W24,E24&gt;=W24),USD_GBP*LOOKUP(IF(U24="",E24,U24),{0,1,5,10,100,500,1000,5000,10000},{0.0,0.293,0.293,0.236,0.145,0.121,0.0822,0.0727,0.0712}),"MOQ="&amp;W24),"")</f>
-        <v>0.1749554303644013</v>
+        <f>IFERROR(IF(OR(U24&gt;=W24,E24&gt;=W24),USD_GBP*LOOKUP(IF(U24="",E24,U24),{0,1,10,100,500,1000,2500,5000,25000},{0.0,0.169,0.169,0.066,0.04,0.028,0.025,0.023,0.0225}),"MOQ="&amp;W24),"")</f>
+        <v>0.048562828306675326</v>
       </c>
       <c r="W24" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X24" s="19">
         <f>IFERROR(IF(U24="",E24,U24)*V24,"")</f>
-        <v>17.4955</v>
+        <v>24.2814</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF24" s="20" t="s">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="AF24" s="17">
+        <v>18972</v>
       </c>
       <c r="AG24" s="17"/>
       <c r="AH24" s="18">
-        <f>IFERROR(IF(OR(AG24&gt;=AI24,E24&gt;=AI24),LOOKUP(IF(AG24="",E24,AG24),{0,1,10,50,100,1000,10000},{0.0,0.4,0.321,0.321,0.198,0.123,0.098}),"MOQ="&amp;AI24),"")</f>
-        <v>0.198</v>
+        <f>IFERROR(IF(OR(AG24&gt;=AI24,E24&gt;=AI24),LOOKUP(IF(AG24="",E24,AG24),{0,1,10,50,100,1000,10000},{0.0,0.1,0.061,0.061,0.035,0.02,0.013}),"MOQ="&amp;AI24),"")</f>
+        <v>0.035</v>
       </c>
       <c r="AI24" s="17">
         <v>1</v>
       </c>
       <c r="AJ24" s="19">
         <f>IFERROR(IF(AG24="",E24,AG24)*AH24,"")</f>
-        <v>19.8</v>
+        <v>17.5</v>
       </c>
       <c r="AK24" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL24" s="20" t="s">
-        <v>93</v>
+        <v>115</v>
+      </c>
+      <c r="AL24" s="17">
+        <v>280</v>
       </c>
       <c r="AM24" s="17"/>
       <c r="AN24" s="18">
-        <f>IFERROR(IF(OR(AM24&gt;=AO24,E24&gt;=AO24),LOOKUP(IF(AM24="",E24,AM24),{0,1,5,10,25,50,100,250,500,1000},{0.0,0.4,0.4,0.321,0.28,0.239,0.198,0.181,0.164,0.123}),"MOQ="&amp;AO24),"")</f>
-        <v>0.198</v>
+        <f>IFERROR(IF(OR(AM24&gt;=AO24,E24&gt;=AO24),LOOKUP(IF(AM24="",E24,AM24),{0,1,10,25,50,100,250,500,1000,10000},{0.0,0.03,0.029,0.027,0.025,0.023,0.021,0.02,0.019,0.03}),"MOQ="&amp;AO24),"")</f>
+        <v>0.02</v>
       </c>
       <c r="AO24" s="17">
         <v>1</v>
       </c>
       <c r="AP24" s="19">
         <f>IFERROR(IF(AM24="",E24,AM24)*AN24,"")</f>
-        <v>19.8</v>
+        <v>10.0</v>
       </c>
       <c r="AQ24" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX24" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="18">
-        <f>IFERROR(IF(OR(AY24&gt;=BA24,E24&gt;=BA24),USD_GBP*LOOKUP(IF(AY24="",E24,AY24),{0,1,5,25,100,500,4000},{0.0,0.13,0.13,0.106,0.0914,0.08,0.0746}),"MOQ="&amp;BA24),"")</f>
-        <v>0.11028225058831918</v>
-      </c>
-      <c r="BA24" s="17">
-        <v>5</v>
-      </c>
-      <c r="BB24" s="19">
-        <f>IFERROR(IF(AY24="",E24,AY24)*AZ24,"")</f>
-        <v>11.0282</v>
-      </c>
-      <c r="BC24" s="17" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:55">
       <c r="A25" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="17">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>100</v>
+        <f>CEILING(BoardQty*6.0,1)</f>
+        <v>600</v>
       </c>
       <c r="F25" s="18">
         <f>IF(MIN(J25,P25,V25,AB25,AH25,AN25,AT25,AZ25)&lt;&gt;0,MIN(J25,P25,V25,AB25,AH25,AN25,AT25,AZ25),"")</f>
-        <v>0.262</v>
+        <v>0.02758</v>
       </c>
       <c r="G25" s="19">
         <f>IF(AND(ISNUMBER(E25),ISNUMBER(F25)),E25*F25,"")</f>
-        <v>26.2</v>
+        <v>16.548</v>
+      </c>
+      <c r="H25" s="17">
+        <v>926</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18">
+        <f>IFERROR(IF(OR(I25&gt;=K25,E25&gt;=K25),LOOKUP(IF(I25="",E25,I25),{0,1,10,25,100,250,500},{0.0,0.2236,0.193,0.128,0.0811,0.0803,0.0702}),"MOQ="&amp;K25),"")</f>
+        <v>0.0702</v>
+      </c>
+      <c r="K25" s="17">
+        <v>1</v>
+      </c>
+      <c r="L25" s="19">
+        <f>IFERROR(IF(I25="",E25,I25)*J25,"")</f>
+        <v>42.12</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="N25" s="17">
-        <v>42</v>
+        <v>5008</v>
       </c>
       <c r="O25" s="17"/>
       <c r="P25" s="18">
-        <f>IFERROR(IF(OR(O25&gt;=Q25,E25&gt;=Q25),LOOKUP(IF(O25="",E25,O25),{0,1,10,25,100,250,500,1000},{0.0,0.52,0.423,0.3876,0.2883,0.26128,0.21624,0.16218}),"MOQ="&amp;Q25),"")</f>
-        <v>0.2883</v>
+        <f>IFERROR(IF(OR(O25&gt;=Q25,E25&gt;=Q25),LOOKUP(IF(O25="",E25,O25),{0,1,10,25,50,100,250,500,1000},{0.0,0.13,0.116,0.08,0.0622,0.0445,0.03472,0.02758,0.01958}),"MOQ="&amp;Q25),"")</f>
+        <v>0.02758</v>
       </c>
       <c r="Q25" s="17">
         <v>1</v>
       </c>
       <c r="R25" s="19">
         <f>IFERROR(IF(O25="",E25,O25)*P25,"")</f>
-        <v>28.83</v>
+        <v>16.548</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AF25" s="17">
-        <v>106</v>
+        <v>2354</v>
       </c>
       <c r="AG25" s="17"/>
       <c r="AH25" s="18">
-        <f>IFERROR(IF(OR(AG25&gt;=AI25,E25&gt;=AI25),LOOKUP(IF(AG25="",E25,AG25),{0,1,10,50,100,1000,10000},{0.0,0.52,0.424,0.424,0.262,0.163,0.148}),"MOQ="&amp;AI25),"")</f>
-        <v>0.262</v>
+        <f>IFERROR(IF(OR(AG25&gt;=AI25,E25&gt;=AI25),LOOKUP(IF(AG25="",E25,AG25),{0,1,10,50,100,1000,10000},{0.0,0.26,0.116,0.116,0.087,0.082,0.082}),"MOQ="&amp;AI25),"")</f>
+        <v>0.087</v>
       </c>
       <c r="AI25" s="17">
         <v>1</v>
       </c>
       <c r="AJ25" s="19">
         <f>IFERROR(IF(AG25="",E25,AG25)*AH25,"")</f>
-        <v>26.2</v>
+        <v>52.2</v>
       </c>
       <c r="AK25" s="17" t="s">
-        <v>103</v>
+        <v>116</v>
+      </c>
+      <c r="AL25" s="17">
+        <v>10000</v>
+      </c>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="18">
+        <f>IFERROR(IF(OR(AM25&gt;=AO25,E25&gt;=AO25),LOOKUP(IF(AM25="",E25,AM25),{0,1,5000,10000},{0.0,0.082,0.082,0.082}),"MOQ="&amp;AO25),"")</f>
+        <v/>
+      </c>
+      <c r="AO25" s="17">
+        <v>5000</v>
+      </c>
+      <c r="AP25" s="19">
+        <f>IFERROR(IF(AM25="",E25,AM25)*AN25,"")</f>
+        <v/>
+      </c>
+      <c r="AQ25" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:55" ht="45" customHeight="1">
+    <row r="26" spans="1:55">
       <c r="A26" s="17" t="s">
         <v>64</v>
       </c>
@@ -4423,10 +4686,10 @@
         <v>65</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="E26" s="17">
         <f>CEILING(BoardQty*1.0,1)</f>
@@ -4434,29 +4697,83 @@
       </c>
       <c r="F26" s="18">
         <f>IF(MIN(J26,P26,V26,AB26,AH26,AN26,AT26,AZ26)&lt;&gt;0,MIN(J26,P26,V26,AB26,AH26,AN26,AT26,AZ26),"")</f>
-        <v>3.1731</v>
+        <v>0.027</v>
       </c>
       <c r="G26" s="19">
         <f>IF(AND(ISNUMBER(E26),ISNUMBER(F26)),E26*F26,"")</f>
-        <v>317.31</v>
+        <v>2.7</v>
+      </c>
+      <c r="H26" s="17">
+        <v>9</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18">
+        <f>IFERROR(IF(OR(I26&gt;=K26,E26&gt;=K26),LOOKUP(IF(I26="",E26,I26),{0,1},{0.0,0.0855}),"MOQ="&amp;K26),"")</f>
+        <v>0.0855</v>
+      </c>
+      <c r="K26" s="17">
+        <v>1</v>
+      </c>
+      <c r="L26" s="19">
+        <f>IFERROR(IF(I26="",E26,I26)*J26,"")</f>
+        <v>8.55</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="N26" s="17">
-        <v>1308</v>
+        <v>1950</v>
       </c>
       <c r="O26" s="17"/>
       <c r="P26" s="18">
-        <f>IFERROR(IF(OR(O26&gt;=Q26,E26&gt;=Q26),LOOKUP(IF(O26="",E26,O26),{0,1,10,25,100,250,500,1000,2000},{0.0,4.31,3.873,3.6612,3.1731,3.0104,2.70124,2.27815,2.16424}),"MOQ="&amp;Q26),"")</f>
-        <v>3.1731</v>
+        <f>IFERROR(IF(OR(O26&gt;=Q26,E26&gt;=Q26),LOOKUP(IF(O26="",E26,O26),{0,1,10,25,50,100,250,500,1000},{0.0,0.14,0.122,0.0888,0.0644,0.0478,0.03668,0.02888,0.02}),"MOQ="&amp;Q26),"")</f>
+        <v>0.0478</v>
       </c>
       <c r="Q26" s="17">
         <v>1</v>
       </c>
       <c r="R26" s="19">
         <f>IFERROR(IF(O26="",E26,O26)*P26,"")</f>
-        <v>317.31</v>
+        <v>4.78</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="AF26" s="17">
+        <v>5460</v>
+      </c>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="18">
+        <f>IFERROR(IF(OR(AG26&gt;=AI26,E26&gt;=AI26),LOOKUP(IF(AG26="",E26,AG26),{0,1,10,50,100,1000,10000},{0.0,0.1,0.065,0.065,0.027,0.02,0.015}),"MOQ="&amp;AI26),"")</f>
+        <v>0.027</v>
+      </c>
+      <c r="AI26" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="19">
+        <f>IFERROR(IF(AG26="",E26,AG26)*AH26,"")</f>
+        <v>2.7</v>
+      </c>
+      <c r="AK26" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL26" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="18">
+        <f>IFERROR(IF(OR(AM26&gt;=AO26,E26&gt;=AO26),LOOKUP(IF(AM26="",E26,AM26),{0,1,10000,20000,30000},{0.0,0.015,0.015,0.015,0.014}),"MOQ="&amp;AO26),"")</f>
+        <v/>
+      </c>
+      <c r="AO26" s="17">
+        <v>10000</v>
+      </c>
+      <c r="AP26" s="19">
+        <f>IFERROR(IF(AM26="",E26,AM26)*AN26,"")</f>
+        <v/>
+      </c>
+      <c r="AQ26" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:55">
@@ -4473,439 +4790,433 @@
         <v>70</v>
       </c>
       <c r="E27" s="17">
+        <f>CEILING(BoardQty*1.0,1)</f>
+        <v>100</v>
+      </c>
+      <c r="F27" s="18">
+        <f>IF(MIN(J27,P27,V27,AB27,AH27,AN27,AT27,AZ27)&lt;&gt;0,MIN(J27,P27,V27,AB27,AH27,AN27,AT27,AZ27),"")</f>
+        <v>0.46571752346101636</v>
+      </c>
+      <c r="G27" s="19">
+        <f>IF(AND(ISNUMBER(E27),ISNUMBER(F27)),E27*F27,"")</f>
+        <v>46.5718</v>
+      </c>
+      <c r="N27" s="17">
+        <v>1490</v>
+      </c>
+      <c r="O27" s="17"/>
+      <c r="P27" s="18">
+        <f>IFERROR(IF(OR(O27&gt;=Q27,E27&gt;=Q27),LOOKUP(IF(O27="",E27,O27),{0,1,10,25,100,250,500,1000},{0.0,0.93,0.832,0.7896,0.6485,0.6062,0.53572,0.4256}),"MOQ="&amp;Q27),"")</f>
+        <v>0.6485</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>1</v>
+      </c>
+      <c r="R27" s="19">
+        <f>IFERROR(IF(O27="",E27,O27)*P27,"")</f>
+        <v>64.85</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX27" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY27" s="17"/>
+      <c r="AZ27" s="18">
+        <f>IFERROR(IF(OR(AY27&gt;=BA27,E27&gt;=BA27),USD_GBP*LOOKUP(IF(AY27="",E27,AY27),{0,1,5,25,100},{0.0,0.7,0.508,0.4396,0.3836}),"MOQ="&amp;BA27),"")</f>
+        <v>0.46571752346101636</v>
+      </c>
+      <c r="BA27" s="17">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="19">
+        <f>IFERROR(IF(AY27="",E27,AY27)*AZ27,"")</f>
+        <v>46.5718</v>
+      </c>
+      <c r="BC27" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55">
+      <c r="A28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="17">
+        <f>CEILING(BoardQty*1.0,1)</f>
+        <v>100</v>
+      </c>
+      <c r="F28" s="18">
+        <f>IF(MIN(J28,P28,V28,AB28,AH28,AN28,AT28,AZ28)&lt;&gt;0,MIN(J28,P28,V28,AB28,AH28,AN28,AT28,AZ28),"")</f>
+        <v>0.262</v>
+      </c>
+      <c r="G28" s="19">
+        <f>IF(AND(ISNUMBER(E28),ISNUMBER(F28)),E28*F28,"")</f>
+        <v>26.2</v>
+      </c>
+      <c r="AF28" s="17">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="18">
+        <f>IFERROR(IF(OR(AG28&gt;=AI28,E28&gt;=AI28),LOOKUP(IF(AG28="",E28,AG28),{0,1,10,50,100,1000,10000},{0.0,0.52,0.424,0.424,0.262,0.163,0.148}),"MOQ="&amp;AI28),"")</f>
+        <v>0.262</v>
+      </c>
+      <c r="AI28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="19">
+        <f>IFERROR(IF(AG28="",E28,AG28)*AH28,"")</f>
+        <v>26.2</v>
+      </c>
+      <c r="AK28" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" ht="45" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="17">
+        <f>CEILING(BoardQty*1.0,1)</f>
+        <v>100</v>
+      </c>
+      <c r="F29" s="18">
+        <f>IF(MIN(J29,P29,V29,AB29,AH29,AN29,AT29,AZ29)&lt;&gt;0,MIN(J29,P29,V29,AB29,AH29,AN29,AT29,AZ29),"")</f>
+        <v>3.1731</v>
+      </c>
+      <c r="G29" s="19">
+        <f>IF(AND(ISNUMBER(E29),ISNUMBER(F29)),E29*F29,"")</f>
+        <v>317.31</v>
+      </c>
+      <c r="N29" s="17">
+        <v>1263</v>
+      </c>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18">
+        <f>IFERROR(IF(OR(O29&gt;=Q29,E29&gt;=Q29),LOOKUP(IF(O29="",E29,O29),{0,1,10,25,100,250,500,1000,2000},{0.0,4.31,3.873,3.6612,3.1731,3.0104,2.70124,2.27815,2.16424}),"MOQ="&amp;Q29),"")</f>
+        <v>3.1731</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>1</v>
+      </c>
+      <c r="R29" s="19">
+        <f>IFERROR(IF(O29="",E29,O29)*P29,"")</f>
+        <v>317.31</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55">
+      <c r="A30" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="17">
         <f>CEILING(BoardQty*4.0,1)</f>
         <v>400</v>
       </c>
-      <c r="F27" s="18">
-        <f>IF(MIN(J27,P27,V27,AB27,AH27,AN27,AT27,AZ27)&lt;&gt;0,MIN(J27,P27,V27,AB27,AH27,AN27,AT27,AZ27),"")</f>
+      <c r="F30" s="18">
+        <f>IF(MIN(J30,P30,V30,AB30,AH30,AN30,AT30,AZ30)&lt;&gt;0,MIN(J30,P30,V30,AB30,AH30,AN30,AT30,AZ30),"")</f>
         <v>0.79992</v>
       </c>
-      <c r="G27" s="19">
-        <f>IF(AND(ISNUMBER(E27),ISNUMBER(F27)),E27*F27,"")</f>
+      <c r="G30" s="19">
+        <f>IF(AND(ISNUMBER(E30),ISNUMBER(F30)),E30*F30,"")</f>
         <v>319.968</v>
       </c>
-      <c r="N27" s="17">
-        <v>5258</v>
-      </c>
-      <c r="O27" s="17"/>
-      <c r="P27" s="18">
-        <f>IFERROR(IF(OR(O27&gt;=Q27,E27&gt;=Q27),LOOKUP(IF(O27="",E27,O27),{0,1,10,25,100,250,500,1000},{0.0,1.23,1.098,1.0416,0.8557,0.79992,0.70692,0.61425}),"MOQ="&amp;Q27),"")</f>
+      <c r="N30" s="17">
+        <v>4549</v>
+      </c>
+      <c r="O30" s="17"/>
+      <c r="P30" s="18">
+        <f>IFERROR(IF(OR(O30&gt;=Q30,E30&gt;=Q30),LOOKUP(IF(O30="",E30,O30),{0,1,10,25,100,250,500,1000},{0.0,1.23,1.098,1.0416,0.8557,0.79992,0.70692,0.5616}),"MOQ="&amp;Q30),"")</f>
         <v>0.79992</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q30" s="17">
         <v>1</v>
       </c>
-      <c r="R27" s="19">
-        <f>IFERROR(IF(O27="",E27,O27)*P27,"")</f>
+      <c r="R30" s="19">
+        <f>IFERROR(IF(O30="",E30,O30)*P30,"")</f>
         <v>319.968</v>
       </c>
-      <c r="S27" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="T27" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="U27" s="17"/>
-      <c r="V27" s="18">
-        <f>IFERROR(IF(OR(U27&gt;=W27,E27&gt;=W27),USD_GBP*LOOKUP(IF(U27="",E27,U27),{0,1,10,25,50,100},{0.0,1.07,0.97,0.964,0.957,0.951}),"MOQ="&amp;W27),"")</f>
-        <v>1.1474663053554874</v>
-      </c>
-      <c r="W27" s="17">
+      <c r="S30" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="T30" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="U30" s="17"/>
+      <c r="V30" s="18">
+        <f>IFERROR(IF(OR(U30&gt;=W30,E30&gt;=W30),USD_GBP*LOOKUP(IF(U30="",E30,U30),{0,1,10,25,50,100},{0.0,1.07,0.97,0.964,0.957,0.951}),"MOQ="&amp;W30),"")</f>
+        <v>1.1545812429912057</v>
+      </c>
+      <c r="W30" s="17">
         <v>1</v>
       </c>
-      <c r="X27" s="19">
-        <f>IFERROR(IF(U27="",E27,U27)*V27,"")</f>
-        <v>458.9865</v>
-      </c>
-      <c r="Y27" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF27" s="17">
-        <v>705</v>
-      </c>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="18">
-        <f>IFERROR(IF(OR(AG27&gt;=AI27,E27&gt;=AI27),LOOKUP(IF(AG27="",E27,AG27),{0,1,10,50,100,1000,10000},{0.0,1.23,1.1,1.05,0.83,0.665,0.621}),"MOQ="&amp;AI27),"")</f>
+      <c r="X30" s="19">
+        <f>IFERROR(IF(U30="",E30,U30)*V30,"")</f>
+        <v>461.8325</v>
+      </c>
+      <c r="Y30" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF30" s="17">
+        <v>570</v>
+      </c>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="18">
+        <f>IFERROR(IF(OR(AG30&gt;=AI30,E30&gt;=AI30),LOOKUP(IF(AG30="",E30,AG30),{0,1,10,50,100,1000,10000},{0.0,1.23,1.1,1.05,0.83,0.665,0.621}),"MOQ="&amp;AI30),"")</f>
         <v>0.83</v>
       </c>
-      <c r="AI27" s="17">
+      <c r="AI30" s="17">
         <v>1</v>
       </c>
-      <c r="AJ27" s="19">
-        <f>IFERROR(IF(AG27="",E27,AG27)*AH27,"")</f>
+      <c r="AJ30" s="19">
+        <f>IFERROR(IF(AG30="",E30,AG30)*AH30,"")</f>
         <v>332.0</v>
       </c>
-      <c r="AK27" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL27" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="18">
-        <f>IFERROR(IF(OR(AM27&gt;=AO27,E27&gt;=AO27),LOOKUP(IF(AM27="",E27,AM27),{0,1,10,100,500,1000,2500},{0.0,1.64,1.51,1.37,1.31,1.24,1.17}),"MOQ="&amp;AO27),"")</f>
-        <v>1.37</v>
-      </c>
-      <c r="AO27" s="17">
+      <c r="AK30" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL30" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="18">
+        <f>IFERROR(IF(OR(AM30&gt;=AO30,E30&gt;=AO30),LOOKUP(IF(AM30="",E30,AM30),{0,1,10,25,50,100,250,500},{0.0,1.63,1.51,1.41,1.35,1.27,1.21,1.18}),"MOQ="&amp;AO30),"")</f>
+        <v>1.21</v>
+      </c>
+      <c r="AO30" s="17">
         <v>1</v>
       </c>
-      <c r="AP27" s="19">
-        <f>IFERROR(IF(AM27="",E27,AM27)*AN27,"")</f>
-        <v>548.0</v>
-      </c>
-      <c r="AQ27" s="17" t="s">
-        <v>111</v>
+      <c r="AP30" s="19">
+        <f>IFERROR(IF(AM30="",E30,AM30)*AN30,"")</f>
+        <v>484.0</v>
+      </c>
+      <c r="AQ30" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:55">
-      <c r="B29" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="5">
-        <f>SUM(L29,R29,X29,AD29,AJ29,AP29,AV29,BB29)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29" s="6">
-        <f>IFERROR(IF(COUNTIF(I7:I27,"&gt;0")&gt;0,COUNTIF(I7:I27,"&gt;0")&amp;" of "&amp;(ROWS(K7:K27)-COUNTBLANK(K7:K27))&amp;" parts purchased",""),"")</f>
+    <row r="32" spans="1:55">
+      <c r="B32" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="5">
+        <f>SUM(L32,R32,X32,AD32,AJ32,AP32,AV32,BB32)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="6">
+        <f>IFERROR(IF(COUNTIF(I7:I30,"&gt;0")&gt;0,COUNTIF(I7:I30,"&gt;0")&amp;" of "&amp;(ROWS(K7:K30)-COUNTBLANK(K7:K30))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
-      <c r="L29" s="5">
-        <f>SUMIF(I7:I27,"&gt;0",L7:L27)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="O29" s="6">
-        <f>IFERROR(IF(COUNTIF(O7:O27,"&gt;0")&gt;0,COUNTIF(O7:O27,"&gt;0")&amp;" of "&amp;(ROWS(Q7:Q27)-COUNTBLANK(Q7:Q27))&amp;" parts purchased",""),"")</f>
+      <c r="L32" s="5">
+        <f>SUMIF(I7:I30,"&gt;0",L7:L30)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" s="6">
+        <f>IFERROR(IF(COUNTIF(O7:O30,"&gt;0")&gt;0,COUNTIF(O7:O30,"&gt;0")&amp;" of "&amp;(ROWS(Q7:Q30)-COUNTBLANK(Q7:Q30))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
-      <c r="R29" s="5">
-        <f>SUMIF(O7:O27,"&gt;0",R7:R27)</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="U29" s="6">
-        <f>IFERROR(IF(COUNTIF(U7:U27,"&gt;0")&gt;0,COUNTIF(U7:U27,"&gt;0")&amp;" of "&amp;(ROWS(W7:W27)-COUNTBLANK(W7:W27))&amp;" parts purchased",""),"")</f>
+      <c r="R32" s="5">
+        <f>SUMIF(O7:O30,"&gt;0",R7:R30)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="U32" s="6">
+        <f>IFERROR(IF(COUNTIF(U7:U30,"&gt;0")&gt;0,COUNTIF(U7:U30,"&gt;0")&amp;" of "&amp;(ROWS(W7:W30)-COUNTBLANK(W7:W30))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
-      <c r="X29" s="5">
-        <f>SUMIF(U7:U27,"&gt;0",X7:X27)</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA29" s="6">
-        <f>IFERROR(IF(COUNTIF(AA7:AA27,"&gt;0")&gt;0,COUNTIF(AA7:AA27,"&gt;0")&amp;" of "&amp;(ROWS(AC7:AC27)-COUNTBLANK(AC7:AC27))&amp;" parts purchased",""),"")</f>
+      <c r="X32" s="5">
+        <f>SUMIF(U7:U30,"&gt;0",X7:X30)</f>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA32" s="6">
+        <f>IFERROR(IF(COUNTIF(AA7:AA30,"&gt;0")&gt;0,COUNTIF(AA7:AA30,"&gt;0")&amp;" of "&amp;(ROWS(AC7:AC30)-COUNTBLANK(AC7:AC30))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
-      <c r="AD29" s="5">
-        <f>SUMIF(AA7:AA27,"&gt;0",AD7:AD27)</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG29" s="6">
-        <f>IFERROR(IF(COUNTIF(AG7:AG27,"&gt;0")&gt;0,COUNTIF(AG7:AG27,"&gt;0")&amp;" of "&amp;(ROWS(AI7:AI27)-COUNTBLANK(AI7:AI27))&amp;" parts purchased",""),"")</f>
+      <c r="AD32" s="5">
+        <f>SUMIF(AA7:AA30,"&gt;0",AD7:AD30)</f>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG32" s="6">
+        <f>IFERROR(IF(COUNTIF(AG7:AG30,"&gt;0")&gt;0,COUNTIF(AG7:AG30,"&gt;0")&amp;" of "&amp;(ROWS(AI7:AI30)-COUNTBLANK(AI7:AI30))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
-      <c r="AJ29" s="5">
-        <f>SUMIF(AG7:AG27,"&gt;0",AJ7:AJ27)</f>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM29" s="6">
-        <f>IFERROR(IF(COUNTIF(AM7:AM27,"&gt;0")&gt;0,COUNTIF(AM7:AM27,"&gt;0")&amp;" of "&amp;(ROWS(AO7:AO27)-COUNTBLANK(AO7:AO27))&amp;" parts purchased",""),"")</f>
+      <c r="AJ32" s="5">
+        <f>SUMIF(AG7:AG30,"&gt;0",AJ7:AJ30)</f>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM32" s="6">
+        <f>IFERROR(IF(COUNTIF(AM7:AM30,"&gt;0")&gt;0,COUNTIF(AM7:AM30,"&gt;0")&amp;" of "&amp;(ROWS(AO7:AO30)-COUNTBLANK(AO7:AO30))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
-      <c r="AP29" s="5">
-        <f>SUMIF(AM7:AM27,"&gt;0",AP7:AP27)</f>
-        <v>0</v>
-      </c>
-      <c r="AR29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS29" s="6">
-        <f>IFERROR(IF(COUNTIF(AS7:AS27,"&gt;0")&gt;0,COUNTIF(AS7:AS27,"&gt;0")&amp;" of "&amp;(ROWS(AU7:AU27)-COUNTBLANK(AU7:AU27))&amp;" parts purchased",""),"")</f>
+      <c r="AP32" s="5">
+        <f>SUMIF(AM7:AM30,"&gt;0",AP7:AP30)</f>
+        <v>0</v>
+      </c>
+      <c r="AR32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS32" s="6">
+        <f>IFERROR(IF(COUNTIF(AS7:AS30,"&gt;0")&gt;0,COUNTIF(AS7:AS30,"&gt;0")&amp;" of "&amp;(ROWS(AU7:AU30)-COUNTBLANK(AU7:AU30))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
-      <c r="AV29" s="5">
-        <f>SUMIF(AS7:AS27,"&gt;0",AV7:AV27)</f>
-        <v>0</v>
-      </c>
-      <c r="AX29" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AY29" s="6">
-        <f>IFERROR(IF(COUNTIF(AY7:AY27,"&gt;0")&gt;0,COUNTIF(AY7:AY27,"&gt;0")&amp;" of "&amp;(ROWS(BA7:BA27)-COUNTBLANK(BA7:BA27))&amp;" parts purchased",""),"")</f>
+      <c r="AV32" s="5">
+        <f>SUMIF(AS7:AS30,"&gt;0",AV7:AV30)</f>
+        <v>0</v>
+      </c>
+      <c r="AX32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY32" s="6">
+        <f>IFERROR(IF(COUNTIF(AY7:AY30,"&gt;0")&gt;0,COUNTIF(AY7:AY30,"&gt;0")&amp;" of "&amp;(ROWS(BA7:BA30)-COUNTBLANK(BA7:BA30))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
-      <c r="BB29" s="5">
-        <f>SUMIF(AY7:AY27,"&gt;0",BB7:BB27)</f>
+      <c r="BB32" s="5">
+        <f>SUMIF(AY7:AY30,"&gt;0",BB7:BB30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:55">
-      <c r="B30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30">
-        <v>1.206589174926906</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="23">
-        <f>CONCATENATE(I52,I53,I54,I55,I56,I57,I58,I59,I60,I61,I62,I63,I64,I65,I66,I67,I68,I69,I70,I71,I72)</f>
+    <row r="33" spans="1:51">
+      <c r="B33" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33">
+        <v>1.214070707666883</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="23">
+        <f>CONCATENATE(I58,I59,I60,I61,I62,I63,I64,I65,I66,I67,I68,I69,I70,I71,I72,I73,I74,I75,I76,I77,I78,I79,I80,I81)</f>
         <v/>
       </c>
-      <c r="O30" s="23">
-        <f>CONCATENATE(O52,O53,O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71,O72)</f>
+      <c r="O33" s="23">
+        <f>CONCATENATE(O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71,O72,O73,O74,O75,O76,O77,O78,O79,O80,O81)</f>
         <v/>
       </c>
-      <c r="U30" s="23">
-        <f>CONCATENATE(U52,U53,U54,U55,U56,U57,U58,U59,U60,U61,U62,U63,U64,U65,U66,U67,U68,U69,U70,U71,U72)</f>
+      <c r="U33" s="23">
+        <f>CONCATENATE(U58,U59,U60,U61,U62,U63,U64,U65,U66,U67,U68,U69,U70,U71,U72,U73,U74,U75,U76,U77,U78,U79,U80,U81)</f>
         <v/>
       </c>
-      <c r="AA30" s="23" t="str">
-        <f>CONCATENATE(AA73,AA52,AA53,AA54,AA55,AA56,AA57,AA58,AA59,AA60,AA61,AA62,AA63,AA64,AA65,AA66,AA67,AA68,AA69,AA70,AA71,AA72)</f>
+      <c r="AA33" s="23" t="str">
+        <f>CONCATENATE(AA82,AA58,AA59,AA60,AA61,AA62,AA63,AA64,AA65,AA66,AA67,AA68,AA69,AA70,AA71,AA72,AA73,AA74,AA75,AA76,AA77,AA78,AA79,AA80,AA81)</f>
         <v>Copy this header and order to a CSV
 file and use it for JLCPCB 
 manufacturer PCB house.
 The multipart components that use
 "#" symbol are not allowed by JLCPCB.</v>
       </c>
-      <c r="AG30" s="23">
-        <f>CONCATENATE(AG52,AG53,AG54,AG55,AG56,AG57,AG58,AG59,AG60,AG61,AG62,AG63,AG64,AG65,AG66,AG67,AG68,AG69,AG70,AG71,AG72)</f>
+      <c r="AG33" s="23">
+        <f>CONCATENATE(AG58,AG59,AG60,AG61,AG62,AG63,AG64,AG65,AG66,AG67,AG68,AG69,AG70,AG71,AG72,AG73,AG74,AG75,AG76,AG77,AG78,AG79,AG80,AG81)</f>
         <v/>
       </c>
-      <c r="AM30" s="23">
-        <f>CONCATENATE(AM52,AM53,AM54,AM55,AM56,AM57,AM58,AM59,AM60,AM61,AM62,AM63,AM64,AM65,AM66,AM67,AM68,AM69,AM70,AM71,AM72)</f>
+      <c r="AM33" s="23">
+        <f>CONCATENATE(AM58,AM59,AM60,AM61,AM62,AM63,AM64,AM65,AM66,AM67,AM68,AM69,AM70,AM71,AM72,AM73,AM74,AM75,AM76,AM77,AM78,AM79,AM80,AM81)</f>
         <v/>
       </c>
-      <c r="AS30" s="23">
-        <f>CONCATENATE(AS52,AS53,AS54,AS55,AS56,AS57,AS58,AS59,AS60,AS61,AS62,AS63,AS64,AS65,AS66,AS67,AS68,AS69,AS70,AS71,AS72)</f>
+      <c r="AS33" s="23">
+        <f>CONCATENATE(AS58,AS59,AS60,AS61,AS62,AS63,AS64,AS65,AS66,AS67,AS68,AS69,AS70,AS71,AS72,AS73,AS74,AS75,AS76,AS77,AS78,AS79,AS80,AS81)</f>
         <v/>
       </c>
-      <c r="AY30" s="23">
-        <f>CONCATENATE(AY52,AY53,AY54,AY55,AY56,AY57,AY58,AY59,AY60,AY61,AY62,AY63,AY64,AY65,AY66,AY67,AY68,AY69,AY70,AY71,AY72)</f>
+      <c r="AY33" s="23">
+        <f>CONCATENATE(AY58,AY59,AY60,AY61,AY62,AY63,AY64,AY65,AY66,AY67,AY68,AY69,AY70,AY71,AY72,AY73,AY74,AY75,AY76,AY77,AY78,AY79,AY80,AY81)</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:55">
-      <c r="A32" s="2" t="s">
-        <v>129</v>
+    <row r="35" spans="1:51">
+      <c r="A35" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="52" spans="9:51" ht="30" hidden="1" customHeight="1">
-      <c r="I52" t="str">
-        <f t="array" ref="I52:I72">IF(ISNUMBER(I7:I27)*(I7:I27&gt;=K7:K27)*(M7:M27&lt;&gt;""),M7:M27&amp;","&amp;TEXT(ROUNDUP(I7:I27/IF(ISNUMBER(K7:K27),K7:K27,1),0)*K7:K27,"##0")&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A27,",",";"),"
+    <row r="58" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="I58" t="str">
+        <f t="array" ref="I58:I81">IF(ISNUMBER(I7:I30)*(I7:I30&gt;=K7:K30)*(M7:M30&lt;&gt;""),M7:M30&amp;","&amp;TEXT(ROUNDUP(I7:I30/IF(ISNUMBER(K7:K30),K7:K30,1),0)*K7:K30,"##0")&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A30,",",";"),"
 "," ")&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="O52" t="str">
-        <f t="array" ref="O52:O72">IF(ISNUMBER(O7:O27)*(O7:O27&gt;=Q7:Q27)*(S7:S27&lt;&gt;""),TEXT(ROUNDUP(O7:O27/IF(ISNUMBER(Q7:Q27),Q7:Q27,1),0)*Q7:Q27,"##0")&amp;","&amp;S7:S27&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A27,",",";"),"
+      <c r="O58" t="str">
+        <f t="array" ref="O58:O81">IF(ISNUMBER(O7:O30)*(O7:O30&gt;=Q7:Q30)*(S7:S30&lt;&gt;""),TEXT(ROUNDUP(O7:O30/IF(ISNUMBER(Q7:Q30),Q7:Q30,1),0)*Q7:Q30,"##0")&amp;","&amp;S7:S30&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A30,",",";"),"
 "," ")&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="U52" t="str">
-        <f t="array" ref="U52:U72">IF(ISNUMBER(U7:U27)*(U7:U27&gt;=W7:W27)*(Y7:Y27&lt;&gt;""),Y7:Y27&amp;","&amp;TEXT(ROUNDUP(U7:U27/IF(ISNUMBER(W7:W27),W7:W27,1),0)*W7:W27,"##0")&amp;","&amp;""&amp;","&amp;LEFT(SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A27,",",";"),"
+      <c r="U58" t="str">
+        <f t="array" ref="U58:U81">IF(ISNUMBER(U7:U30)*(U7:U30&gt;=W7:W30)*(Y7:Y30&lt;&gt;""),Y7:Y30&amp;","&amp;TEXT(ROUNDUP(U7:U30/IF(ISNUMBER(W7:W30),W7:W30,1),0)*W7:W30,"##0")&amp;","&amp;""&amp;","&amp;LEFT(SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A30,",",";"),"
 "," "),30)&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="AA52" t="str">
-        <f t="array" ref="AA52:AA72">IF(ISNUMBER(AA7:AA27)*(AA7:AA27&gt;=AC7:AC27)*(AE7:AE27&lt;&gt;""),TEXT(ROUNDUP(AA7:AA27/IF(ISNUMBER(AC7:AC27),AC7:AC27,1),0)*AC7:AC27,"##0")&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A27,",",";"),"
-"," ")&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;C7:C27,",",";"),"
-"," ")&amp;","&amp;AE7:AE27&amp;CHAR(10),"")</f>
+      <c r="AA58" t="str">
+        <f t="array" ref="AA58:AA81">IF(ISNUMBER(AA7:AA30)*(AA7:AA30&gt;=AC7:AC30)*(AE7:AE30&lt;&gt;""),TEXT(ROUNDUP(AA7:AA30/IF(ISNUMBER(AC7:AC30),AC7:AC30,1),0)*AC7:AC30,"##0")&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A30,",",";"),"
+"," ")&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;C7:C30,",",";"),"
+"," ")&amp;","&amp;AE7:AE30&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="AG52" t="str">
-        <f t="array" ref="AG52:AG72">IF(ISNUMBER(AG7:AG27)*(AG7:AG27&gt;=AI7:AI27)*(AK7:AK27&lt;&gt;""),AK7:AK27&amp;"|"&amp;TEXT(ROUNDUP(AG7:AG27/IF(ISNUMBER(AI7:AI27),AI7:AI27,1),0)*AI7:AI27,"##0")&amp;"|"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A27,"|",";")," ","_"),"
+      <c r="AG58" t="str">
+        <f t="array" ref="AG58:AG81">IF(ISNUMBER(AG7:AG30)*(AG7:AG30&gt;=AI7:AI30)*(AK7:AK30&lt;&gt;""),AK7:AK30&amp;"|"&amp;TEXT(ROUNDUP(AG7:AG30/IF(ISNUMBER(AI7:AI30),AI7:AI30,1),0)*AI7:AI30,"##0")&amp;"|"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A30,"|",";")," ","_"),"
 ","_")&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="AM52" t="str">
-        <f t="array" ref="AM52:AM72">IF(ISNUMBER(AM7:AM27)*(AM7:AM27&gt;=AO7:AO27)*(AQ7:AQ27&lt;&gt;""),AQ7:AQ27&amp;","&amp;TEXT(ROUNDUP(AM7:AM27/IF(ISNUMBER(AO7:AO27),AO7:AO27,1),0)*AO7:AO27,"##0")&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A27,",",";"),"
+      <c r="AM58" t="str">
+        <f t="array" ref="AM58:AM81">IF(ISNUMBER(AM7:AM30)*(AM7:AM30&gt;=AO7:AO30)*(AQ7:AQ30&lt;&gt;""),AQ7:AQ30&amp;","&amp;TEXT(ROUNDUP(AM7:AM30/IF(ISNUMBER(AO7:AO30),AO7:AO30,1),0)*AO7:AO30,"##0")&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A30,",",";"),"
 "," ")&amp;","&amp;""&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="AS52" t="str">
-        <f t="array" ref="AS52:AS72">IF(ISNUMBER(AS7:AS27)*(AS7:AS27&gt;=AU7:AU27)*(AW7:AW27&lt;&gt;""),AW7:AW27&amp;","&amp;TEXT(ROUNDUP(AS7:AS27/IF(ISNUMBER(AU7:AU27),AU7:AU27,1),0)*AU7:AU27,"##0")&amp;","&amp;""&amp;","&amp;""&amp;","&amp;""&amp;","&amp;D7:D27&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A27,",",";"),"
+      <c r="AS58" t="str">
+        <f t="array" ref="AS58:AS81">IF(ISNUMBER(AS7:AS30)*(AS7:AS30&gt;=AU7:AU30)*(AW7:AW30&lt;&gt;""),AW7:AW30&amp;","&amp;TEXT(ROUNDUP(AS7:AS30/IF(ISNUMBER(AU7:AU30),AU7:AU30,1),0)*AU7:AU30,"##0")&amp;","&amp;""&amp;","&amp;""&amp;","&amp;""&amp;","&amp;D7:D30&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A30,",",";"),"
 "," ")&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="AY52" t="str">
-        <f t="array" ref="AY52:AY72">IF(ISNUMBER(AY7:AY27)*(AY7:AY27&gt;=BA7:BA27)*(BC7:BC27&lt;&gt;""),BC7:BC27&amp;" "&amp;TEXT(ROUNDUP(AY7:AY27/IF(ISNUMBER(BA7:BA27),BA7:BA27,1),0)*BA7:BA27,"##0")&amp;" "&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A27," ",";"),"
+      <c r="AY58" t="str">
+        <f t="array" ref="AY58:AY81">IF(ISNUMBER(AY7:AY30)*(AY7:AY30&gt;=BA7:BA30)*(BC7:BC30&lt;&gt;""),BC7:BC30&amp;" "&amp;TEXT(ROUNDUP(AY7:AY30/IF(ISNUMBER(BA7:BA30),BA7:BA30,1),0)*BA7:BA30,"##0")&amp;" "&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A30," ",";"),"
 ",";")&amp;CHAR(10),"")</f>
         <v/>
-      </c>
-    </row>
-    <row r="53" spans="9:51" ht="30" hidden="1" customHeight="1">
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="9:51" ht="30" hidden="1" customHeight="1">
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="9:51" ht="30" hidden="1" customHeight="1">
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="9:51" ht="30" hidden="1" customHeight="1">
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AM56">
-        <v>0</v>
-      </c>
-      <c r="AS56">
-        <v>0</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="9:51" ht="30" hidden="1" customHeight="1">
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AM57">
-        <v>0</v>
-      </c>
-      <c r="AS57">
-        <v>0</v>
-      </c>
-      <c r="AY57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="9:51" ht="30" hidden="1" customHeight="1">
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AM58">
-        <v>0</v>
-      </c>
-      <c r="AS58">
-        <v>0</v>
-      </c>
-      <c r="AY58">
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="9:51" ht="30" hidden="1" customHeight="1">
@@ -5273,8 +5584,242 @@
       </c>
     </row>
     <row r="73" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
       <c r="AA73">
-        <f>IFERROR(IF(COUNTIFS(AA7:AA27,"&gt;0",AD7:AD27,"&lt;&gt;")&gt;0,"Quantity,Comment,Designator,Footprint,LCSC Part #(optional)"&amp;CHAR(10),""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AS77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AS78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AS79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AS80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:51" ht="30" hidden="1" customHeight="1">
+      <c r="AA82">
+        <f>IFERROR(IF(COUNTIFS(AA7:AA30,"&gt;0",AD7:AD30,"&lt;&gt;")&gt;0,"Quantity,Comment,Designator,Footprint,LCSC Part #(optional)"&amp;CHAR(10),""),"")</f>
         <v/>
       </c>
     </row>
@@ -5282,789 +5827,1002 @@
   <mergeCells count="17">
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:M5"/>
-    <mergeCell ref="I30:L51"/>
+    <mergeCell ref="I33:L57"/>
     <mergeCell ref="N5:S5"/>
-    <mergeCell ref="O30:R51"/>
+    <mergeCell ref="O33:R57"/>
     <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="U30:X51"/>
+    <mergeCell ref="U33:X57"/>
     <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="AA30:AD51"/>
+    <mergeCell ref="AA33:AD57"/>
     <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AG30:AJ51"/>
+    <mergeCell ref="AG33:AJ57"/>
     <mergeCell ref="AL5:AQ5"/>
-    <mergeCell ref="AM30:AP51"/>
+    <mergeCell ref="AM33:AP57"/>
     <mergeCell ref="AR5:AW5"/>
-    <mergeCell ref="AS30:AV51"/>
+    <mergeCell ref="AS33:AV57"/>
     <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="AY30:BB51"/>
+    <mergeCell ref="AY33:BB57"/>
   </mergeCells>
-  <conditionalFormatting sqref="AA9">
-    <cfRule type="expression" dxfId="2" priority="91">
-      <formula>AND(NOT(ISBLANK(AA9)),OR(Z9="NonStk",AA9&gt;Z9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB9">
-    <cfRule type="cellIs" dxfId="3" priority="93" operator="lessThanOrEqual">
-      <formula>F9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD9">
-    <cfRule type="cellIs" dxfId="3" priority="92" operator="lessThanOrEqual">
-      <formula>G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="0" priority="102" operator="lessThan">
-      <formula>E21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="0" priority="106" operator="lessThan">
-      <formula>E22</formula>
+  <conditionalFormatting sqref="AA10">
+    <cfRule type="expression" dxfId="1" priority="98">
+      <formula>AND(NOT(ISBLANK(AA10)),OR(Z10="NonStk",AA10&gt;Z10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB10">
+    <cfRule type="cellIs" dxfId="2" priority="100" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD10">
+    <cfRule type="cellIs" dxfId="2" priority="99" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="lessThan">
+      <formula>E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF18">
+    <cfRule type="cellIs" dxfId="0" priority="113" operator="lessThan">
+      <formula>E18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="0" priority="110" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="117" operator="lessThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="0" priority="114" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="121" operator="lessThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="cellIs" dxfId="0" priority="118" operator="lessThan">
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="0" priority="125" operator="lessThan">
+      <formula>E26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF28">
+    <cfRule type="cellIs" dxfId="0" priority="129" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30">
+    <cfRule type="cellIs" dxfId="0" priority="133" operator="lessThan">
+      <formula>E30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="lessThan">
+      <formula>E7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="lessThan">
+      <formula>E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="expression" dxfId="1" priority="110">
+      <formula>AND(NOT(ISBLANK(AG10)),OR(AF10="NonStk",AG10&gt;AF10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG18">
+    <cfRule type="expression" dxfId="1" priority="114">
+      <formula>AND(NOT(ISBLANK(AG18)),OR(AF18="NonStk",AG18&gt;AF18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="expression" dxfId="1" priority="118">
+      <formula>AND(NOT(ISBLANK(AG24)),OR(AF24="NonStk",AG24&gt;AF24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="expression" dxfId="1" priority="122">
+      <formula>AND(NOT(ISBLANK(AG25)),OR(AF25="NonStk",AG25&gt;AF25))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG26">
+    <cfRule type="expression" dxfId="1" priority="126">
+      <formula>AND(NOT(ISBLANK(AG26)),OR(AF26="NonStk",AG26&gt;AF26))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="expression" dxfId="1" priority="130">
+      <formula>AND(NOT(ISBLANK(AG28)),OR(AF28="NonStk",AG28&gt;AF28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="expression" dxfId="1" priority="134">
+      <formula>AND(NOT(ISBLANK(AG30)),OR(AF30="NonStk",AG30&gt;AF30))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="expression" dxfId="1" priority="102">
+      <formula>AND(NOT(ISBLANK(AG7)),OR(AF7="NonStk",AG7&gt;AF7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="expression" dxfId="1" priority="106">
+      <formula>AND(NOT(ISBLANK(AG8)),OR(AF8="NonStk",AG8&gt;AF8))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10">
+    <cfRule type="cellIs" dxfId="2" priority="112" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH18">
+    <cfRule type="cellIs" dxfId="2" priority="116" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="2" priority="120" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="cellIs" dxfId="2" priority="124" operator="lessThanOrEqual">
+      <formula>F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH26">
+    <cfRule type="cellIs" dxfId="2" priority="128" operator="lessThanOrEqual">
+      <formula>F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="2" priority="132" operator="lessThanOrEqual">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH30">
+    <cfRule type="cellIs" dxfId="2" priority="136" operator="lessThanOrEqual">
+      <formula>F30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="2" priority="104" operator="lessThanOrEqual">
+      <formula>F7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="2" priority="108" operator="lessThanOrEqual">
+      <formula>F8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="2" priority="111" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ18">
+    <cfRule type="cellIs" dxfId="2" priority="115" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ24">
+    <cfRule type="cellIs" dxfId="2" priority="119" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="cellIs" dxfId="2" priority="123" operator="lessThanOrEqual">
+      <formula>G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ26">
+    <cfRule type="cellIs" dxfId="2" priority="127" operator="lessThanOrEqual">
+      <formula>G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ28">
+    <cfRule type="cellIs" dxfId="2" priority="131" operator="lessThanOrEqual">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ30">
+    <cfRule type="cellIs" dxfId="2" priority="135" operator="lessThanOrEqual">
+      <formula>G30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ7">
+    <cfRule type="cellIs" dxfId="2" priority="103" operator="lessThanOrEqual">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
+    <cfRule type="cellIs" dxfId="2" priority="107" operator="lessThanOrEqual">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="0" priority="146" operator="lessThan">
+      <formula>E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL18">
+    <cfRule type="cellIs" dxfId="0" priority="150" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24">
+    <cfRule type="cellIs" dxfId="0" priority="154" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL25">
+    <cfRule type="cellIs" dxfId="0" priority="158" operator="lessThan">
+      <formula>E25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL26">
+    <cfRule type="cellIs" dxfId="0" priority="166" operator="lessThan">
+      <formula>E26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL30">
+    <cfRule type="cellIs" dxfId="0" priority="174" operator="lessThan">
+      <formula>E30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL7">
+    <cfRule type="cellIs" dxfId="0" priority="137" operator="lessThan">
+      <formula>E7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL8">
+    <cfRule type="cellIs" dxfId="0" priority="141" operator="lessThan">
+      <formula>E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="expression" dxfId="1" priority="147">
+      <formula>AND(NOT(ISBLANK(AM10)),OR(AL10="NonStk",AM10&gt;AL10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM18">
+    <cfRule type="expression" dxfId="1" priority="151">
+      <formula>AND(NOT(ISBLANK(AM18)),OR(AL18="NonStk",AM18&gt;AL18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM24">
+    <cfRule type="expression" dxfId="1" priority="155">
+      <formula>AND(NOT(ISBLANK(AM24)),OR(AL24="NonStk",AM24&gt;AL24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM25">
+    <cfRule type="expression" dxfId="3" priority="159">
+      <formula>AND(AM25&gt;0,MOD(AM25,AO25)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="160">
+      <formula>AND(NOT(ISBLANK(AM25)),OR(AL25="NonStk",AM25&gt;AL25))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM26">
+    <cfRule type="expression" dxfId="3" priority="167">
+      <formula>AND(AM26&gt;0,MOD(AM26,AO26)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="168">
+      <formula>AND(NOT(ISBLANK(AM26)),OR(AL26="NonStk",AM26&gt;AL26))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM30">
+    <cfRule type="expression" dxfId="1" priority="175">
+      <formula>AND(NOT(ISBLANK(AM30)),OR(AL30="NonStk",AM30&gt;AL30))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM7">
+    <cfRule type="expression" dxfId="1" priority="138">
+      <formula>AND(NOT(ISBLANK(AM7)),OR(AL7="NonStk",AM7&gt;AL7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8">
+    <cfRule type="expression" dxfId="3" priority="142">
+      <formula>AND(AM8&gt;0,MOD(AM8,AO8)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="143">
+      <formula>AND(NOT(ISBLANK(AM8)),OR(AL8="NonStk",AM8&gt;AL8))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN10">
+    <cfRule type="cellIs" dxfId="2" priority="149" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN18">
+    <cfRule type="cellIs" dxfId="2" priority="153" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN24">
+    <cfRule type="cellIs" dxfId="2" priority="157" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN25">
+    <cfRule type="cellIs" dxfId="2" priority="162" operator="lessThanOrEqual">
+      <formula>F25</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="163">
+      <formula>AND(E25&lt;5000,AM25&lt;5000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN26">
+    <cfRule type="cellIs" dxfId="2" priority="170" operator="lessThanOrEqual">
+      <formula>F26</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="171">
+      <formula>AND(E26&lt;10000,AM26&lt;10000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN30">
+    <cfRule type="cellIs" dxfId="2" priority="177" operator="lessThanOrEqual">
+      <formula>F30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN7">
+    <cfRule type="cellIs" dxfId="2" priority="140" operator="lessThanOrEqual">
+      <formula>F7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN8">
+    <cfRule type="cellIs" dxfId="2" priority="145" operator="lessThanOrEqual">
+      <formula>F8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25">
+    <cfRule type="expression" dxfId="3" priority="164">
+      <formula>AND(E25&lt;5000,AM25&lt;5000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO26">
+    <cfRule type="expression" dxfId="3" priority="172">
+      <formula>AND(E26&lt;10000,AM26&lt;10000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP10">
+    <cfRule type="cellIs" dxfId="2" priority="148" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP18">
+    <cfRule type="cellIs" dxfId="2" priority="152" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP24">
+    <cfRule type="cellIs" dxfId="2" priority="156" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25">
+    <cfRule type="cellIs" dxfId="2" priority="161" operator="lessThanOrEqual">
+      <formula>G25</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="165">
+      <formula>AND(E25&lt;5000,AM25&lt;5000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP26">
+    <cfRule type="cellIs" dxfId="2" priority="169" operator="lessThanOrEqual">
+      <formula>G26</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="173">
+      <formula>AND(E26&lt;10000,AM26&lt;10000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP30">
+    <cfRule type="cellIs" dxfId="2" priority="176" operator="lessThanOrEqual">
+      <formula>G30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP7">
+    <cfRule type="cellIs" dxfId="2" priority="139" operator="lessThanOrEqual">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP8">
+    <cfRule type="cellIs" dxfId="2" priority="144" operator="lessThanOrEqual">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR10">
+    <cfRule type="cellIs" dxfId="0" priority="183" operator="lessThan">
+      <formula>E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR18">
+    <cfRule type="cellIs" dxfId="0" priority="188" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR7">
+    <cfRule type="cellIs" dxfId="0" priority="178" operator="lessThan">
+      <formula>E7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS10">
+    <cfRule type="expression" dxfId="3" priority="184">
+      <formula>AND(AS10&gt;0,MOD(AS10,AU10)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="185">
+      <formula>AND(NOT(ISBLANK(AS10)),OR(AR10="NonStk",AS10&gt;AR10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS18">
+    <cfRule type="expression" dxfId="3" priority="189">
+      <formula>AND(AS18&gt;0,MOD(AS18,AU18)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="190">
+      <formula>AND(NOT(ISBLANK(AS18)),OR(AR18="NonStk",AS18&gt;AR18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS7">
+    <cfRule type="expression" dxfId="3" priority="179">
+      <formula>AND(AS7&gt;0,MOD(AS7,AU7)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="180">
+      <formula>AND(NOT(ISBLANK(AS7)),OR(AR7="NonStk",AS7&gt;AR7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT10">
+    <cfRule type="cellIs" dxfId="2" priority="187" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT18">
+    <cfRule type="cellIs" dxfId="2" priority="192" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT7">
+    <cfRule type="cellIs" dxfId="2" priority="182" operator="lessThanOrEqual">
+      <formula>F7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV10">
+    <cfRule type="cellIs" dxfId="2" priority="186" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV18">
+    <cfRule type="cellIs" dxfId="2" priority="191" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV7">
+    <cfRule type="cellIs" dxfId="2" priority="181" operator="lessThanOrEqual">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX10">
+    <cfRule type="cellIs" dxfId="0" priority="201" operator="lessThan">
+      <formula>E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX27">
+    <cfRule type="cellIs" dxfId="0" priority="206" operator="lessThan">
       <formula>E27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF7">
-    <cfRule type="cellIs" dxfId="0" priority="94" operator="lessThan">
+  <conditionalFormatting sqref="AX7">
+    <cfRule type="cellIs" dxfId="0" priority="193" operator="lessThan">
       <formula>E7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF9">
-    <cfRule type="cellIs" dxfId="0" priority="98" operator="lessThan">
-      <formula>E9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="expression" dxfId="2" priority="103">
-      <formula>AND(NOT(ISBLANK(AG21)),OR(AF21="NonStk",AG21&gt;AF21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22">
-    <cfRule type="expression" dxfId="2" priority="107">
-      <formula>AND(NOT(ISBLANK(AG22)),OR(AF22="NonStk",AG22&gt;AF22))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="expression" dxfId="2" priority="111">
-      <formula>AND(NOT(ISBLANK(AG24)),OR(AF24="NonStk",AG24&gt;AF24))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
-    <cfRule type="expression" dxfId="2" priority="115">
-      <formula>AND(NOT(ISBLANK(AG25)),OR(AF25="NonStk",AG25&gt;AF25))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="expression" dxfId="2" priority="119">
-      <formula>AND(NOT(ISBLANK(AG27)),OR(AF27="NonStk",AG27&gt;AF27))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="expression" dxfId="2" priority="95">
-      <formula>AND(NOT(ISBLANK(AG7)),OR(AF7="NonStk",AG7&gt;AF7))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9">
-    <cfRule type="expression" dxfId="2" priority="99">
-      <formula>AND(NOT(ISBLANK(AG9)),OR(AF9="NonStk",AG9&gt;AF9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21">
-    <cfRule type="cellIs" dxfId="3" priority="105" operator="lessThanOrEqual">
-      <formula>F21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="cellIs" dxfId="3" priority="109" operator="lessThanOrEqual">
-      <formula>F22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24">
-    <cfRule type="cellIs" dxfId="3" priority="113" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AY10">
+    <cfRule type="expression" dxfId="3" priority="202">
+      <formula>AND(AY10&gt;0,MOD(AY10,BA10)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="203">
+      <formula>AND(NOT(ISBLANK(AY10)),OR(AX10="NonStk",AY10&gt;AX10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY27">
+    <cfRule type="expression" dxfId="1" priority="207">
+      <formula>AND(NOT(ISBLANK(AY27)),OR(AX27="NonStk",AY27&gt;AX27))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY7">
+    <cfRule type="expression" dxfId="3" priority="194">
+      <formula>AND(AY7&gt;0,MOD(AY7,BA7)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="195">
+      <formula>AND(NOT(ISBLANK(AY7)),OR(AX7="NonStk",AY7&gt;AX7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ10">
+    <cfRule type="cellIs" dxfId="2" priority="205" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ27">
+    <cfRule type="cellIs" dxfId="2" priority="209" operator="lessThanOrEqual">
+      <formula>F27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ7">
+    <cfRule type="cellIs" dxfId="2" priority="197" operator="lessThanOrEqual">
+      <formula>F7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="198">
+      <formula>AND(E7&lt;1000,AY7&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA7">
+    <cfRule type="expression" dxfId="3" priority="199">
+      <formula>AND(E7&lt;1000,AY7&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB10">
+    <cfRule type="cellIs" dxfId="2" priority="204" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB27">
+    <cfRule type="cellIs" dxfId="2" priority="208" operator="lessThanOrEqual">
+      <formula>G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB7">
+    <cfRule type="cellIs" dxfId="2" priority="196" operator="lessThanOrEqual">
+      <formula>G7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="200">
+      <formula>AND(E7&lt;1000,AY7&lt;1000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="4" priority="222">
+      <formula>AND(ISBLANK(D10),ISBLANK(L10),ISBLANK(R10),ISBLANK(X10),ISBLANK(AD10),ISBLANK(AJ10),ISBLANK(AP10),ISBLANK(AV10),ISBLANK(BB10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="223">
+      <formula>IF(SUM(H10,N10,T10,Z10,AF10,AL10,AR10,AX10)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="224" operator="greaterThan">
+      <formula>SUM(H10,N10,T10,Z10,AF10,AL10,AR10,AX10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="225" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J10),I10,0),IF(ISNUMBER(P10),O10,0),IF(ISNUMBER(V10),U10,0),IF(ISNUMBER(AB10),AA10,0),IF(ISNUMBER(AH10),AG10,0),IF(ISNUMBER(AN10),AM10,0),IF(ISNUMBER(AT10),AS10,0),IF(ISNUMBER(AZ10),AY10,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="4" priority="226">
+      <formula>AND(ISBLANK(D11),ISBLANK(L11),ISBLANK(R11),ISBLANK(X11),ISBLANK(AD11),ISBLANK(AJ11),ISBLANK(AP11),ISBLANK(AV11),ISBLANK(BB11))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="227">
+      <formula>IF(SUM(H11,N11,T11,Z11,AF11,AL11,AR11,AX11)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="228" operator="greaterThan">
+      <formula>SUM(H11,N11,T11,Z11,AF11,AL11,AR11,AX11)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="229" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J11),I11,0),IF(ISNUMBER(P11),O11,0),IF(ISNUMBER(V11),U11,0),IF(ISNUMBER(AB11),AA11,0),IF(ISNUMBER(AH11),AG11,0),IF(ISNUMBER(AN11),AM11,0),IF(ISNUMBER(AT11),AS11,0),IF(ISNUMBER(AZ11),AY11,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="4" priority="230">
+      <formula>AND(ISBLANK(D12),ISBLANK(L12),ISBLANK(R12),ISBLANK(X12),ISBLANK(AD12),ISBLANK(AJ12),ISBLANK(AP12),ISBLANK(AV12),ISBLANK(BB12))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="231">
+      <formula>IF(SUM(H12,N12,T12,Z12,AF12,AL12,AR12,AX12)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="232" operator="greaterThan">
+      <formula>SUM(H12,N12,T12,Z12,AF12,AL12,AR12,AX12)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="233" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J12),I12,0),IF(ISNUMBER(P12),O12,0),IF(ISNUMBER(V12),U12,0),IF(ISNUMBER(AB12),AA12,0),IF(ISNUMBER(AH12),AG12,0),IF(ISNUMBER(AN12),AM12,0),IF(ISNUMBER(AT12),AS12,0),IF(ISNUMBER(AZ12),AY12,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="4" priority="234">
+      <formula>AND(ISBLANK(D13),ISBLANK(L13),ISBLANK(R13),ISBLANK(X13),ISBLANK(AD13),ISBLANK(AJ13),ISBLANK(AP13),ISBLANK(AV13),ISBLANK(BB13))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="235">
+      <formula>IF(SUM(H13,N13,T13,Z13,AF13,AL13,AR13,AX13)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="236" operator="greaterThan">
+      <formula>SUM(H13,N13,T13,Z13,AF13,AL13,AR13,AX13)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="237" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J13),I13,0),IF(ISNUMBER(P13),O13,0),IF(ISNUMBER(V13),U13,0),IF(ISNUMBER(AB13),AA13,0),IF(ISNUMBER(AH13),AG13,0),IF(ISNUMBER(AN13),AM13,0),IF(ISNUMBER(AT13),AS13,0),IF(ISNUMBER(AZ13),AY13,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="4" priority="238">
+      <formula>AND(ISBLANK(D14),ISBLANK(L14),ISBLANK(R14),ISBLANK(X14),ISBLANK(AD14),ISBLANK(AJ14),ISBLANK(AP14),ISBLANK(AV14),ISBLANK(BB14))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="239">
+      <formula>IF(SUM(H14,N14,T14,Z14,AF14,AL14,AR14,AX14)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="240" operator="greaterThan">
+      <formula>SUM(H14,N14,T14,Z14,AF14,AL14,AR14,AX14)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="241" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J14),I14,0),IF(ISNUMBER(P14),O14,0),IF(ISNUMBER(V14),U14,0),IF(ISNUMBER(AB14),AA14,0),IF(ISNUMBER(AH14),AG14,0),IF(ISNUMBER(AN14),AM14,0),IF(ISNUMBER(AT14),AS14,0),IF(ISNUMBER(AZ14),AY14,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="4" priority="242">
+      <formula>AND(ISBLANK(D15),ISBLANK(L15),ISBLANK(R15),ISBLANK(X15),ISBLANK(AD15),ISBLANK(AJ15),ISBLANK(AP15),ISBLANK(AV15),ISBLANK(BB15))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="243">
+      <formula>IF(SUM(H15,N15,T15,Z15,AF15,AL15,AR15,AX15)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="244" operator="greaterThan">
+      <formula>SUM(H15,N15,T15,Z15,AF15,AL15,AR15,AX15)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="245" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J15),I15,0),IF(ISNUMBER(P15),O15,0),IF(ISNUMBER(V15),U15,0),IF(ISNUMBER(AB15),AA15,0),IF(ISNUMBER(AH15),AG15,0),IF(ISNUMBER(AN15),AM15,0),IF(ISNUMBER(AT15),AS15,0),IF(ISNUMBER(AZ15),AY15,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="4" priority="246">
+      <formula>AND(ISBLANK(D16),ISBLANK(L16),ISBLANK(R16),ISBLANK(X16),ISBLANK(AD16),ISBLANK(AJ16),ISBLANK(AP16),ISBLANK(AV16),ISBLANK(BB16))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="247">
+      <formula>IF(SUM(H16,N16,T16,Z16,AF16,AL16,AR16,AX16)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="248" operator="greaterThan">
+      <formula>SUM(H16,N16,T16,Z16,AF16,AL16,AR16,AX16)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="249" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J16),I16,0),IF(ISNUMBER(P16),O16,0),IF(ISNUMBER(V16),U16,0),IF(ISNUMBER(AB16),AA16,0),IF(ISNUMBER(AH16),AG16,0),IF(ISNUMBER(AN16),AM16,0),IF(ISNUMBER(AT16),AS16,0),IF(ISNUMBER(AZ16),AY16,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="4" priority="250">
+      <formula>AND(ISBLANK(D17),ISBLANK(L17),ISBLANK(R17),ISBLANK(X17),ISBLANK(AD17),ISBLANK(AJ17),ISBLANK(AP17),ISBLANK(AV17),ISBLANK(BB17))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="251">
+      <formula>IF(SUM(H17,N17,T17,Z17,AF17,AL17,AR17,AX17)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="252" operator="greaterThan">
+      <formula>SUM(H17,N17,T17,Z17,AF17,AL17,AR17,AX17)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="253" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J17),I17,0),IF(ISNUMBER(P17),O17,0),IF(ISNUMBER(V17),U17,0),IF(ISNUMBER(AB17),AA17,0),IF(ISNUMBER(AH17),AG17,0),IF(ISNUMBER(AN17),AM17,0),IF(ISNUMBER(AT17),AS17,0),IF(ISNUMBER(AZ17),AY17,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="4" priority="254">
+      <formula>AND(ISBLANK(D18),ISBLANK(L18),ISBLANK(R18),ISBLANK(X18),ISBLANK(AD18),ISBLANK(AJ18),ISBLANK(AP18),ISBLANK(AV18),ISBLANK(BB18))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="255">
+      <formula>IF(SUM(H18,N18,T18,Z18,AF18,AL18,AR18,AX18)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="256" operator="greaterThan">
+      <formula>SUM(H18,N18,T18,Z18,AF18,AL18,AR18,AX18)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="257" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J18),I18,0),IF(ISNUMBER(P18),O18,0),IF(ISNUMBER(V18),U18,0),IF(ISNUMBER(AB18),AA18,0),IF(ISNUMBER(AH18),AG18,0),IF(ISNUMBER(AN18),AM18,0),IF(ISNUMBER(AT18),AS18,0),IF(ISNUMBER(AZ18),AY18,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="expression" dxfId="4" priority="258">
+      <formula>AND(ISBLANK(D19),ISBLANK(L19),ISBLANK(R19),ISBLANK(X19),ISBLANK(AD19),ISBLANK(AJ19),ISBLANK(AP19),ISBLANK(AV19),ISBLANK(BB19))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="259">
+      <formula>IF(SUM(H19,N19,T19,Z19,AF19,AL19,AR19,AX19)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="260" operator="greaterThan">
+      <formula>SUM(H19,N19,T19,Z19,AF19,AL19,AR19,AX19)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="261" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J19),I19,0),IF(ISNUMBER(P19),O19,0),IF(ISNUMBER(V19),U19,0),IF(ISNUMBER(AB19),AA19,0),IF(ISNUMBER(AH19),AG19,0),IF(ISNUMBER(AN19),AM19,0),IF(ISNUMBER(AT19),AS19,0),IF(ISNUMBER(AZ19),AY19,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="4" priority="262">
+      <formula>AND(ISBLANK(D20),ISBLANK(L20),ISBLANK(R20),ISBLANK(X20),ISBLANK(AD20),ISBLANK(AJ20),ISBLANK(AP20),ISBLANK(AV20),ISBLANK(BB20))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="263">
+      <formula>IF(SUM(H20,N20,T20,Z20,AF20,AL20,AR20,AX20)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="264" operator="greaterThan">
+      <formula>SUM(H20,N20,T20,Z20,AF20,AL20,AR20,AX20)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="265" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J20),I20,0),IF(ISNUMBER(P20),O20,0),IF(ISNUMBER(V20),U20,0),IF(ISNUMBER(AB20),AA20,0),IF(ISNUMBER(AH20),AG20,0),IF(ISNUMBER(AN20),AM20,0),IF(ISNUMBER(AT20),AS20,0),IF(ISNUMBER(AZ20),AY20,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="4" priority="266">
+      <formula>AND(ISBLANK(D21),ISBLANK(L21),ISBLANK(R21),ISBLANK(X21),ISBLANK(AD21),ISBLANK(AJ21),ISBLANK(AP21),ISBLANK(AV21),ISBLANK(BB21))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="267">
+      <formula>IF(SUM(H21,N21,T21,Z21,AF21,AL21,AR21,AX21)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="268" operator="greaterThan">
+      <formula>SUM(H21,N21,T21,Z21,AF21,AL21,AR21,AX21)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="269" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J21),I21,0),IF(ISNUMBER(P21),O21,0),IF(ISNUMBER(V21),U21,0),IF(ISNUMBER(AB21),AA21,0),IF(ISNUMBER(AH21),AG21,0),IF(ISNUMBER(AN21),AM21,0),IF(ISNUMBER(AT21),AS21,0),IF(ISNUMBER(AZ21),AY21,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="4" priority="270">
+      <formula>AND(ISBLANK(D22),ISBLANK(L22),ISBLANK(R22),ISBLANK(X22),ISBLANK(AD22),ISBLANK(AJ22),ISBLANK(AP22),ISBLANK(AV22),ISBLANK(BB22))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="271">
+      <formula>IF(SUM(H22,N22,T22,Z22,AF22,AL22,AR22,AX22)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="272" operator="greaterThan">
+      <formula>SUM(H22,N22,T22,Z22,AF22,AL22,AR22,AX22)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="273" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J22),I22,0),IF(ISNUMBER(P22),O22,0),IF(ISNUMBER(V22),U22,0),IF(ISNUMBER(AB22),AA22,0),IF(ISNUMBER(AH22),AG22,0),IF(ISNUMBER(AN22),AM22,0),IF(ISNUMBER(AT22),AS22,0),IF(ISNUMBER(AZ22),AY22,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="4" priority="274">
+      <formula>AND(ISBLANK(D23),ISBLANK(L23),ISBLANK(R23),ISBLANK(X23),ISBLANK(AD23),ISBLANK(AJ23),ISBLANK(AP23),ISBLANK(AV23),ISBLANK(BB23))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="275">
+      <formula>IF(SUM(H23,N23,T23,Z23,AF23,AL23,AR23,AX23)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="276" operator="greaterThan">
+      <formula>SUM(H23,N23,T23,Z23,AF23,AL23,AR23,AX23)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="277" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J23),I23,0),IF(ISNUMBER(P23),O23,0),IF(ISNUMBER(V23),U23,0),IF(ISNUMBER(AB23),AA23,0),IF(ISNUMBER(AH23),AG23,0),IF(ISNUMBER(AN23),AM23,0),IF(ISNUMBER(AT23),AS23,0),IF(ISNUMBER(AZ23),AY23,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="4" priority="278">
+      <formula>AND(ISBLANK(D24),ISBLANK(L24),ISBLANK(R24),ISBLANK(X24),ISBLANK(AD24),ISBLANK(AJ24),ISBLANK(AP24),ISBLANK(AV24),ISBLANK(BB24))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="279">
+      <formula>IF(SUM(H24,N24,T24,Z24,AF24,AL24,AR24,AX24)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="280" operator="greaterThan">
+      <formula>SUM(H24,N24,T24,Z24,AF24,AL24,AR24,AX24)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="281" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J24),I24,0),IF(ISNUMBER(P24),O24,0),IF(ISNUMBER(V24),U24,0),IF(ISNUMBER(AB24),AA24,0),IF(ISNUMBER(AH24),AG24,0),IF(ISNUMBER(AN24),AM24,0),IF(ISNUMBER(AT24),AS24,0),IF(ISNUMBER(AZ24),AY24,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="4" priority="282">
+      <formula>AND(ISBLANK(D25),ISBLANK(L25),ISBLANK(R25),ISBLANK(X25),ISBLANK(AD25),ISBLANK(AJ25),ISBLANK(AP25),ISBLANK(AV25),ISBLANK(BB25))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="283">
+      <formula>IF(SUM(H25,N25,T25,Z25,AF25,AL25,AR25,AX25)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="284" operator="greaterThan">
+      <formula>SUM(H25,N25,T25,Z25,AF25,AL25,AR25,AX25)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="285" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J25),I25,0),IF(ISNUMBER(P25),O25,0),IF(ISNUMBER(V25),U25,0),IF(ISNUMBER(AB25),AA25,0),IF(ISNUMBER(AH25),AG25,0),IF(ISNUMBER(AN25),AM25,0),IF(ISNUMBER(AT25),AS25,0),IF(ISNUMBER(AZ25),AY25,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="4" priority="286">
+      <formula>AND(ISBLANK(D26),ISBLANK(L26),ISBLANK(R26),ISBLANK(X26),ISBLANK(AD26),ISBLANK(AJ26),ISBLANK(AP26),ISBLANK(AV26),ISBLANK(BB26))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="287">
+      <formula>IF(SUM(H26,N26,T26,Z26,AF26,AL26,AR26,AX26)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="288" operator="greaterThan">
+      <formula>SUM(H26,N26,T26,Z26,AF26,AL26,AR26,AX26)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="289" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J26),I26,0),IF(ISNUMBER(P26),O26,0),IF(ISNUMBER(V26),U26,0),IF(ISNUMBER(AB26),AA26,0),IF(ISNUMBER(AH26),AG26,0),IF(ISNUMBER(AN26),AM26,0),IF(ISNUMBER(AT26),AS26,0),IF(ISNUMBER(AZ26),AY26,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="4" priority="290">
+      <formula>AND(ISBLANK(D27),ISBLANK(L27),ISBLANK(R27),ISBLANK(X27),ISBLANK(AD27),ISBLANK(AJ27),ISBLANK(AP27),ISBLANK(AV27),ISBLANK(BB27))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="291">
+      <formula>IF(SUM(H27,N27,T27,Z27,AF27,AL27,AR27,AX27)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="292" operator="greaterThan">
+      <formula>SUM(H27,N27,T27,Z27,AF27,AL27,AR27,AX27)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="293" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J27),I27,0),IF(ISNUMBER(P27),O27,0),IF(ISNUMBER(V27),U27,0),IF(ISNUMBER(AB27),AA27,0),IF(ISNUMBER(AH27),AG27,0),IF(ISNUMBER(AN27),AM27,0),IF(ISNUMBER(AT27),AS27,0),IF(ISNUMBER(AZ27),AY27,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="4" priority="294">
+      <formula>AND(ISBLANK(D28),ISBLANK(L28),ISBLANK(R28),ISBLANK(X28),ISBLANK(AD28),ISBLANK(AJ28),ISBLANK(AP28),ISBLANK(AV28),ISBLANK(BB28))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="295">
+      <formula>IF(SUM(H28,N28,T28,Z28,AF28,AL28,AR28,AX28)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="296" operator="greaterThan">
+      <formula>SUM(H28,N28,T28,Z28,AF28,AL28,AR28,AX28)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="297" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J28),I28,0),IF(ISNUMBER(P28),O28,0),IF(ISNUMBER(V28),U28,0),IF(ISNUMBER(AB28),AA28,0),IF(ISNUMBER(AH28),AG28,0),IF(ISNUMBER(AN28),AM28,0),IF(ISNUMBER(AT28),AS28,0),IF(ISNUMBER(AZ28),AY28,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="4" priority="298">
+      <formula>AND(ISBLANK(D29),ISBLANK(L29),ISBLANK(R29),ISBLANK(X29),ISBLANK(AD29),ISBLANK(AJ29),ISBLANK(AP29),ISBLANK(AV29),ISBLANK(BB29))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="299">
+      <formula>IF(SUM(H29,N29,T29,Z29,AF29,AL29,AR29,AX29)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="300" operator="greaterThan">
+      <formula>SUM(H29,N29,T29,Z29,AF29,AL29,AR29,AX29)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="301" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J29),I29,0),IF(ISNUMBER(P29),O29,0),IF(ISNUMBER(V29),U29,0),IF(ISNUMBER(AB29),AA29,0),IF(ISNUMBER(AH29),AG29,0),IF(ISNUMBER(AN29),AM29,0),IF(ISNUMBER(AT29),AS29,0),IF(ISNUMBER(AZ29),AY29,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="4" priority="302">
+      <formula>AND(ISBLANK(D30),ISBLANK(L30),ISBLANK(R30),ISBLANK(X30),ISBLANK(AD30),ISBLANK(AJ30),ISBLANK(AP30),ISBLANK(AV30),ISBLANK(BB30))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="303">
+      <formula>IF(SUM(H30,N30,T30,Z30,AF30,AL30,AR30,AX30)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="304" operator="greaterThan">
+      <formula>SUM(H30,N30,T30,Z30,AF30,AL30,AR30,AX30)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="305" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J30),I30,0),IF(ISNUMBER(P30),O30,0),IF(ISNUMBER(V30),U30,0),IF(ISNUMBER(AB30),AA30,0),IF(ISNUMBER(AH30),AG30,0),IF(ISNUMBER(AN30),AM30,0),IF(ISNUMBER(AT30),AS30,0),IF(ISNUMBER(AZ30),AY30,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="4" priority="210">
+      <formula>AND(ISBLANK(D7),ISBLANK(L7),ISBLANK(R7),ISBLANK(X7),ISBLANK(AD7),ISBLANK(AJ7),ISBLANK(AP7),ISBLANK(AV7),ISBLANK(BB7))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="211">
+      <formula>IF(SUM(H7,N7,T7,Z7,AF7,AL7,AR7,AX7)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="212" operator="greaterThan">
+      <formula>SUM(H7,N7,T7,Z7,AF7,AL7,AR7,AX7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="213" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J7),I7,0),IF(ISNUMBER(P7),O7,0),IF(ISNUMBER(V7),U7,0),IF(ISNUMBER(AB7),AA7,0),IF(ISNUMBER(AH7),AG7,0),IF(ISNUMBER(AN7),AM7,0),IF(ISNUMBER(AT7),AS7,0),IF(ISNUMBER(AZ7),AY7,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="4" priority="214">
+      <formula>AND(ISBLANK(D8),ISBLANK(L8),ISBLANK(R8),ISBLANK(X8),ISBLANK(AD8),ISBLANK(AJ8),ISBLANK(AP8),ISBLANK(AV8),ISBLANK(BB8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="215">
+      <formula>IF(SUM(H8,N8,T8,Z8,AF8,AL8,AR8,AX8)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="216" operator="greaterThan">
+      <formula>SUM(H8,N8,T8,Z8,AF8,AL8,AR8,AX8)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="217" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J8),I8,0),IF(ISNUMBER(P8),O8,0),IF(ISNUMBER(V8),U8,0),IF(ISNUMBER(AB8),AA8,0),IF(ISNUMBER(AH8),AG8,0),IF(ISNUMBER(AN8),AM8,0),IF(ISNUMBER(AT8),AS8,0),IF(ISNUMBER(AZ8),AY8,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="4" priority="218">
+      <formula>AND(ISBLANK(D9),ISBLANK(L9),ISBLANK(R9),ISBLANK(X9),ISBLANK(AD9),ISBLANK(AJ9),ISBLANK(AP9),ISBLANK(AV9),ISBLANK(BB9))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="219">
+      <formula>IF(SUM(H9,N9,T9,Z9,AF9,AL9,AR9,AX9)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="220" operator="greaterThan">
+      <formula>SUM(H9,N9,T9,Z9,AF9,AL9,AR9,AX9)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="221" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J9),I9,0),IF(ISNUMBER(P9),O9,0),IF(ISNUMBER(V9),U9,0),IF(ISNUMBER(AB9),AA9,0),IF(ISNUMBER(AH9),AG9,0),IF(ISNUMBER(AN9),AM9,0),IF(ISNUMBER(AT9),AS9,0),IF(ISNUMBER(AZ9),AY9,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+      <formula>E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
+      <formula>E25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
+      <formula>E26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>AND(I10&gt;0,MOD(I10,K10)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>AND(NOT(ISBLANK(I10)),OR(H10="NonStk",I10&gt;H10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>AND(NOT(ISBLANK(I24)),OR(H24="NonStk",I24&gt;H24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>AND(NOT(ISBLANK(I25)),OR(H25="NonStk",I25&gt;H25))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="1" priority="22">
+      <formula>AND(NOT(ISBLANK(I26)),OR(H26="NonStk",I26&gt;H26))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(NOT(ISBLANK(I8)),OR(H8="NonStk",I8&gt;H8))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>AND(E10&lt;2000,I10&lt;2000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="lessThanOrEqual">
       <formula>F24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="3" priority="117" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="lessThanOrEqual">
       <formula>F25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="3" priority="121" operator="lessThanOrEqual">
-      <formula>F27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="cellIs" dxfId="3" priority="97" operator="lessThanOrEqual">
-      <formula>F7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH9">
-    <cfRule type="cellIs" dxfId="3" priority="101" operator="lessThanOrEqual">
-      <formula>F9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
-    <cfRule type="cellIs" dxfId="3" priority="104" operator="lessThanOrEqual">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="3" priority="108" operator="lessThanOrEqual">
-      <formula>G22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ24">
-    <cfRule type="cellIs" dxfId="3" priority="112" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="lessThanOrEqual">
+      <formula>F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThanOrEqual">
+      <formula>F8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="expression" dxfId="3" priority="11">
+      <formula>AND(E10&lt;2000,I10&lt;2000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>AND(E10&lt;2000,I10&lt;2000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThanOrEqual">
       <formula>G24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
-    <cfRule type="cellIs" dxfId="3" priority="116" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="L25">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="lessThanOrEqual">
       <formula>G25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="cellIs" dxfId="3" priority="120" operator="lessThanOrEqual">
-      <formula>G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7">
-    <cfRule type="cellIs" dxfId="3" priority="96" operator="lessThanOrEqual">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="cellIs" dxfId="3" priority="100" operator="lessThanOrEqual">
-      <formula>G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL21">
-    <cfRule type="cellIs" dxfId="0" priority="130" operator="lessThan">
-      <formula>E21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL22">
-    <cfRule type="cellIs" dxfId="0" priority="134" operator="lessThan">
-      <formula>E22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL24">
-    <cfRule type="cellIs" dxfId="0" priority="138" operator="lessThan">
-      <formula>E24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL27">
-    <cfRule type="cellIs" dxfId="0" priority="142" operator="lessThan">
-      <formula>E27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL7">
-    <cfRule type="cellIs" dxfId="0" priority="122" operator="lessThan">
-      <formula>E7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
-    <cfRule type="cellIs" dxfId="0" priority="126" operator="lessThan">
-      <formula>E9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM21">
-    <cfRule type="expression" dxfId="2" priority="131">
-      <formula>AND(NOT(ISBLANK(AM21)),OR(AL21="NonStk",AM21&gt;AL21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM22">
-    <cfRule type="expression" dxfId="2" priority="135">
-      <formula>AND(NOT(ISBLANK(AM22)),OR(AL22="NonStk",AM22&gt;AL22))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM24">
-    <cfRule type="expression" dxfId="2" priority="139">
-      <formula>AND(NOT(ISBLANK(AM24)),OR(AL24="NonStk",AM24&gt;AL24))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM27">
-    <cfRule type="expression" dxfId="2" priority="143">
-      <formula>AND(NOT(ISBLANK(AM27)),OR(AL27="NonStk",AM27&gt;AL27))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM7">
-    <cfRule type="expression" dxfId="2" priority="123">
-      <formula>AND(NOT(ISBLANK(AM7)),OR(AL7="NonStk",AM7&gt;AL7))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM9">
-    <cfRule type="expression" dxfId="2" priority="127">
-      <formula>AND(NOT(ISBLANK(AM9)),OR(AL9="NonStk",AM9&gt;AL9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN21">
-    <cfRule type="cellIs" dxfId="3" priority="133" operator="lessThanOrEqual">
-      <formula>F21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN22">
-    <cfRule type="cellIs" dxfId="3" priority="137" operator="lessThanOrEqual">
-      <formula>F22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN24">
-    <cfRule type="cellIs" dxfId="3" priority="141" operator="lessThanOrEqual">
-      <formula>F24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN27">
-    <cfRule type="cellIs" dxfId="3" priority="145" operator="lessThanOrEqual">
-      <formula>F27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN7">
-    <cfRule type="cellIs" dxfId="3" priority="125" operator="lessThanOrEqual">
-      <formula>F7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN9">
-    <cfRule type="cellIs" dxfId="3" priority="129" operator="lessThanOrEqual">
-      <formula>F9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP21">
-    <cfRule type="cellIs" dxfId="3" priority="132" operator="lessThanOrEqual">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP22">
-    <cfRule type="cellIs" dxfId="3" priority="136" operator="lessThanOrEqual">
-      <formula>G22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP24">
-    <cfRule type="cellIs" dxfId="3" priority="140" operator="lessThanOrEqual">
-      <formula>G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP27">
-    <cfRule type="cellIs" dxfId="3" priority="144" operator="lessThanOrEqual">
-      <formula>G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP7">
-    <cfRule type="cellIs" dxfId="3" priority="124" operator="lessThanOrEqual">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP9">
-    <cfRule type="cellIs" dxfId="3" priority="128" operator="lessThanOrEqual">
-      <formula>G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR9">
-    <cfRule type="cellIs" dxfId="0" priority="146" operator="lessThan">
-      <formula>E9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS9">
-    <cfRule type="expression" dxfId="1" priority="147">
-      <formula>AND(AS9&gt;0,MOD(AS9,AU9)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="148">
-      <formula>AND(NOT(ISBLANK(AS9)),OR(AR9="NonStk",AS9&gt;AR9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT9">
-    <cfRule type="cellIs" dxfId="3" priority="150" operator="lessThanOrEqual">
-      <formula>F9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV9">
-    <cfRule type="cellIs" dxfId="3" priority="149" operator="lessThanOrEqual">
-      <formula>G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX21">
-    <cfRule type="cellIs" dxfId="0" priority="156" operator="lessThan">
-      <formula>E21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX24">
-    <cfRule type="cellIs" dxfId="0" priority="161" operator="lessThan">
-      <formula>E24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX9">
-    <cfRule type="cellIs" dxfId="0" priority="151" operator="lessThan">
-      <formula>E9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY21">
-    <cfRule type="expression" dxfId="1" priority="157">
-      <formula>AND(AY21&gt;0,MOD(AY21,BA21)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="158">
-      <formula>AND(NOT(ISBLANK(AY21)),OR(AX21="NonStk",AY21&gt;AX21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY24">
-    <cfRule type="expression" dxfId="1" priority="162">
-      <formula>AND(AY24&gt;0,MOD(AY24,BA24)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="163">
-      <formula>AND(NOT(ISBLANK(AY24)),OR(AX24="NonStk",AY24&gt;AX24))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY9">
-    <cfRule type="expression" dxfId="1" priority="152">
-      <formula>AND(AY9&gt;0,MOD(AY9,BA9)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="153">
-      <formula>AND(NOT(ISBLANK(AY9)),OR(AX9="NonStk",AY9&gt;AX9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ21">
-    <cfRule type="cellIs" dxfId="3" priority="160" operator="lessThanOrEqual">
-      <formula>F21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ24">
-    <cfRule type="cellIs" dxfId="3" priority="165" operator="lessThanOrEqual">
-      <formula>F24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9">
-    <cfRule type="cellIs" dxfId="3" priority="155" operator="lessThanOrEqual">
-      <formula>F9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB21">
-    <cfRule type="cellIs" dxfId="3" priority="159" operator="lessThanOrEqual">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB24">
-    <cfRule type="cellIs" dxfId="3" priority="164" operator="lessThanOrEqual">
-      <formula>G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB9">
-    <cfRule type="cellIs" dxfId="3" priority="154" operator="lessThanOrEqual">
-      <formula>G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="4" priority="178">
-      <formula>AND(ISBLANK(D10),ISBLANK(L10),ISBLANK(R10),ISBLANK(X10),ISBLANK(AD10),ISBLANK(AJ10),ISBLANK(AP10),ISBLANK(AV10),ISBLANK(BB10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="179">
-      <formula>IF(SUM(H10,N10,T10,Z10,AF10,AL10,AR10,AX10)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="180" operator="greaterThan">
-      <formula>SUM(H10,N10,T10,Z10,AF10,AL10,AR10,AX10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="181" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J10),I10,0),IF(ISNUMBER(P10),O10,0),IF(ISNUMBER(V10),U10,0),IF(ISNUMBER(AB10),AA10,0),IF(ISNUMBER(AH10),AG10,0),IF(ISNUMBER(AN10),AM10,0),IF(ISNUMBER(AT10),AS10,0),IF(ISNUMBER(AZ10),AY10,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="4" priority="182">
-      <formula>AND(ISBLANK(D11),ISBLANK(L11),ISBLANK(R11),ISBLANK(X11),ISBLANK(AD11),ISBLANK(AJ11),ISBLANK(AP11),ISBLANK(AV11),ISBLANK(BB11))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="183">
-      <formula>IF(SUM(H11,N11,T11,Z11,AF11,AL11,AR11,AX11)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="184" operator="greaterThan">
-      <formula>SUM(H11,N11,T11,Z11,AF11,AL11,AR11,AX11)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="185" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J11),I11,0),IF(ISNUMBER(P11),O11,0),IF(ISNUMBER(V11),U11,0),IF(ISNUMBER(AB11),AA11,0),IF(ISNUMBER(AH11),AG11,0),IF(ISNUMBER(AN11),AM11,0),IF(ISNUMBER(AT11),AS11,0),IF(ISNUMBER(AZ11),AY11,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="4" priority="186">
-      <formula>AND(ISBLANK(D12),ISBLANK(L12),ISBLANK(R12),ISBLANK(X12),ISBLANK(AD12),ISBLANK(AJ12),ISBLANK(AP12),ISBLANK(AV12),ISBLANK(BB12))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="187">
-      <formula>IF(SUM(H12,N12,T12,Z12,AF12,AL12,AR12,AX12)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="188" operator="greaterThan">
-      <formula>SUM(H12,N12,T12,Z12,AF12,AL12,AR12,AX12)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="189" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J12),I12,0),IF(ISNUMBER(P12),O12,0),IF(ISNUMBER(V12),U12,0),IF(ISNUMBER(AB12),AA12,0),IF(ISNUMBER(AH12),AG12,0),IF(ISNUMBER(AN12),AM12,0),IF(ISNUMBER(AT12),AS12,0),IF(ISNUMBER(AZ12),AY12,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="4" priority="190">
-      <formula>AND(ISBLANK(D13),ISBLANK(L13),ISBLANK(R13),ISBLANK(X13),ISBLANK(AD13),ISBLANK(AJ13),ISBLANK(AP13),ISBLANK(AV13),ISBLANK(BB13))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="191">
-      <formula>IF(SUM(H13,N13,T13,Z13,AF13,AL13,AR13,AX13)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="192" operator="greaterThan">
-      <formula>SUM(H13,N13,T13,Z13,AF13,AL13,AR13,AX13)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="193" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J13),I13,0),IF(ISNUMBER(P13),O13,0),IF(ISNUMBER(V13),U13,0),IF(ISNUMBER(AB13),AA13,0),IF(ISNUMBER(AH13),AG13,0),IF(ISNUMBER(AN13),AM13,0),IF(ISNUMBER(AT13),AS13,0),IF(ISNUMBER(AZ13),AY13,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="4" priority="194">
-      <formula>AND(ISBLANK(D14),ISBLANK(L14),ISBLANK(R14),ISBLANK(X14),ISBLANK(AD14),ISBLANK(AJ14),ISBLANK(AP14),ISBLANK(AV14),ISBLANK(BB14))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="195">
-      <formula>IF(SUM(H14,N14,T14,Z14,AF14,AL14,AR14,AX14)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="196" operator="greaterThan">
-      <formula>SUM(H14,N14,T14,Z14,AF14,AL14,AR14,AX14)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="197" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J14),I14,0),IF(ISNUMBER(P14),O14,0),IF(ISNUMBER(V14),U14,0),IF(ISNUMBER(AB14),AA14,0),IF(ISNUMBER(AH14),AG14,0),IF(ISNUMBER(AN14),AM14,0),IF(ISNUMBER(AT14),AS14,0),IF(ISNUMBER(AZ14),AY14,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="4" priority="198">
-      <formula>AND(ISBLANK(D15),ISBLANK(L15),ISBLANK(R15),ISBLANK(X15),ISBLANK(AD15),ISBLANK(AJ15),ISBLANK(AP15),ISBLANK(AV15),ISBLANK(BB15))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="199">
-      <formula>IF(SUM(H15,N15,T15,Z15,AF15,AL15,AR15,AX15)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="200" operator="greaterThan">
-      <formula>SUM(H15,N15,T15,Z15,AF15,AL15,AR15,AX15)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="201" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J15),I15,0),IF(ISNUMBER(P15),O15,0),IF(ISNUMBER(V15),U15,0),IF(ISNUMBER(AB15),AA15,0),IF(ISNUMBER(AH15),AG15,0),IF(ISNUMBER(AN15),AM15,0),IF(ISNUMBER(AT15),AS15,0),IF(ISNUMBER(AZ15),AY15,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="4" priority="202">
-      <formula>AND(ISBLANK(D16),ISBLANK(L16),ISBLANK(R16),ISBLANK(X16),ISBLANK(AD16),ISBLANK(AJ16),ISBLANK(AP16),ISBLANK(AV16),ISBLANK(BB16))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="203">
-      <formula>IF(SUM(H16,N16,T16,Z16,AF16,AL16,AR16,AX16)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="204" operator="greaterThan">
-      <formula>SUM(H16,N16,T16,Z16,AF16,AL16,AR16,AX16)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="205" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J16),I16,0),IF(ISNUMBER(P16),O16,0),IF(ISNUMBER(V16),U16,0),IF(ISNUMBER(AB16),AA16,0),IF(ISNUMBER(AH16),AG16,0),IF(ISNUMBER(AN16),AM16,0),IF(ISNUMBER(AT16),AS16,0),IF(ISNUMBER(AZ16),AY16,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="4" priority="206">
-      <formula>AND(ISBLANK(D17),ISBLANK(L17),ISBLANK(R17),ISBLANK(X17),ISBLANK(AD17),ISBLANK(AJ17),ISBLANK(AP17),ISBLANK(AV17),ISBLANK(BB17))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="207">
-      <formula>IF(SUM(H17,N17,T17,Z17,AF17,AL17,AR17,AX17)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="208" operator="greaterThan">
-      <formula>SUM(H17,N17,T17,Z17,AF17,AL17,AR17,AX17)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="209" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J17),I17,0),IF(ISNUMBER(P17),O17,0),IF(ISNUMBER(V17),U17,0),IF(ISNUMBER(AB17),AA17,0),IF(ISNUMBER(AH17),AG17,0),IF(ISNUMBER(AN17),AM17,0),IF(ISNUMBER(AT17),AS17,0),IF(ISNUMBER(AZ17),AY17,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="4" priority="210">
-      <formula>AND(ISBLANK(D18),ISBLANK(L18),ISBLANK(R18),ISBLANK(X18),ISBLANK(AD18),ISBLANK(AJ18),ISBLANK(AP18),ISBLANK(AV18),ISBLANK(BB18))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="211">
-      <formula>IF(SUM(H18,N18,T18,Z18,AF18,AL18,AR18,AX18)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="212" operator="greaterThan">
-      <formula>SUM(H18,N18,T18,Z18,AF18,AL18,AR18,AX18)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="213" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J18),I18,0),IF(ISNUMBER(P18),O18,0),IF(ISNUMBER(V18),U18,0),IF(ISNUMBER(AB18),AA18,0),IF(ISNUMBER(AH18),AG18,0),IF(ISNUMBER(AN18),AM18,0),IF(ISNUMBER(AT18),AS18,0),IF(ISNUMBER(AZ18),AY18,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="4" priority="214">
-      <formula>AND(ISBLANK(D19),ISBLANK(L19),ISBLANK(R19),ISBLANK(X19),ISBLANK(AD19),ISBLANK(AJ19),ISBLANK(AP19),ISBLANK(AV19),ISBLANK(BB19))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="215">
-      <formula>IF(SUM(H19,N19,T19,Z19,AF19,AL19,AR19,AX19)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="216" operator="greaterThan">
-      <formula>SUM(H19,N19,T19,Z19,AF19,AL19,AR19,AX19)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="217" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J19),I19,0),IF(ISNUMBER(P19),O19,0),IF(ISNUMBER(V19),U19,0),IF(ISNUMBER(AB19),AA19,0),IF(ISNUMBER(AH19),AG19,0),IF(ISNUMBER(AN19),AM19,0),IF(ISNUMBER(AT19),AS19,0),IF(ISNUMBER(AZ19),AY19,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="4" priority="218">
-      <formula>AND(ISBLANK(D20),ISBLANK(L20),ISBLANK(R20),ISBLANK(X20),ISBLANK(AD20),ISBLANK(AJ20),ISBLANK(AP20),ISBLANK(AV20),ISBLANK(BB20))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="219">
-      <formula>IF(SUM(H20,N20,T20,Z20,AF20,AL20,AR20,AX20)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="220" operator="greaterThan">
-      <formula>SUM(H20,N20,T20,Z20,AF20,AL20,AR20,AX20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="221" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J20),I20,0),IF(ISNUMBER(P20),O20,0),IF(ISNUMBER(V20),U20,0),IF(ISNUMBER(AB20),AA20,0),IF(ISNUMBER(AH20),AG20,0),IF(ISNUMBER(AN20),AM20,0),IF(ISNUMBER(AT20),AS20,0),IF(ISNUMBER(AZ20),AY20,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="4" priority="222">
-      <formula>AND(ISBLANK(D21),ISBLANK(L21),ISBLANK(R21),ISBLANK(X21),ISBLANK(AD21),ISBLANK(AJ21),ISBLANK(AP21),ISBLANK(AV21),ISBLANK(BB21))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="223">
-      <formula>IF(SUM(H21,N21,T21,Z21,AF21,AL21,AR21,AX21)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="224" operator="greaterThan">
-      <formula>SUM(H21,N21,T21,Z21,AF21,AL21,AR21,AX21)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="225" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J21),I21,0),IF(ISNUMBER(P21),O21,0),IF(ISNUMBER(V21),U21,0),IF(ISNUMBER(AB21),AA21,0),IF(ISNUMBER(AH21),AG21,0),IF(ISNUMBER(AN21),AM21,0),IF(ISNUMBER(AT21),AS21,0),IF(ISNUMBER(AZ21),AY21,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="4" priority="226">
-      <formula>AND(ISBLANK(D22),ISBLANK(L22),ISBLANK(R22),ISBLANK(X22),ISBLANK(AD22),ISBLANK(AJ22),ISBLANK(AP22),ISBLANK(AV22),ISBLANK(BB22))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="227">
-      <formula>IF(SUM(H22,N22,T22,Z22,AF22,AL22,AR22,AX22)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="228" operator="greaterThan">
-      <formula>SUM(H22,N22,T22,Z22,AF22,AL22,AR22,AX22)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="229" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J22),I22,0),IF(ISNUMBER(P22),O22,0),IF(ISNUMBER(V22),U22,0),IF(ISNUMBER(AB22),AA22,0),IF(ISNUMBER(AH22),AG22,0),IF(ISNUMBER(AN22),AM22,0),IF(ISNUMBER(AT22),AS22,0),IF(ISNUMBER(AZ22),AY22,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="4" priority="230">
-      <formula>AND(ISBLANK(D23),ISBLANK(L23),ISBLANK(R23),ISBLANK(X23),ISBLANK(AD23),ISBLANK(AJ23),ISBLANK(AP23),ISBLANK(AV23),ISBLANK(BB23))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="231">
-      <formula>IF(SUM(H23,N23,T23,Z23,AF23,AL23,AR23,AX23)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="232" operator="greaterThan">
-      <formula>SUM(H23,N23,T23,Z23,AF23,AL23,AR23,AX23)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="233" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J23),I23,0),IF(ISNUMBER(P23),O23,0),IF(ISNUMBER(V23),U23,0),IF(ISNUMBER(AB23),AA23,0),IF(ISNUMBER(AH23),AG23,0),IF(ISNUMBER(AN23),AM23,0),IF(ISNUMBER(AT23),AS23,0),IF(ISNUMBER(AZ23),AY23,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="4" priority="234">
-      <formula>AND(ISBLANK(D24),ISBLANK(L24),ISBLANK(R24),ISBLANK(X24),ISBLANK(AD24),ISBLANK(AJ24),ISBLANK(AP24),ISBLANK(AV24),ISBLANK(BB24))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="235">
-      <formula>IF(SUM(H24,N24,T24,Z24,AF24,AL24,AR24,AX24)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="236" operator="greaterThan">
-      <formula>SUM(H24,N24,T24,Z24,AF24,AL24,AR24,AX24)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="237" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J24),I24,0),IF(ISNUMBER(P24),O24,0),IF(ISNUMBER(V24),U24,0),IF(ISNUMBER(AB24),AA24,0),IF(ISNUMBER(AH24),AG24,0),IF(ISNUMBER(AN24),AM24,0),IF(ISNUMBER(AT24),AS24,0),IF(ISNUMBER(AZ24),AY24,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="4" priority="238">
-      <formula>AND(ISBLANK(D25),ISBLANK(L25),ISBLANK(R25),ISBLANK(X25),ISBLANK(AD25),ISBLANK(AJ25),ISBLANK(AP25),ISBLANK(AV25),ISBLANK(BB25))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="239">
-      <formula>IF(SUM(H25,N25,T25,Z25,AF25,AL25,AR25,AX25)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="240" operator="greaterThan">
-      <formula>SUM(H25,N25,T25,Z25,AF25,AL25,AR25,AX25)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="241" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J25),I25,0),IF(ISNUMBER(P25),O25,0),IF(ISNUMBER(V25),U25,0),IF(ISNUMBER(AB25),AA25,0),IF(ISNUMBER(AH25),AG25,0),IF(ISNUMBER(AN25),AM25,0),IF(ISNUMBER(AT25),AS25,0),IF(ISNUMBER(AZ25),AY25,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="4" priority="242">
-      <formula>AND(ISBLANK(D26),ISBLANK(L26),ISBLANK(R26),ISBLANK(X26),ISBLANK(AD26),ISBLANK(AJ26),ISBLANK(AP26),ISBLANK(AV26),ISBLANK(BB26))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="243">
-      <formula>IF(SUM(H26,N26,T26,Z26,AF26,AL26,AR26,AX26)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="244" operator="greaterThan">
-      <formula>SUM(H26,N26,T26,Z26,AF26,AL26,AR26,AX26)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="245" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J26),I26,0),IF(ISNUMBER(P26),O26,0),IF(ISNUMBER(V26),U26,0),IF(ISNUMBER(AB26),AA26,0),IF(ISNUMBER(AH26),AG26,0),IF(ISNUMBER(AN26),AM26,0),IF(ISNUMBER(AT26),AS26,0),IF(ISNUMBER(AZ26),AY26,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="4" priority="246">
-      <formula>AND(ISBLANK(D27),ISBLANK(L27),ISBLANK(R27),ISBLANK(X27),ISBLANK(AD27),ISBLANK(AJ27),ISBLANK(AP27),ISBLANK(AV27),ISBLANK(BB27))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="247">
-      <formula>IF(SUM(H27,N27,T27,Z27,AF27,AL27,AR27,AX27)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="248" operator="greaterThan">
-      <formula>SUM(H27,N27,T27,Z27,AF27,AL27,AR27,AX27)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="249" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J27),I27,0),IF(ISNUMBER(P27),O27,0),IF(ISNUMBER(V27),U27,0),IF(ISNUMBER(AB27),AA27,0),IF(ISNUMBER(AH27),AG27,0),IF(ISNUMBER(AN27),AM27,0),IF(ISNUMBER(AT27),AS27,0),IF(ISNUMBER(AZ27),AY27,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="4" priority="166">
-      <formula>AND(ISBLANK(D7),ISBLANK(L7),ISBLANK(R7),ISBLANK(X7),ISBLANK(AD7),ISBLANK(AJ7),ISBLANK(AP7),ISBLANK(AV7),ISBLANK(BB7))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="167">
-      <formula>IF(SUM(H7,N7,T7,Z7,AF7,AL7,AR7,AX7)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="168" operator="greaterThan">
-      <formula>SUM(H7,N7,T7,Z7,AF7,AL7,AR7,AX7)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="169" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J7),I7,0),IF(ISNUMBER(P7),O7,0),IF(ISNUMBER(V7),U7,0),IF(ISNUMBER(AB7),AA7,0),IF(ISNUMBER(AH7),AG7,0),IF(ISNUMBER(AN7),AM7,0),IF(ISNUMBER(AT7),AS7,0),IF(ISNUMBER(AZ7),AY7,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="4" priority="170">
-      <formula>AND(ISBLANK(D8),ISBLANK(L8),ISBLANK(R8),ISBLANK(X8),ISBLANK(AD8),ISBLANK(AJ8),ISBLANK(AP8),ISBLANK(AV8),ISBLANK(BB8))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="171">
-      <formula>IF(SUM(H8,N8,T8,Z8,AF8,AL8,AR8,AX8)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="172" operator="greaterThan">
-      <formula>SUM(H8,N8,T8,Z8,AF8,AL8,AR8,AX8)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="173" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J8),I8,0),IF(ISNUMBER(P8),O8,0),IF(ISNUMBER(V8),U8,0),IF(ISNUMBER(AB8),AA8,0),IF(ISNUMBER(AH8),AG8,0),IF(ISNUMBER(AN8),AM8,0),IF(ISNUMBER(AT8),AS8,0),IF(ISNUMBER(AZ8),AY8,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="4" priority="174">
-      <formula>AND(ISBLANK(D9),ISBLANK(L9),ISBLANK(R9),ISBLANK(X9),ISBLANK(AD9),ISBLANK(AJ9),ISBLANK(AP9),ISBLANK(AV9),ISBLANK(BB9))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="175">
-      <formula>IF(SUM(H9,N9,T9,Z9,AF9,AL9,AR9,AX9)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="176" operator="greaterThan">
-      <formula>SUM(H9,N9,T9,Z9,AF9,AL9,AR9,AX9)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="177" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J9),I9,0),IF(ISNUMBER(P9),O9,0),IF(ISNUMBER(V9),U9,0),IF(ISNUMBER(AB9),AA9,0),IF(ISNUMBER(AH9),AG9,0),IF(ISNUMBER(AN9),AM9,0),IF(ISNUMBER(AT9),AS9,0),IF(ISNUMBER(AZ9),AY9,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
-      <formula>E21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
-      <formula>E22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>E7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
-      <formula>E9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="2" priority="18">
-      <formula>AND(NOT(ISBLANK(I21)),OR(H21="NonStk",I21&gt;H21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="2" priority="22">
-      <formula>AND(NOT(ISBLANK(I22)),OR(H22="NonStk",I22&gt;H22))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(I7&gt;0,MOD(I7,K7)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(NOT(ISBLANK(I7)),OR(H7="NonStk",I7&gt;H7))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND(I9&gt;0,MOD(I9,K9)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>AND(NOT(ISBLANK(I9)),OR(H9="NonStk",I9&gt;H9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="lessThanOrEqual">
-      <formula>F21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="lessThanOrEqual">
-      <formula>F22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThanOrEqual">
-      <formula>F7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND(E7&lt;2000,I7&lt;2000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
-      <formula>F9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(E9&lt;2000,I9&lt;2000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND(E7&lt;2000,I7&lt;2000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="1" priority="15">
-      <formula>AND(E9&lt;2000,I9&lt;2000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="lessThanOrEqual">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="lessThanOrEqual">
-      <formula>G22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
-      <formula>G7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND(E7&lt;2000,I7&lt;2000)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="lessThanOrEqual">
-      <formula>G9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16">
-      <formula>AND(E9&lt;2000,I9&lt;2000)</formula>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="lessThanOrEqual">
+      <formula>G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+      <formula>G8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
@@ -6072,34 +6830,49 @@
       <formula>E10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
+  <conditionalFormatting sqref="N13">
     <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThan">
-      <formula>E11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
+      <formula>E13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
     <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThan">
-      <formula>E21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
+      <formula>E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
     <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThan">
-      <formula>E22</formula>
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24">
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThan">
+      <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThan">
       <formula>E26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThan">
       <formula>E27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="lessThan">
+      <formula>E29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="lessThan">
+      <formula>E30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
@@ -6107,339 +6880,370 @@
       <formula>E7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="N8">
     <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThan">
-      <formula>E9</formula>
+      <formula>E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="1" priority="34">
       <formula>AND(NOT(ISBLANK(O10)),OR(N10="NonStk",O10&gt;N10))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="2" priority="38">
-      <formula>AND(NOT(ISBLANK(O11)),OR(N11="NonStk",O11&gt;N11))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O21">
-    <cfRule type="expression" dxfId="2" priority="42">
-      <formula>AND(NOT(ISBLANK(O21)),OR(N21="NonStk",O21&gt;N21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22">
-    <cfRule type="expression" dxfId="2" priority="46">
-      <formula>AND(NOT(ISBLANK(O22)),OR(N22="NonStk",O22&gt;N22))</formula>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>AND(NOT(ISBLANK(O13)),OR(N13="NonStk",O13&gt;N13))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>AND(NOT(ISBLANK(O14)),OR(N14="NonStk",O14&gt;N14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="expression" dxfId="1" priority="46">
+      <formula>AND(NOT(ISBLANK(O18)),OR(N18="NonStk",O18&gt;N18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>AND(NOT(ISBLANK(O24)),OR(N24="NonStk",O24&gt;N24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="expression" dxfId="2" priority="50">
+    <cfRule type="expression" dxfId="1" priority="54">
       <formula>AND(NOT(ISBLANK(O25)),OR(N25="NonStk",O25&gt;N25))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="expression" dxfId="2" priority="54">
+    <cfRule type="expression" dxfId="1" priority="58">
       <formula>AND(NOT(ISBLANK(O26)),OR(N26="NonStk",O26&gt;N26))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27">
-    <cfRule type="expression" dxfId="2" priority="58">
+    <cfRule type="expression" dxfId="1" priority="62">
       <formula>AND(NOT(ISBLANK(O27)),OR(N27="NonStk",O27&gt;N27))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O29">
+    <cfRule type="expression" dxfId="1" priority="66">
+      <formula>AND(NOT(ISBLANK(O29)),OR(N29="NonStk",O29&gt;N29))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30">
+    <cfRule type="expression" dxfId="1" priority="70">
+      <formula>AND(NOT(ISBLANK(O30)),OR(N30="NonStk",O30&gt;N30))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="1" priority="26">
       <formula>AND(NOT(ISBLANK(O7)),OR(N7="NonStk",O7&gt;N7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="2" priority="30">
-      <formula>AND(NOT(ISBLANK(O9)),OR(N9="NonStk",O9&gt;N9))</formula>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="expression" dxfId="1" priority="30">
+      <formula>AND(NOT(ISBLANK(O8)),OR(N8="NonStk",O8&gt;N8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="3" priority="36" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="36" operator="lessThanOrEqual">
       <formula>F10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="3" priority="40" operator="lessThanOrEqual">
-      <formula>F11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="3" priority="44" operator="lessThanOrEqual">
-      <formula>F21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="3" priority="48" operator="lessThanOrEqual">
-      <formula>F22</formula>
+  <conditionalFormatting sqref="P13">
+    <cfRule type="cellIs" dxfId="2" priority="40" operator="lessThanOrEqual">
+      <formula>F13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="cellIs" dxfId="2" priority="44" operator="lessThanOrEqual">
+      <formula>F14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="cellIs" dxfId="2" priority="48" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24">
+    <cfRule type="cellIs" dxfId="2" priority="52" operator="lessThanOrEqual">
+      <formula>F24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="3" priority="52" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="56" operator="lessThanOrEqual">
       <formula>F25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26">
-    <cfRule type="cellIs" dxfId="3" priority="56" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="60" operator="lessThanOrEqual">
       <formula>F26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27">
-    <cfRule type="cellIs" dxfId="3" priority="60" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="64" operator="lessThanOrEqual">
       <formula>F27</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P29">
+    <cfRule type="cellIs" dxfId="2" priority="68" operator="lessThanOrEqual">
+      <formula>F29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P30">
+    <cfRule type="cellIs" dxfId="2" priority="72" operator="lessThanOrEqual">
+      <formula>F30</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="3" priority="28" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="lessThanOrEqual">
       <formula>F7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="3" priority="32" operator="lessThanOrEqual">
-      <formula>F9</formula>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="lessThanOrEqual">
+      <formula>F8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="3" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="35" operator="lessThanOrEqual">
       <formula>G10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
-    <cfRule type="cellIs" dxfId="3" priority="39" operator="lessThanOrEqual">
-      <formula>G11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R21">
-    <cfRule type="cellIs" dxfId="3" priority="43" operator="lessThanOrEqual">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="cellIs" dxfId="3" priority="47" operator="lessThanOrEqual">
-      <formula>G22</formula>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="2" priority="39" operator="lessThanOrEqual">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="cellIs" dxfId="2" priority="43" operator="lessThanOrEqual">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="2" priority="47" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="cellIs" dxfId="2" priority="51" operator="lessThanOrEqual">
+      <formula>G24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="3" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="55" operator="lessThanOrEqual">
       <formula>G25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="3" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="59" operator="lessThanOrEqual">
       <formula>G26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="cellIs" dxfId="3" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="63" operator="lessThanOrEqual">
       <formula>G27</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="cellIs" dxfId="2" priority="67" operator="lessThanOrEqual">
+      <formula>G29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30">
+    <cfRule type="cellIs" dxfId="2" priority="71" operator="lessThanOrEqual">
+      <formula>G30</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="3" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="lessThanOrEqual">
       <formula>G7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="3" priority="31" operator="lessThanOrEqual">
-      <formula>G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="lessThan">
-      <formula>E21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="lessThan">
-      <formula>E22</formula>
+  <conditionalFormatting sqref="R8">
+    <cfRule type="cellIs" dxfId="2" priority="31" operator="lessThanOrEqual">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="cellIs" dxfId="0" priority="78" operator="lessThan">
+      <formula>E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="cellIs" dxfId="0" priority="83" operator="lessThan">
+      <formula>E18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24">
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="88" operator="lessThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="cellIs" dxfId="0" priority="86" operator="lessThan">
-      <formula>E27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="lessThan">
-      <formula>E7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T9">
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="lessThan">
-      <formula>E9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U21">
-    <cfRule type="expression" dxfId="1" priority="72">
-      <formula>AND(U21&gt;0,MOD(U21,W21)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="73">
-      <formula>AND(NOT(ISBLANK(U21)),OR(T21="NonStk",U21&gt;T21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U22">
-    <cfRule type="expression" dxfId="1" priority="77">
-      <formula>AND(U22&gt;0,MOD(U22,W22)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="78">
-      <formula>AND(NOT(ISBLANK(U22)),OR(T22="NonStk",U22&gt;T22))</formula>
+  <conditionalFormatting sqref="T30">
+    <cfRule type="cellIs" dxfId="0" priority="93" operator="lessThan">
+      <formula>E30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8">
+    <cfRule type="cellIs" dxfId="0" priority="73" operator="lessThan">
+      <formula>E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="expression" dxfId="3" priority="79">
+      <formula>AND(U10&gt;0,MOD(U10,W10)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>AND(NOT(ISBLANK(U10)),OR(T10="NonStk",U10&gt;T10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18">
+    <cfRule type="expression" dxfId="3" priority="84">
+      <formula>AND(U18&gt;0,MOD(U18,W18)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="85">
+      <formula>AND(NOT(ISBLANK(U18)),OR(T18="NonStk",U18&gt;T18))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24">
-    <cfRule type="expression" dxfId="1" priority="82">
+    <cfRule type="expression" dxfId="3" priority="89">
       <formula>AND(U24&gt;0,MOD(U24,W24)&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="83">
+    <cfRule type="expression" dxfId="1" priority="90">
       <formula>AND(NOT(ISBLANK(U24)),OR(T24="NonStk",U24&gt;T24))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U27">
-    <cfRule type="expression" dxfId="2" priority="87">
-      <formula>AND(NOT(ISBLANK(U27)),OR(T27="NonStk",U27&gt;T27))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="1" priority="62">
-      <formula>AND(U7&gt;0,MOD(U7,W7)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="63">
-      <formula>AND(NOT(ISBLANK(U7)),OR(T7="NonStk",U7&gt;T7))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="1" priority="67">
-      <formula>AND(U9&gt;0,MOD(U9,W9)&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="68">
-      <formula>AND(NOT(ISBLANK(U9)),OR(T9="NonStk",U9&gt;T9))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="3" priority="75" operator="lessThanOrEqual">
-      <formula>F21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" dxfId="3" priority="80" operator="lessThanOrEqual">
-      <formula>F22</formula>
+  <conditionalFormatting sqref="U30">
+    <cfRule type="expression" dxfId="1" priority="94">
+      <formula>AND(NOT(ISBLANK(U30)),OR(T30="NonStk",U30&gt;T30))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="expression" dxfId="3" priority="74">
+      <formula>AND(U8&gt;0,MOD(U8,W8)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="75">
+      <formula>AND(NOT(ISBLANK(U8)),OR(T8="NonStk",U8&gt;T8))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10">
+    <cfRule type="cellIs" dxfId="2" priority="82" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V18">
+    <cfRule type="cellIs" dxfId="2" priority="87" operator="lessThanOrEqual">
+      <formula>F18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="3" priority="85" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="92" operator="lessThanOrEqual">
       <formula>F24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V27">
-    <cfRule type="cellIs" dxfId="3" priority="89" operator="lessThanOrEqual">
-      <formula>F27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="3" priority="65" operator="lessThanOrEqual">
-      <formula>F7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V9">
-    <cfRule type="cellIs" dxfId="3" priority="70" operator="lessThanOrEqual">
-      <formula>F9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="3" priority="74" operator="lessThanOrEqual">
-      <formula>G21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X22">
-    <cfRule type="cellIs" dxfId="3" priority="79" operator="lessThanOrEqual">
-      <formula>G22</formula>
+  <conditionalFormatting sqref="V30">
+    <cfRule type="cellIs" dxfId="2" priority="96" operator="lessThanOrEqual">
+      <formula>F30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8">
+    <cfRule type="cellIs" dxfId="2" priority="77" operator="lessThanOrEqual">
+      <formula>F8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10">
+    <cfRule type="cellIs" dxfId="2" priority="81" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="cellIs" dxfId="2" priority="86" operator="lessThanOrEqual">
+      <formula>G18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="3" priority="84" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="91" operator="lessThanOrEqual">
       <formula>G24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="3" priority="88" operator="lessThanOrEqual">
-      <formula>G27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="3" priority="64" operator="lessThanOrEqual">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X9">
-    <cfRule type="cellIs" dxfId="3" priority="69" operator="lessThanOrEqual">
-      <formula>G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z9">
-    <cfRule type="cellIs" dxfId="0" priority="90" operator="lessThan">
-      <formula>E9</formula>
+  <conditionalFormatting sqref="X30">
+    <cfRule type="cellIs" dxfId="2" priority="95" operator="lessThanOrEqual">
+      <formula>G30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8">
+    <cfRule type="cellIs" dxfId="2" priority="76" operator="lessThanOrEqual">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z10">
+    <cfRule type="cellIs" dxfId="0" priority="97" operator="lessThan">
+      <formula>E10</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="M7" r:id="rId1"/>
-    <hyperlink ref="S7" r:id="rId2"/>
-    <hyperlink ref="Y7" r:id="rId3"/>
-    <hyperlink ref="AK7" r:id="rId4"/>
-    <hyperlink ref="AQ7" r:id="rId5"/>
-    <hyperlink ref="M9" r:id="rId6"/>
-    <hyperlink ref="S9" r:id="rId7"/>
-    <hyperlink ref="Y9" r:id="rId8"/>
-    <hyperlink ref="AE9" r:id="rId9"/>
-    <hyperlink ref="AK9" r:id="rId10"/>
-    <hyperlink ref="AQ9" r:id="rId11"/>
-    <hyperlink ref="AW9" r:id="rId12"/>
-    <hyperlink ref="BC9" r:id="rId13"/>
-    <hyperlink ref="D10" r:id="rId14"/>
-    <hyperlink ref="S10" r:id="rId15"/>
-    <hyperlink ref="S11" r:id="rId16"/>
-    <hyperlink ref="M21" r:id="rId17"/>
-    <hyperlink ref="S21" r:id="rId18"/>
-    <hyperlink ref="Y21" r:id="rId19"/>
-    <hyperlink ref="AK21" r:id="rId20"/>
-    <hyperlink ref="AQ21" r:id="rId21"/>
-    <hyperlink ref="BC21" r:id="rId22"/>
-    <hyperlink ref="M22" r:id="rId23"/>
-    <hyperlink ref="S22" r:id="rId24"/>
-    <hyperlink ref="Y22" r:id="rId25"/>
-    <hyperlink ref="AK22" r:id="rId26"/>
-    <hyperlink ref="AQ22" r:id="rId27"/>
-    <hyperlink ref="D24" r:id="rId28"/>
+    <hyperlink ref="S7" r:id="rId1"/>
+    <hyperlink ref="AK7" r:id="rId2"/>
+    <hyperlink ref="AQ7" r:id="rId3"/>
+    <hyperlink ref="AW7" r:id="rId4"/>
+    <hyperlink ref="BC7" r:id="rId5"/>
+    <hyperlink ref="M8" r:id="rId6"/>
+    <hyperlink ref="S8" r:id="rId7"/>
+    <hyperlink ref="Y8" r:id="rId8"/>
+    <hyperlink ref="AK8" r:id="rId9"/>
+    <hyperlink ref="AQ8" r:id="rId10"/>
+    <hyperlink ref="M10" r:id="rId11"/>
+    <hyperlink ref="S10" r:id="rId12"/>
+    <hyperlink ref="Y10" r:id="rId13"/>
+    <hyperlink ref="AE10" r:id="rId14"/>
+    <hyperlink ref="AK10" r:id="rId15"/>
+    <hyperlink ref="AQ10" r:id="rId16"/>
+    <hyperlink ref="AW10" r:id="rId17"/>
+    <hyperlink ref="BC10" r:id="rId18"/>
+    <hyperlink ref="D13" r:id="rId19"/>
+    <hyperlink ref="S13" r:id="rId20"/>
+    <hyperlink ref="S14" r:id="rId21"/>
+    <hyperlink ref="S18" r:id="rId22"/>
+    <hyperlink ref="Y18" r:id="rId23"/>
+    <hyperlink ref="AK18" r:id="rId24"/>
+    <hyperlink ref="AQ18" r:id="rId25"/>
+    <hyperlink ref="AW18" r:id="rId26"/>
+    <hyperlink ref="M24" r:id="rId27"/>
+    <hyperlink ref="S24" r:id="rId28"/>
     <hyperlink ref="Y24" r:id="rId29"/>
     <hyperlink ref="AK24" r:id="rId30"/>
     <hyperlink ref="AQ24" r:id="rId31"/>
-    <hyperlink ref="BC24" r:id="rId32"/>
-    <hyperlink ref="D25" r:id="rId33"/>
-    <hyperlink ref="S25" r:id="rId34"/>
-    <hyperlink ref="AK25" r:id="rId35"/>
-    <hyperlink ref="D26" r:id="rId36"/>
+    <hyperlink ref="M25" r:id="rId32"/>
+    <hyperlink ref="S25" r:id="rId33"/>
+    <hyperlink ref="AK25" r:id="rId34"/>
+    <hyperlink ref="AQ25" r:id="rId35"/>
+    <hyperlink ref="M26" r:id="rId36"/>
     <hyperlink ref="S26" r:id="rId37"/>
-    <hyperlink ref="D27" r:id="rId38"/>
-    <hyperlink ref="S27" r:id="rId39"/>
-    <hyperlink ref="Y27" r:id="rId40"/>
-    <hyperlink ref="AK27" r:id="rId41"/>
-    <hyperlink ref="AQ27" r:id="rId42"/>
-    <hyperlink ref="H29" r:id="rId43"/>
-    <hyperlink ref="N29" r:id="rId44"/>
-    <hyperlink ref="T29" r:id="rId45"/>
-    <hyperlink ref="Z29" r:id="rId46"/>
-    <hyperlink ref="AF29" r:id="rId47"/>
-    <hyperlink ref="AL29" r:id="rId48"/>
-    <hyperlink ref="AR29" r:id="rId49"/>
-    <hyperlink ref="AX29" r:id="rId50"/>
+    <hyperlink ref="AK26" r:id="rId38"/>
+    <hyperlink ref="AQ26" r:id="rId39"/>
+    <hyperlink ref="D27" r:id="rId40"/>
+    <hyperlink ref="S27" r:id="rId41"/>
+    <hyperlink ref="BC27" r:id="rId42"/>
+    <hyperlink ref="D28" r:id="rId43"/>
+    <hyperlink ref="AK28" r:id="rId44"/>
+    <hyperlink ref="D29" r:id="rId45"/>
+    <hyperlink ref="S29" r:id="rId46"/>
+    <hyperlink ref="D30" r:id="rId47"/>
+    <hyperlink ref="S30" r:id="rId48"/>
+    <hyperlink ref="Y30" r:id="rId49"/>
+    <hyperlink ref="AK30" r:id="rId50"/>
+    <hyperlink ref="AQ30" r:id="rId51"/>
+    <hyperlink ref="H32" r:id="rId52"/>
+    <hyperlink ref="N32" r:id="rId53"/>
+    <hyperlink ref="T32" r:id="rId54"/>
+    <hyperlink ref="Z32" r:id="rId55"/>
+    <hyperlink ref="AF32" r:id="rId56"/>
+    <hyperlink ref="AL32" r:id="rId57"/>
+    <hyperlink ref="AR32" r:id="rId58"/>
+    <hyperlink ref="AX32" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId51"/>
+  <legacyDrawing r:id="rId60"/>
 </worksheet>
 </file>